--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="40" activeTab="40"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="46" activeTab="52"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -35,30 +35,34 @@
     <sheet name="TransferOfOwnership_E2C" sheetId="53" r:id="rId26"/>
     <sheet name="TransferOfOwnership_E2E" sheetId="51" r:id="rId27"/>
     <sheet name="LanguageChange" sheetId="54" r:id="rId28"/>
-    <sheet name="ConsumerPostpaid_GuidedJourney" sheetId="32" r:id="rId29"/>
-    <sheet name="SIMSwap_Guided_Journey" sheetId="27" r:id="rId30"/>
-    <sheet name="SIMSwap_Global_Search" sheetId="28" r:id="rId31"/>
-    <sheet name="ModifySmartLimit_Acc360" sheetId="49" r:id="rId32"/>
-    <sheet name="UpgradePromotion_Acc360" sheetId="34" r:id="rId33"/>
-    <sheet name="Account360view" sheetId="35" r:id="rId34"/>
-    <sheet name="OpenUI_AccesRrights_6Segments" sheetId="36" r:id="rId35"/>
-    <sheet name="BillGeneration_AccountLevel" sheetId="25" r:id="rId36"/>
-    <sheet name="InvoiceToPDF_Generation" sheetId="39" r:id="rId37"/>
-    <sheet name="DunningProcess" sheetId="41" r:id="rId38"/>
-    <sheet name="DunningAction" sheetId="42" r:id="rId39"/>
-    <sheet name="CollectionExit" sheetId="43" r:id="rId40"/>
-    <sheet name="LocalCall" sheetId="40" r:id="rId41"/>
-    <sheet name="Postpaid_USSD_Act-DeAct" sheetId="45" r:id="rId42"/>
-    <sheet name="SIPT" sheetId="14" r:id="rId43"/>
-    <sheet name="ConsumerFixedLine_Provision" sheetId="30" r:id="rId44"/>
-    <sheet name="EnterpriseFixedLine_Provision" sheetId="31" r:id="rId45"/>
-    <sheet name="FL_ONT_CPE_Replacement" sheetId="44" r:id="rId46"/>
-    <sheet name="ETHERNET" sheetId="46" r:id="rId47"/>
-    <sheet name="LEASEDLINE" sheetId="47" r:id="rId48"/>
-    <sheet name="IPLC" sheetId="48" r:id="rId49"/>
+    <sheet name="Activities" sheetId="55" r:id="rId29"/>
+    <sheet name="ConsumerPostpaid_GuidedJourney" sheetId="32" r:id="rId30"/>
+    <sheet name="SIMSwap_Guided_Journey" sheetId="27" r:id="rId31"/>
+    <sheet name="SIMSwap_Global_Search" sheetId="28" r:id="rId32"/>
+    <sheet name="ModifySmartLimit_Acc360" sheetId="49" r:id="rId33"/>
+    <sheet name="UpgradePromotion_Acc360" sheetId="34" r:id="rId34"/>
+    <sheet name="Account360view" sheetId="35" r:id="rId35"/>
+    <sheet name="OpenUI_AccesRrights_6Segments" sheetId="36" r:id="rId36"/>
+    <sheet name="BillGeneration_AccountLevel" sheetId="25" r:id="rId37"/>
+    <sheet name="InvoiceToPDF_Generation" sheetId="39" r:id="rId38"/>
+    <sheet name="DunningProcess" sheetId="41" r:id="rId39"/>
+    <sheet name="DunningAction" sheetId="42" r:id="rId40"/>
+    <sheet name="CollectionExit" sheetId="43" r:id="rId41"/>
+    <sheet name="LocalCall" sheetId="40" r:id="rId42"/>
+    <sheet name="Postpaid_USSD_Act-DeAct" sheetId="45" r:id="rId43"/>
+    <sheet name="SIPT" sheetId="14" r:id="rId44"/>
+    <sheet name="ConsumerFixedLine_Provision" sheetId="30" r:id="rId45"/>
+    <sheet name="EnterpriseFixedLine_Provision" sheetId="31" r:id="rId46"/>
+    <sheet name="FL_ONT_CPE_Replacement" sheetId="44" r:id="rId47"/>
+    <sheet name="ETHERNET" sheetId="46" r:id="rId48"/>
+    <sheet name="LEASEDLINE" sheetId="47" r:id="rId49"/>
+    <sheet name="IPLC" sheetId="48" r:id="rId50"/>
+    <sheet name="PearlMobile_Provisioning" sheetId="56" r:id="rId51"/>
+    <sheet name="PearlData_Provisioning" sheetId="57" r:id="rId52"/>
+    <sheet name="DAPN_Provisioning" sheetId="58" r:id="rId53"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId50"/>
+    <externalReference r:id="rId54"/>
   </externalReferences>
   <definedNames>
     <definedName name="UseCase">[1]LOV!$A$2:$A$25</definedName>
@@ -68,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2419" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2634" uniqueCount="522">
   <si>
     <t>TestCase</t>
   </si>
@@ -1598,13 +1602,49 @@
   </si>
   <si>
     <t>1000</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>A_Language</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Sub_Topic</t>
+  </si>
+  <si>
+    <t>Interaction_Type</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Test001</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Pearl Data Bundle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1746,8 +1786,34 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1769,6 +1835,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6DCE4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1885,7 +1957,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2027,10 +2099,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4094,12 +4194,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2">
-    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6540,12 +6640,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2">
-    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6734,10 +6834,10 @@
       <c r="G2" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="61" t="s">
+      <c r="H2" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="61"/>
+      <c r="I2" s="63"/>
       <c r="J2" s="56" t="s">
         <v>45</v>
       </c>
@@ -6750,10 +6850,10 @@
       <c r="M2" s="59">
         <v>1126194</v>
       </c>
-      <c r="P2" s="61" t="s">
+      <c r="P2" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="61"/>
+      <c r="Q2" s="63"/>
       <c r="T2" s="56" t="s">
         <v>71</v>
       </c>
@@ -7132,12 +7232,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2">
-    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7324,10 +7424,10 @@
       <c r="G2" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="61" t="s">
+      <c r="H2" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="61"/>
+      <c r="I2" s="63"/>
       <c r="J2" s="56" t="s">
         <v>45</v>
       </c>
@@ -7340,10 +7440,10 @@
       <c r="M2" s="59">
         <v>1126194</v>
       </c>
-      <c r="P2" s="61" t="s">
+      <c r="P2" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="61"/>
+      <c r="Q2" s="63"/>
       <c r="T2" s="56" t="s">
         <v>71</v>
       </c>
@@ -7447,7 +7547,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7482,11 +7582,11 @@
       <c r="B2" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7498,238 +7598,97 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="17" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>350</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>352</v>
-      </c>
-      <c r="S1" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="T1" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="U1" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="V1" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="W1" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="X1" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y1" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="62" t="s">
+        <v>517</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="C2" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q2" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="R2" s="19">
-        <v>97412345678</v>
-      </c>
-      <c r="S2" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="T2" s="19" t="s">
-        <v>364</v>
-      </c>
-      <c r="U2" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="V2" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="W2" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="X2" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y2" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="19" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="K2" s="61" t="s">
+        <v>518</v>
+      </c>
+      <c r="L2" s="61" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="62" t="s">
+        <v>520</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="C3" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q3" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="R3" s="19">
-        <v>97412345678</v>
-      </c>
-      <c r="S3" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="T3" s="19" t="s">
-        <v>364</v>
-      </c>
-      <c r="U3" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="V3" s="19" t="s">
-        <v>43</v>
-      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8267,6 +8226,246 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD3"/>
+  <sheetViews>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="X1" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="R2" s="19">
+        <v>97412345678</v>
+      </c>
+      <c r="S2" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="T2" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="U2" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="V2" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="X2" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y2" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="R3" s="19">
+        <v>97412345678</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="T3" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="U3" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="V3" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8338,7 +8537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -8442,7 +8641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -8486,7 +8685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -8577,7 +8776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -8668,7 +8867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB18"/>
   <sheetViews>
@@ -9232,7 +9431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
@@ -9310,7 +9509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -9357,7 +9556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -9405,58 +9604,6 @@
       <c r="C2" s="19" t="s">
         <v>33</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16:N16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9790,6 +9937,58 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M16" sqref="M16:N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9846,12 +10045,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9891,7 +10090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -9944,7 +10143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT7"/>
   <sheetViews>
@@ -10323,18 +10522,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="35" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2">
-    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO3"/>
   <sheetViews>
@@ -10621,18 +10820,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2">
-    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO3"/>
   <sheetViews>
@@ -10916,18 +11115,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:W3">
-    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
@@ -10996,11 +11195,11 @@
       <c r="E2" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
@@ -11009,11 +11208,11 @@
       <c r="E3" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
@@ -11022,11 +11221,11 @@
       <c r="E4" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11039,7 +11238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA7"/>
   <sheetViews>
@@ -11470,7 +11669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD7"/>
   <sheetViews>
@@ -11896,425 +12095,6 @@
   <conditionalFormatting sqref="V2">
     <cfRule type="duplicateValues" dxfId="5" priority="1"/>
     <cfRule type="duplicateValues" dxfId="4" priority="2"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB7"/>
-  <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AO5" sqref="AO5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="46" max="46" width="23.85546875" customWidth="1"/>
-    <col min="47" max="47" width="31.5703125" customWidth="1"/>
-    <col min="48" max="48" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="39.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT1" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU1" s="40" t="s">
-        <v>456</v>
-      </c>
-      <c r="AV1" s="40" t="s">
-        <v>457</v>
-      </c>
-      <c r="AW1" s="40" t="s">
-        <v>469</v>
-      </c>
-      <c r="AX1" s="40" t="s">
-        <v>470</v>
-      </c>
-      <c r="AY1" s="40" t="s">
-        <v>488</v>
-      </c>
-      <c r="AZ1" s="40" t="s">
-        <v>489</v>
-      </c>
-      <c r="BA1" s="40" t="s">
-        <v>490</v>
-      </c>
-      <c r="BB1" s="40" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>492</v>
-      </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K2" t="s">
-        <v>116</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AS2" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT2" s="43" t="s">
-        <v>494</v>
-      </c>
-      <c r="AU2" s="43" t="s">
-        <v>495</v>
-      </c>
-      <c r="AV2" s="43" t="s">
-        <v>495</v>
-      </c>
-      <c r="AW2" s="43" t="s">
-        <v>496</v>
-      </c>
-      <c r="AX2" s="43" t="s">
-        <v>496</v>
-      </c>
-      <c r="AY2" s="43" t="s">
-        <v>497</v>
-      </c>
-      <c r="AZ2" s="43" t="s">
-        <v>498</v>
-      </c>
-      <c r="BA2" s="43" t="s">
-        <v>499</v>
-      </c>
-      <c r="BB2" s="43" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="L3" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="AI3" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="L4" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="AI4" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="L5" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="AI5" s="6"/>
-      <c r="AK5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="L6" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="AO6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="L7" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="AO7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V2">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12653,6 +12433,1129 @@
     <cfRule type="duplicateValues" dxfId="41" priority="1"/>
     <cfRule type="duplicateValues" dxfId="40" priority="2"/>
   </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BB7"/>
+  <sheetViews>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AO5" sqref="AO5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="46" max="46" width="23.85546875" customWidth="1"/>
+    <col min="47" max="47" width="31.5703125" customWidth="1"/>
+    <col min="48" max="48" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="39.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT1" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU1" s="40" t="s">
+        <v>456</v>
+      </c>
+      <c r="AV1" s="40" t="s">
+        <v>457</v>
+      </c>
+      <c r="AW1" s="40" t="s">
+        <v>469</v>
+      </c>
+      <c r="AX1" s="40" t="s">
+        <v>470</v>
+      </c>
+      <c r="AY1" s="40" t="s">
+        <v>488</v>
+      </c>
+      <c r="AZ1" s="40" t="s">
+        <v>489</v>
+      </c>
+      <c r="BA1" s="40" t="s">
+        <v>490</v>
+      </c>
+      <c r="BB1" s="40" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT2" s="43" t="s">
+        <v>494</v>
+      </c>
+      <c r="AU2" s="43" t="s">
+        <v>495</v>
+      </c>
+      <c r="AV2" s="43" t="s">
+        <v>495</v>
+      </c>
+      <c r="AW2" s="43" t="s">
+        <v>496</v>
+      </c>
+      <c r="AX2" s="43" t="s">
+        <v>496</v>
+      </c>
+      <c r="AY2" s="43" t="s">
+        <v>497</v>
+      </c>
+      <c r="AZ2" s="43" t="s">
+        <v>498</v>
+      </c>
+      <c r="BA2" s="43" t="s">
+        <v>499</v>
+      </c>
+      <c r="BB2" s="43" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="L3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="AI3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="L4" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="AI4" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="L5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="AI5" s="6"/>
+      <c r="AK5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="L6" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="AO6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="L7" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="AO7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G1:H1">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB1" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD1" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE1" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF1" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG1" s="65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="L2" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q2" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC2" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD2" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE2" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF2" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG2" s="68"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB1" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD1" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE1" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF1" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG1" s="65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="68" t="s">
+        <v>521</v>
+      </c>
+      <c r="E2" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="L2" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q2" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC2" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD2" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE2" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF2" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG2" s="68"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AN3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="U1" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="X1" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB1" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC1" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD1" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE1" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF1" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG1" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH1" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI1" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ1" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK1" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL1" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM1" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN1" s="66" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A2" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y2" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z2" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA2" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB2" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD2" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE2" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF2" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG2" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH2" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK2" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL2" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM2" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN2" s="67" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A3" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="67"/>
+      <c r="AI3" s="67"/>
+      <c r="AJ3" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK3" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL3" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM3" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN3" s="67" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="46" activeTab="52"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="28" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -36,33 +36,34 @@
     <sheet name="TransferOfOwnership_E2E" sheetId="51" r:id="rId27"/>
     <sheet name="LanguageChange" sheetId="54" r:id="rId28"/>
     <sheet name="Activities" sheetId="55" r:id="rId29"/>
-    <sheet name="ConsumerPostpaid_GuidedJourney" sheetId="32" r:id="rId30"/>
-    <sheet name="SIMSwap_Guided_Journey" sheetId="27" r:id="rId31"/>
-    <sheet name="SIMSwap_Global_Search" sheetId="28" r:id="rId32"/>
-    <sheet name="ModifySmartLimit_Acc360" sheetId="49" r:id="rId33"/>
-    <sheet name="UpgradePromotion_Acc360" sheetId="34" r:id="rId34"/>
-    <sheet name="Account360view" sheetId="35" r:id="rId35"/>
-    <sheet name="OpenUI_AccesRrights_6Segments" sheetId="36" r:id="rId36"/>
-    <sheet name="BillGeneration_AccountLevel" sheetId="25" r:id="rId37"/>
-    <sheet name="InvoiceToPDF_Generation" sheetId="39" r:id="rId38"/>
-    <sheet name="DunningProcess" sheetId="41" r:id="rId39"/>
-    <sheet name="DunningAction" sheetId="42" r:id="rId40"/>
-    <sheet name="CollectionExit" sheetId="43" r:id="rId41"/>
-    <sheet name="LocalCall" sheetId="40" r:id="rId42"/>
-    <sheet name="Postpaid_USSD_Act-DeAct" sheetId="45" r:id="rId43"/>
-    <sheet name="SIPT" sheetId="14" r:id="rId44"/>
-    <sheet name="ConsumerFixedLine_Provision" sheetId="30" r:id="rId45"/>
-    <sheet name="EnterpriseFixedLine_Provision" sheetId="31" r:id="rId46"/>
-    <sheet name="FL_ONT_CPE_Replacement" sheetId="44" r:id="rId47"/>
-    <sheet name="ETHERNET" sheetId="46" r:id="rId48"/>
-    <sheet name="LEASEDLINE" sheetId="47" r:id="rId49"/>
-    <sheet name="IPLC" sheetId="48" r:id="rId50"/>
-    <sheet name="PearlMobile_Provisioning" sheetId="56" r:id="rId51"/>
-    <sheet name="PearlData_Provisioning" sheetId="57" r:id="rId52"/>
-    <sheet name="DAPN_Provisioning" sheetId="58" r:id="rId53"/>
+    <sheet name="CreditLimit" sheetId="59" r:id="rId30"/>
+    <sheet name="ConsumerPostpaid_GuidedJourney" sheetId="32" r:id="rId31"/>
+    <sheet name="SIMSwap_Guided_Journey" sheetId="27" r:id="rId32"/>
+    <sheet name="SIMSwap_Global_Search" sheetId="28" r:id="rId33"/>
+    <sheet name="ModifySmartLimit_Acc360" sheetId="49" r:id="rId34"/>
+    <sheet name="UpgradePromotion_Acc360" sheetId="34" r:id="rId35"/>
+    <sheet name="Account360view" sheetId="35" r:id="rId36"/>
+    <sheet name="OpenUI_AccesRrights_6Segments" sheetId="36" r:id="rId37"/>
+    <sheet name="BillGeneration_AccountLevel" sheetId="25" r:id="rId38"/>
+    <sheet name="InvoiceToPDF_Generation" sheetId="39" r:id="rId39"/>
+    <sheet name="DunningProcess" sheetId="41" r:id="rId40"/>
+    <sheet name="DunningAction" sheetId="42" r:id="rId41"/>
+    <sheet name="CollectionExit" sheetId="43" r:id="rId42"/>
+    <sheet name="LocalCall" sheetId="40" r:id="rId43"/>
+    <sheet name="Postpaid_USSD_Act-DeAct" sheetId="45" r:id="rId44"/>
+    <sheet name="SIPT" sheetId="14" r:id="rId45"/>
+    <sheet name="ConsumerFixedLine_Provision" sheetId="30" r:id="rId46"/>
+    <sheet name="EnterpriseFixedLine_Provision" sheetId="31" r:id="rId47"/>
+    <sheet name="FL_ONT_CPE_Replacement" sheetId="44" r:id="rId48"/>
+    <sheet name="ETHERNET" sheetId="46" r:id="rId49"/>
+    <sheet name="LEASEDLINE" sheetId="47" r:id="rId50"/>
+    <sheet name="IPLC" sheetId="48" r:id="rId51"/>
+    <sheet name="PearlMobile_Provisioning" sheetId="56" r:id="rId52"/>
+    <sheet name="PearlData_Provisioning" sheetId="57" r:id="rId53"/>
+    <sheet name="DAPN_Provisioning" sheetId="58" r:id="rId54"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId54"/>
+    <externalReference r:id="rId55"/>
   </externalReferences>
   <definedNames>
     <definedName name="UseCase">[1]LOV!$A$2:$A$25</definedName>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2634" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2643" uniqueCount="524">
   <si>
     <t>TestCase</t>
   </si>
@@ -1638,6 +1639,12 @@
   </si>
   <si>
     <t>Pearl Data Bundle</t>
+  </si>
+  <si>
+    <t>CreditLimit</t>
+  </si>
+  <si>
+    <t>WinCashReference</t>
   </si>
 </sst>
 </file>
@@ -1845,7 +1852,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1953,11 +1960,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2105,9 +2121,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2131,6 +2144,15 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6834,10 +6856,10 @@
       <c r="G2" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="63" t="s">
+      <c r="H2" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="63"/>
+      <c r="I2" s="74"/>
       <c r="J2" s="56" t="s">
         <v>45</v>
       </c>
@@ -6850,10 +6872,10 @@
       <c r="M2" s="59">
         <v>1126194</v>
       </c>
-      <c r="P2" s="63" t="s">
+      <c r="P2" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="63"/>
+      <c r="Q2" s="74"/>
       <c r="T2" s="56" t="s">
         <v>71</v>
       </c>
@@ -7424,10 +7446,10 @@
       <c r="G2" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="63" t="s">
+      <c r="H2" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="63"/>
+      <c r="I2" s="74"/>
       <c r="J2" s="56" t="s">
         <v>45</v>
       </c>
@@ -7440,10 +7462,10 @@
       <c r="M2" s="59">
         <v>1126194</v>
       </c>
-      <c r="P2" s="63" t="s">
+      <c r="P2" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="63"/>
+      <c r="Q2" s="74"/>
       <c r="T2" s="56" t="s">
         <v>71</v>
       </c>
@@ -7582,11 +7604,11 @@
       <c r="B2" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8226,6 +8248,55 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView topLeftCell="P1" workbookViewId="0">
@@ -8464,7 +8535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -8537,7 +8608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -8641,7 +8712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -8685,7 +8756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -8776,7 +8847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -8867,7 +8938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB18"/>
   <sheetViews>
@@ -9431,7 +9502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
@@ -9509,7 +9580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -9550,60 +9621,6 @@
         <v>338</v>
       </c>
       <c r="D3" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>443</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>33</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9937,6 +9954,60 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9987,7 +10058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -10045,7 +10116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -10090,7 +10161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -10143,7 +10214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT7"/>
   <sheetViews>
@@ -10533,7 +10604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO3"/>
   <sheetViews>
@@ -10831,7 +10902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO3"/>
   <sheetViews>
@@ -11126,7 +11197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
@@ -11195,11 +11266,11 @@
       <c r="E2" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
@@ -11208,11 +11279,11 @@
       <c r="E3" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="F3" s="64" t="s">
+      <c r="F3" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
@@ -11221,11 +11292,11 @@
       <c r="E4" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11238,7 +11309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA7"/>
   <sheetViews>
@@ -11666,437 +11737,6 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD7"/>
-  <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AO5" sqref="AO5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="46" max="46" width="15.28515625" style="46" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11.85546875" customWidth="1"/>
-    <col min="49" max="50" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="29" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="31.28515625" customWidth="1"/>
-    <col min="53" max="53" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="21.28515625" customWidth="1"/>
-    <col min="55" max="55" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="16.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT1" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU1" s="40" t="s">
-        <v>456</v>
-      </c>
-      <c r="AV1" s="40" t="s">
-        <v>457</v>
-      </c>
-      <c r="AW1" s="40" t="s">
-        <v>469</v>
-      </c>
-      <c r="AX1" s="40" t="s">
-        <v>470</v>
-      </c>
-      <c r="AY1" s="40" t="s">
-        <v>471</v>
-      </c>
-      <c r="AZ1" s="40" t="s">
-        <v>472</v>
-      </c>
-      <c r="BA1" s="40" t="s">
-        <v>473</v>
-      </c>
-      <c r="BB1" s="40" t="s">
-        <v>474</v>
-      </c>
-      <c r="BC1" s="40" t="s">
-        <v>475</v>
-      </c>
-      <c r="BD1" s="40" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>477</v>
-      </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K2" t="s">
-        <v>116</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AS2" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT2" s="44" t="s">
-        <v>479</v>
-      </c>
-      <c r="AU2" s="43" t="s">
-        <v>480</v>
-      </c>
-      <c r="AV2" s="43" t="s">
-        <v>480</v>
-      </c>
-      <c r="AW2" s="45" t="s">
-        <v>481</v>
-      </c>
-      <c r="AX2" s="43" t="s">
-        <v>481</v>
-      </c>
-      <c r="AY2" s="43" t="s">
-        <v>482</v>
-      </c>
-      <c r="AZ2" s="43" t="s">
-        <v>483</v>
-      </c>
-      <c r="BA2" s="43" t="s">
-        <v>484</v>
-      </c>
-      <c r="BB2" s="43" t="s">
-        <v>485</v>
-      </c>
-      <c r="BC2" s="43" t="s">
-        <v>486</v>
-      </c>
-      <c r="BD2" s="43" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="L3" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="AI3" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="L4" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="AI4" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="L5" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="AI5" s="6"/>
-      <c r="AK5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="L6" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="AO6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="L7" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="AO7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V2">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -12439,6 +12079,437 @@
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BD7"/>
+  <sheetViews>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AO5" sqref="AO5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="46" max="46" width="15.28515625" style="46" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.85546875" customWidth="1"/>
+    <col min="49" max="50" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="29" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="31.28515625" customWidth="1"/>
+    <col min="53" max="53" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="21.28515625" customWidth="1"/>
+    <col min="55" max="55" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT1" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU1" s="40" t="s">
+        <v>456</v>
+      </c>
+      <c r="AV1" s="40" t="s">
+        <v>457</v>
+      </c>
+      <c r="AW1" s="40" t="s">
+        <v>469</v>
+      </c>
+      <c r="AX1" s="40" t="s">
+        <v>470</v>
+      </c>
+      <c r="AY1" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="AZ1" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="BA1" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="BB1" s="40" t="s">
+        <v>474</v>
+      </c>
+      <c r="BC1" s="40" t="s">
+        <v>475</v>
+      </c>
+      <c r="BD1" s="40" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>477</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT2" s="44" t="s">
+        <v>479</v>
+      </c>
+      <c r="AU2" s="43" t="s">
+        <v>480</v>
+      </c>
+      <c r="AV2" s="43" t="s">
+        <v>480</v>
+      </c>
+      <c r="AW2" s="45" t="s">
+        <v>481</v>
+      </c>
+      <c r="AX2" s="43" t="s">
+        <v>481</v>
+      </c>
+      <c r="AY2" s="43" t="s">
+        <v>482</v>
+      </c>
+      <c r="AZ2" s="43" t="s">
+        <v>483</v>
+      </c>
+      <c r="BA2" s="43" t="s">
+        <v>484</v>
+      </c>
+      <c r="BB2" s="43" t="s">
+        <v>485</v>
+      </c>
+      <c r="BC2" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="BD2" s="43" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="L3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="AI3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="L4" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="AI4" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="L5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="AI5" s="6"/>
+      <c r="AK5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="L6" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="AO6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="L7" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="AO7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G1:H1">
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB7"/>
   <sheetViews>
     <sheetView topLeftCell="AC1" workbookViewId="0">
@@ -12856,7 +12927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2"/>
   <sheetViews>
@@ -12867,195 +12938,195 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="66" t="s">
+      <c r="J1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="66" t="s">
+      <c r="M1" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="66" t="s">
+      <c r="N1" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="66" t="s">
+      <c r="O1" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="66" t="s">
+      <c r="P1" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="66" t="s">
+      <c r="Q1" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="66" t="s">
+      <c r="R1" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="66" t="s">
+      <c r="S1" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="66" t="s">
+      <c r="T1" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="65" t="s">
+      <c r="U1" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="66" t="s">
+      <c r="V1" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="66" t="s">
+      <c r="W1" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="66" t="s">
+      <c r="X1" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="66" t="s">
+      <c r="Y1" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="66" t="s">
+      <c r="Z1" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="65" t="s">
+      <c r="AA1" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="AB1" s="66" t="s">
+      <c r="AB1" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="66" t="s">
+      <c r="AC1" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="66" t="s">
+      <c r="AD1" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="AE1" s="66" t="s">
+      <c r="AE1" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="AF1" s="66" t="s">
+      <c r="AF1" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="65" t="s">
+      <c r="AG1" s="64" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="68" t="s">
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="69" t="s">
+      <c r="I2" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="70" t="s">
+      <c r="J2" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="71" t="s">
+      <c r="K2" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="L2" s="68" t="s">
+      <c r="L2" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="68" t="s">
+      <c r="M2" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="68" t="s">
+      <c r="N2" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="68" t="s">
+      <c r="O2" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="71" t="s">
+      <c r="P2" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="Q2" s="68" t="s">
+      <c r="Q2" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="71" t="s">
+      <c r="R2" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="68" t="s">
+      <c r="S2" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67" t="s">
+      <c r="T2" s="66"/>
+      <c r="U2" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="68" t="s">
+      <c r="V2" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="68" t="s">
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="68" t="s">
+      <c r="AC2" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="AD2" s="67" t="s">
+      <c r="AD2" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="AE2" s="68" t="s">
+      <c r="AE2" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="AF2" s="67" t="s">
+      <c r="AF2" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" s="68"/>
+      <c r="AG2" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2"/>
   <sheetViews>
@@ -13066,199 +13137,199 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="66" t="s">
+      <c r="J1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="66" t="s">
+      <c r="M1" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="66" t="s">
+      <c r="N1" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="66" t="s">
+      <c r="O1" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="66" t="s">
+      <c r="P1" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="66" t="s">
+      <c r="Q1" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="66" t="s">
+      <c r="R1" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="66" t="s">
+      <c r="S1" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="66" t="s">
+      <c r="T1" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="65" t="s">
+      <c r="U1" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="66" t="s">
+      <c r="V1" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="66" t="s">
+      <c r="W1" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="66" t="s">
+      <c r="X1" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="66" t="s">
+      <c r="Y1" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="66" t="s">
+      <c r="Z1" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="65" t="s">
+      <c r="AA1" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="AB1" s="66" t="s">
+      <c r="AB1" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="66" t="s">
+      <c r="AC1" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="66" t="s">
+      <c r="AD1" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="AE1" s="66" t="s">
+      <c r="AE1" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="AF1" s="66" t="s">
+      <c r="AF1" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="65" t="s">
+      <c r="AG1" s="64" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="67" t="s">
         <v>521</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="68" t="s">
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="69" t="s">
+      <c r="I2" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="70" t="s">
+      <c r="J2" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="71" t="s">
+      <c r="K2" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="L2" s="68" t="s">
+      <c r="L2" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="68" t="s">
+      <c r="M2" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="68" t="s">
+      <c r="N2" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="68" t="s">
+      <c r="O2" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="71" t="s">
+      <c r="P2" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="Q2" s="68" t="s">
+      <c r="Q2" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="71" t="s">
+      <c r="R2" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="68" t="s">
+      <c r="S2" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67" t="s">
+      <c r="T2" s="66"/>
+      <c r="U2" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="68" t="s">
+      <c r="V2" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="68" t="s">
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="68" t="s">
+      <c r="AC2" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="AD2" s="67" t="s">
+      <c r="AD2" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="AE2" s="68" t="s">
+      <c r="AE2" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="AF2" s="67" t="s">
+      <c r="AF2" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" s="68"/>
+      <c r="AG2" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
@@ -13268,290 +13339,290 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="66" t="s">
+      <c r="J1" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="66" t="s">
+      <c r="M1" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="66" t="s">
+      <c r="N1" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="66" t="s">
+      <c r="O1" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="66" t="s">
+      <c r="P1" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="66" t="s">
+      <c r="Q1" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="66" t="s">
+      <c r="R1" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="66" t="s">
+      <c r="S1" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="66" t="s">
+      <c r="T1" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="66" t="s">
+      <c r="U1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="66" t="s">
+      <c r="V1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="66" t="s">
+      <c r="W1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="66" t="s">
+      <c r="X1" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="66" t="s">
+      <c r="Y1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="66" t="s">
+      <c r="Z1" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="AA1" s="66" t="s">
+      <c r="AA1" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="AB1" s="66" t="s">
+      <c r="AB1" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="AC1" s="66" t="s">
+      <c r="AC1" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="AD1" s="66" t="s">
+      <c r="AD1" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="AE1" s="66" t="s">
+      <c r="AE1" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="AF1" s="66" t="s">
+      <c r="AF1" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="AG1" s="66" t="s">
+      <c r="AG1" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="AH1" s="66" t="s">
+      <c r="AH1" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="AI1" s="65" t="s">
+      <c r="AI1" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="AJ1" s="66" t="s">
+      <c r="AJ1" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="AK1" s="66" t="s">
+      <c r="AK1" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="AL1" s="66" t="s">
+      <c r="AL1" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="AM1" s="66" t="s">
+      <c r="AM1" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="AN1" s="66" t="s">
+      <c r="AN1" s="65" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67" t="s">
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="67" t="s">
+      <c r="I2" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67" t="s">
+      <c r="J2" s="66"/>
+      <c r="K2" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="67" t="s">
+      <c r="L2" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="M2" s="67" t="s">
+      <c r="M2" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="N2" s="72" t="s">
+      <c r="N2" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67" t="s">
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="68" t="s">
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="V2" s="68" t="s">
+      <c r="V2" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="W2" s="67" t="s">
+      <c r="W2" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="X2" s="67" t="s">
+      <c r="X2" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="Y2" s="71" t="s">
+      <c r="Y2" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="Z2" s="71" t="s">
+      <c r="Z2" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="AA2" s="68" t="s">
+      <c r="AA2" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="AB2" s="67" t="s">
+      <c r="AB2" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="AC2" s="73" t="s">
+      <c r="AC2" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="AD2" s="67" t="s">
+      <c r="AD2" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="AE2" s="67" t="s">
+      <c r="AE2" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="AF2" s="68" t="s">
+      <c r="AF2" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="AG2" s="73" t="s">
+      <c r="AG2" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="AH2" s="73" t="s">
+      <c r="AH2" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="AI2" s="67"/>
-      <c r="AJ2" s="68" t="s">
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="AK2" s="68" t="s">
+      <c r="AK2" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="AL2" s="68" t="s">
+      <c r="AL2" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="AM2" s="68" t="s">
+      <c r="AM2" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="AN2" s="67" t="s">
+      <c r="AN2" s="66" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="67"/>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="67"/>
-      <c r="AH3" s="67"/>
-      <c r="AI3" s="67"/>
-      <c r="AJ3" s="68" t="s">
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="67"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="AK3" s="68" t="s">
+      <c r="AK3" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="AL3" s="68" t="s">
+      <c r="AL3" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="AM3" s="68" t="s">
+      <c r="AM3" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="AN3" s="67" t="s">
+      <c r="AN3" s="66" t="s">
         <v>50</v>
       </c>
     </row>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="28" activeTab="29"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="35" activeTab="37"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2643" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2646" uniqueCount="526">
   <si>
     <t>TestCase</t>
   </si>
@@ -1645,6 +1645,12 @@
   </si>
   <si>
     <t>WinCashReference</t>
+  </si>
+  <si>
+    <t>PinBillRunControl.xml</t>
+  </si>
+  <si>
+    <t>/brmapp/opt/portal/7.5.0/apps/pin_billd</t>
   </si>
 </sst>
 </file>
@@ -2146,13 +2152,13 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6856,10 +6862,10 @@
       <c r="G2" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="74" t="s">
+      <c r="H2" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="74"/>
+      <c r="I2" s="75"/>
       <c r="J2" s="56" t="s">
         <v>45</v>
       </c>
@@ -6872,10 +6878,10 @@
       <c r="M2" s="59">
         <v>1126194</v>
       </c>
-      <c r="P2" s="74" t="s">
+      <c r="P2" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="74"/>
+      <c r="Q2" s="75"/>
       <c r="T2" s="56" t="s">
         <v>71</v>
       </c>
@@ -7446,10 +7452,10 @@
       <c r="G2" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="74" t="s">
+      <c r="H2" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="74"/>
+      <c r="I2" s="75"/>
       <c r="J2" s="56" t="s">
         <v>45</v>
       </c>
@@ -7462,10 +7468,10 @@
       <c r="M2" s="59">
         <v>1126194</v>
       </c>
-      <c r="P2" s="74" t="s">
+      <c r="P2" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="74"/>
+      <c r="Q2" s="75"/>
       <c r="T2" s="56" t="s">
         <v>71</v>
       </c>
@@ -7604,11 +7610,11 @@
       <c r="B2" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8250,8 +8256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8275,7 +8281,7 @@
       <c r="E1" s="17" t="s">
         <v>522</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="74" t="s">
         <v>523</v>
       </c>
     </row>
@@ -9506,8 +9512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9515,7 +9521,7 @@
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="49.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -9546,10 +9552,10 @@
         <v>337</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>339</v>
+        <v>524</v>
       </c>
       <c r="E2" t="s">
-        <v>340</v>
+        <v>525</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>345</v>
@@ -9566,6 +9572,18 @@
         <v>340</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E4" t="s">
+        <v>340</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>345</v>
       </c>
     </row>
@@ -11266,11 +11284,11 @@
       <c r="E2" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="F2" s="74" t="s">
+      <c r="F2" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
@@ -11279,11 +11297,11 @@
       <c r="E3" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="F3" s="75" t="s">
+      <c r="F3" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
@@ -11292,11 +11310,11 @@
       <c r="E4" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="F4" s="75" t="s">
+      <c r="F4" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -9513,7 +9513,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9552,10 +9552,10 @@
         <v>337</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>524</v>
+        <v>339</v>
       </c>
       <c r="E2" t="s">
-        <v>525</v>
+        <v>340</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>345</v>
@@ -9577,17 +9577,17 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="E4" t="s">
-        <v>340</v>
-      </c>
       <c r="F4" s="6" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D5" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="E5" t="s">
+        <v>525</v>
+      </c>
       <c r="F5" s="36"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2646" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2649" uniqueCount="526">
   <si>
     <t>TestCase</t>
   </si>
@@ -1092,12 +1092,6 @@
     <t>MultipleAccount</t>
   </si>
   <si>
-    <t>account_no-list.txt</t>
-  </si>
-  <si>
-    <t>/brmapp/opt/portal/7.5.0/sys/test/control_file_gen/</t>
-  </si>
-  <si>
     <t>str_Directory</t>
   </si>
   <si>
@@ -1650,7 +1644,13 @@
     <t>PinBillRunControl.xml</t>
   </si>
   <si>
-    <t>/brmapp/opt/portal/7.5.0/apps/pin_billd</t>
+    <t>/brmapp/opt/portal/7.5.0/apps/pin_billd/</t>
+  </si>
+  <si>
+    <t>/brmapp/opt/portal/7.5.0/apps/pin_inv/</t>
+  </si>
+  <si>
+    <t>f1</t>
   </si>
 </sst>
 </file>
@@ -3714,7 +3714,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>123</v>
@@ -3743,7 +3743,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>55</v>
@@ -3769,7 +3769,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" t="s">
@@ -3994,7 +3994,7 @@
         <v>91</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F1" s="18" t="s">
         <v>123</v>
@@ -4068,7 +4068,7 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>32</v>
@@ -4132,7 +4132,7 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>32</v>
@@ -4487,7 +4487,7 @@
         <v>91</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -6440,7 +6440,7 @@
         <v>91</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F1" s="18" t="s">
         <v>123</v>
@@ -6514,7 +6514,7 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>32</v>
@@ -6578,7 +6578,7 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>32</v>
@@ -6742,7 +6742,7 @@
         <v>91</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F1" s="18" t="s">
         <v>126</v>
@@ -6849,7 +6849,7 @@
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B2" s="56" t="s">
         <v>32</v>
@@ -6942,7 +6942,7 @@
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="56" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B3" s="56" t="s">
         <v>32</v>
@@ -7032,7 +7032,7 @@
         <v>91</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F1" s="18" t="s">
         <v>123</v>
@@ -7106,7 +7106,7 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B2" s="56" t="s">
         <v>32</v>
@@ -7170,7 +7170,7 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="56" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B3" s="56" t="s">
         <v>32</v>
@@ -7334,7 +7334,7 @@
         <v>91</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F1" s="18" t="s">
         <v>126</v>
@@ -7441,7 +7441,7 @@
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B2" s="56" t="s">
         <v>32</v>
@@ -7532,7 +7532,7 @@
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="56" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B3" s="56" t="s">
         <v>32</v>
@@ -7600,7 +7600,7 @@
         <v>91</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -7665,30 +7665,30 @@
         <v>139</v>
       </c>
       <c r="F1" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>511</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>513</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>514</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>515</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="62" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>32</v>
@@ -7699,15 +7699,15 @@
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
       <c r="K2" s="61" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="L2" s="61" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="62" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>32</v>
@@ -7784,13 +7784,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>439</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>127</v>
@@ -7894,7 +7894,7 @@
         <v>33</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="8"/>
@@ -7979,7 +7979,7 @@
         <v>33</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3"/>
@@ -8279,10 +8279,10 @@
         <v>91</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F1" s="74" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -8346,7 +8346,7 @@
         <v>91</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>3</v>
@@ -8355,7 +8355,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>29</v>
@@ -8367,7 +8367,7 @@
         <v>12</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K1" s="18" t="s">
         <v>14</v>
@@ -8385,34 +8385,34 @@
         <v>8</v>
       </c>
       <c r="P1" s="18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="Q1" s="18" t="s">
         <v>10</v>
       </c>
       <c r="R1" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="T1" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="S1" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="T1" s="18" t="s">
-        <v>354</v>
-      </c>
       <c r="U1" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="W1" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="X1" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="Y1" s="18" t="s">
         <v>360</v>
-      </c>
-      <c r="X1" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y1" s="18" t="s">
-        <v>362</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>19</v>
@@ -8465,13 +8465,13 @@
         <v>97412345678</v>
       </c>
       <c r="S2" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="T2" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="U2" s="19" t="s">
         <v>363</v>
-      </c>
-      <c r="T2" s="19" t="s">
-        <v>364</v>
-      </c>
-      <c r="U2" s="19" t="s">
-        <v>365</v>
       </c>
       <c r="V2" s="19" t="s">
         <v>43</v>
@@ -8524,13 +8524,13 @@
         <v>97412345678</v>
       </c>
       <c r="S3" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="T3" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="U3" s="19" t="s">
         <v>363</v>
-      </c>
-      <c r="T3" s="19" t="s">
-        <v>364</v>
-      </c>
-      <c r="U3" s="19" t="s">
-        <v>365</v>
       </c>
       <c r="V3" s="19" t="s">
         <v>43</v>
@@ -8566,7 +8566,7 @@
         <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -8640,13 +8640,13 @@
         <v>100</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8656,13 +8656,13 @@
       <c r="B2" s="24"/>
       <c r="C2" s="54"/>
       <c r="D2" s="25" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>32</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8672,13 +8672,13 @@
       <c r="B3" s="24"/>
       <c r="C3" s="54"/>
       <c r="D3" s="25" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8688,13 +8688,13 @@
       <c r="B4" s="24"/>
       <c r="C4" s="54"/>
       <c r="D4" s="25" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E4" s="25" t="s">
         <v>32</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8704,13 +8704,13 @@
       <c r="B5" s="24"/>
       <c r="C5" s="54"/>
       <c r="D5" s="25" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -8741,7 +8741,7 @@
         <v>91</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D1" s="49" t="s">
         <v>3</v>
@@ -8878,7 +8878,7 @@
         <v>91</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>3</v>
@@ -8989,79 +8989,79 @@
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C1" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="K1" s="18" t="s">
         <v>375</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>420</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>421</v>
-      </c>
-      <c r="G1" s="18" t="s">
+      <c r="L1" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="O1" s="18" t="s">
         <v>376</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>422</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>423</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>424</v>
-      </c>
-      <c r="K1" s="18" t="s">
+      <c r="P1" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="S1" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="L1" s="18" t="s">
-        <v>425</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>426</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="O1" s="18" t="s">
+      <c r="T1" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="W1" s="18" t="s">
         <v>378</v>
       </c>
-      <c r="P1" s="18" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>429</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>430</v>
-      </c>
-      <c r="S1" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="T1" s="18" t="s">
-        <v>431</v>
-      </c>
-      <c r="U1" s="18" t="s">
+      <c r="X1" s="18" t="s">
         <v>432</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="Y1" s="18" t="s">
         <v>433</v>
       </c>
-      <c r="W1" s="18" t="s">
-        <v>380</v>
-      </c>
-      <c r="X1" s="18" t="s">
+      <c r="Z1" s="18" t="s">
         <v>434</v>
-      </c>
-      <c r="Y1" s="18" t="s">
-        <v>435</v>
-      </c>
-      <c r="Z1" s="18" t="s">
-        <v>436</v>
       </c>
       <c r="AA1" s="17" t="s">
         <v>3</v>
@@ -9072,40 +9072,40 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
       <c r="W2" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
@@ -9119,33 +9119,33 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="L3" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="P3" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="T3" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
       <c r="X3" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
@@ -9158,40 +9158,40 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
       <c r="W4" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
@@ -9205,40 +9205,40 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
       <c r="W5" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="X5" s="6"/>
       <c r="Y5" s="6"/>
@@ -9252,25 +9252,25 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I6" t="s">
+        <v>392</v>
+      </c>
+      <c r="M6" t="s">
         <v>394</v>
       </c>
-      <c r="M6" t="s">
-        <v>396</v>
-      </c>
       <c r="Q6" t="s">
+        <v>397</v>
+      </c>
+      <c r="U6" t="s">
         <v>399</v>
       </c>
-      <c r="U6" t="s">
+      <c r="Y6" t="s">
         <v>401</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>403</v>
       </c>
       <c r="AA6" s="19" t="s">
         <v>32</v>
@@ -9281,37 +9281,37 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AA7" s="19" t="s">
         <v>32</v>
@@ -9322,33 +9322,33 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="L8" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="P8" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="T8" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="X8" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
@@ -9365,16 +9365,16 @@
         <v>91</v>
       </c>
       <c r="D10" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="F10" s="29" t="s">
         <v>388</v>
       </c>
-      <c r="E10" s="28" t="s">
-        <v>389</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>390</v>
-      </c>
       <c r="G10" s="27" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
@@ -9385,16 +9385,16 @@
         <v>97470899087</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E11" s="31">
         <v>8959436734</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
@@ -9405,7 +9405,7 @@
         <v>97489755046</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E12" s="31">
         <v>5637448925</v>
@@ -9414,7 +9414,7 @@
         <v>99900007765</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H12" s="34"/>
       <c r="I12" s="34"/>
@@ -9425,16 +9425,16 @@
         <v>97489756692</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E13" s="31">
         <v>7321895097</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H13" s="34"/>
       <c r="I13" s="34"/>
@@ -9445,7 +9445,7 @@
         <v>97478151045</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E14" s="31">
         <v>7779562981</v>
@@ -9454,7 +9454,7 @@
         <v>23457</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
@@ -9465,13 +9465,13 @@
         <v>97478152922</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E15" s="31">
         <v>9811140835</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G15" s="31" t="s">
         <v>75</v>
@@ -9485,7 +9485,7 @@
         <v>97478151043</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E16" s="31">
         <v>7769191001</v>
@@ -9494,7 +9494,7 @@
         <v>454345</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H16" s="34"/>
       <c r="I16" s="34"/>
@@ -9513,7 +9513,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9532,19 +9532,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>346</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -9552,13 +9552,13 @@
         <v>337</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>339</v>
+        <v>522</v>
       </c>
       <c r="E2" t="s">
-        <v>340</v>
+        <v>523</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -9566,31 +9566,24 @@
         <v>338</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>339</v>
+        <v>522</v>
       </c>
       <c r="E3" t="s">
-        <v>340</v>
+        <v>523</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="F4" s="6" t="s">
-        <v>345</v>
-      </c>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D5" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="E5" t="s">
-        <v>525</v>
-      </c>
       <c r="F5" s="36"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="3"/>
       <c r="H7" s="36"/>
     </row>
   </sheetData>
@@ -9600,10 +9593,10 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9612,36 +9605,60 @@
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>346</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>337</v>
       </c>
       <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>338</v>
       </c>
       <c r="D3" s="6"/>
+      <c r="E3" t="s">
+        <v>525</v>
+      </c>
+      <c r="F3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9713,7 +9730,7 @@
         <v>127</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>126</v>
@@ -9830,7 +9847,7 @@
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" t="s">
@@ -9925,7 +9942,7 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H3" s="8"/>
       <c r="J3" s="8"/>
@@ -9999,18 +10016,18 @@
         <v>4</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>32</v>
@@ -10052,15 +10069,15 @@
         <v>4</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>32</v>
@@ -10105,18 +10122,18 @@
         <v>4</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>139</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B2" s="38" t="s">
         <v>32</v>
@@ -10126,7 +10143,7 @@
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="38" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -10165,7 +10182,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>32</v>
@@ -10201,29 +10218,29 @@
         <v>3</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -10343,7 +10360,7 @@
         <v>67</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>5</v>
@@ -10459,7 +10476,7 @@
         <v>48</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>117</v>
@@ -10742,25 +10759,25 @@
         <v>29</v>
       </c>
       <c r="AI1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
@@ -10774,7 +10791,7 @@
         <v>54</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>33</v>
@@ -10846,7 +10863,7 @@
       </c>
       <c r="AH2" s="20"/>
       <c r="AI2" s="21" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AJ2" s="21"/>
       <c r="AK2" s="21"/>
@@ -10866,7 +10883,7 @@
         <v>54</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>33</v>
@@ -10904,7 +10921,7 @@
         <v>50</v>
       </c>
       <c r="AI3" s="21" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -10956,7 +10973,7 @@
         <v>136</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>17</v>
@@ -11066,7 +11083,7 @@
         <v>78</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>33</v>
@@ -11076,7 +11093,7 @@
         <v>137</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="J2" t="s">
         <v>44</v>
@@ -11166,14 +11183,14 @@
         <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F3" s="6"/>
       <c r="I3" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="O3" s="9"/>
       <c r="V3" s="3"/>
@@ -11262,27 +11279,27 @@
         <v>91</v>
       </c>
       <c r="H1" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>371</v>
-      </c>
       <c r="L1" s="17" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F2" s="75" t="s">
         <v>33</v>
@@ -11292,10 +11309,10 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F3" s="76" t="s">
         <v>33</v>
@@ -11305,10 +11322,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F4" s="76" t="s">
         <v>33</v>
@@ -11405,10 +11422,10 @@
         <v>66</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>19</v>
@@ -11507,25 +11524,25 @@
         <v>145</v>
       </c>
       <c r="AU1" s="41" t="s">
+        <v>452</v>
+      </c>
+      <c r="AV1" s="40" t="s">
+        <v>453</v>
+      </c>
+      <c r="AW1" s="41" t="s">
         <v>454</v>
       </c>
-      <c r="AV1" s="40" t="s">
+      <c r="AX1" s="40" t="s">
         <v>455</v>
       </c>
-      <c r="AW1" s="41" t="s">
+      <c r="AY1" s="40" t="s">
         <v>456</v>
       </c>
-      <c r="AX1" s="40" t="s">
+      <c r="AZ1" s="40" t="s">
         <v>457</v>
       </c>
-      <c r="AY1" s="40" t="s">
+      <c r="BA1" s="40" t="s">
         <v>458</v>
-      </c>
-      <c r="AZ1" s="40" t="s">
-        <v>459</v>
-      </c>
-      <c r="BA1" s="40" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11536,7 +11553,7 @@
         <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G2" t="s">
         <v>44</v>
@@ -11566,7 +11583,7 @@
         <v>48</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="V2" s="3" t="s">
         <v>35</v>
@@ -11639,28 +11656,28 @@
         <v>121</v>
       </c>
       <c r="AT2" s="42" t="s">
+        <v>461</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>462</v>
+      </c>
+      <c r="AV2" s="43" t="s">
+        <v>462</v>
+      </c>
+      <c r="AW2" t="s">
         <v>463</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AX2" s="43" t="s">
+        <v>463</v>
+      </c>
+      <c r="AY2" s="43" t="s">
         <v>464</v>
       </c>
-      <c r="AV2" s="43" t="s">
-        <v>464</v>
-      </c>
-      <c r="AW2" t="s">
+      <c r="AZ2" s="43" t="s">
         <v>465</v>
       </c>
-      <c r="AX2" s="43" t="s">
-        <v>465</v>
-      </c>
-      <c r="AY2" s="43" t="s">
+      <c r="BA2" s="43" t="s">
         <v>466</v>
-      </c>
-      <c r="AZ2" s="43" t="s">
-        <v>467</v>
-      </c>
-      <c r="BA2" s="43" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
@@ -11827,7 +11844,7 @@
         <v>127</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>126</v>
@@ -11950,7 +11967,7 @@
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I2" t="s">
         <v>137</v>
@@ -12050,7 +12067,7 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="O3" s="9"/>
       <c r="V3" s="3"/>
@@ -12156,10 +12173,10 @@
         <v>66</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>19</v>
@@ -12258,34 +12275,34 @@
         <v>145</v>
       </c>
       <c r="AU1" s="40" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AV1" s="40" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AW1" s="40" t="s">
+        <v>467</v>
+      </c>
+      <c r="AX1" s="40" t="s">
+        <v>468</v>
+      </c>
+      <c r="AY1" s="40" t="s">
         <v>469</v>
       </c>
-      <c r="AX1" s="40" t="s">
+      <c r="AZ1" s="40" t="s">
         <v>470</v>
       </c>
-      <c r="AY1" s="40" t="s">
+      <c r="BA1" s="40" t="s">
         <v>471</v>
       </c>
-      <c r="AZ1" s="40" t="s">
+      <c r="BB1" s="40" t="s">
         <v>472</v>
       </c>
-      <c r="BA1" s="40" t="s">
+      <c r="BC1" s="40" t="s">
         <v>473</v>
       </c>
-      <c r="BB1" s="40" t="s">
+      <c r="BD1" s="40" t="s">
         <v>474</v>
-      </c>
-      <c r="BC1" s="40" t="s">
-        <v>475</v>
-      </c>
-      <c r="BD1" s="40" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.25">
@@ -12296,7 +12313,7 @@
         <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G2" t="s">
         <v>44</v>
@@ -12326,7 +12343,7 @@
         <v>48</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="V2" s="3" t="s">
         <v>35</v>
@@ -12399,37 +12416,37 @@
         <v>121</v>
       </c>
       <c r="AT2" s="44" t="s">
+        <v>477</v>
+      </c>
+      <c r="AU2" s="43" t="s">
+        <v>478</v>
+      </c>
+      <c r="AV2" s="43" t="s">
+        <v>478</v>
+      </c>
+      <c r="AW2" s="45" t="s">
         <v>479</v>
       </c>
-      <c r="AU2" s="43" t="s">
+      <c r="AX2" s="43" t="s">
+        <v>479</v>
+      </c>
+      <c r="AY2" s="43" t="s">
         <v>480</v>
       </c>
-      <c r="AV2" s="43" t="s">
-        <v>480</v>
-      </c>
-      <c r="AW2" s="45" t="s">
+      <c r="AZ2" s="43" t="s">
         <v>481</v>
       </c>
-      <c r="AX2" s="43" t="s">
-        <v>481</v>
-      </c>
-      <c r="AY2" s="43" t="s">
+      <c r="BA2" s="43" t="s">
         <v>482</v>
       </c>
-      <c r="AZ2" s="43" t="s">
+      <c r="BB2" s="43" t="s">
         <v>483</v>
       </c>
-      <c r="BA2" s="43" t="s">
+      <c r="BC2" s="43" t="s">
         <v>484</v>
       </c>
-      <c r="BB2" s="43" t="s">
+      <c r="BD2" s="43" t="s">
         <v>485</v>
-      </c>
-      <c r="BC2" s="43" t="s">
-        <v>486</v>
-      </c>
-      <c r="BD2" s="43" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.25">
@@ -12587,10 +12604,10 @@
         <v>66</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>19</v>
@@ -12689,28 +12706,28 @@
         <v>145</v>
       </c>
       <c r="AU1" s="40" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AV1" s="40" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AW1" s="40" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AX1" s="40" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AY1" s="40" t="s">
+        <v>486</v>
+      </c>
+      <c r="AZ1" s="40" t="s">
+        <v>487</v>
+      </c>
+      <c r="BA1" s="40" t="s">
         <v>488</v>
       </c>
-      <c r="AZ1" s="40" t="s">
+      <c r="BB1" s="40" t="s">
         <v>489</v>
-      </c>
-      <c r="BA1" s="40" t="s">
-        <v>490</v>
-      </c>
-      <c r="BB1" s="40" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
@@ -12721,7 +12738,7 @@
         <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G2" t="s">
         <v>44</v>
@@ -12751,7 +12768,7 @@
         <v>48</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="V2" s="3" t="s">
         <v>35</v>
@@ -12824,31 +12841,31 @@
         <v>121</v>
       </c>
       <c r="AT2" s="43" t="s">
+        <v>492</v>
+      </c>
+      <c r="AU2" s="43" t="s">
+        <v>493</v>
+      </c>
+      <c r="AV2" s="43" t="s">
+        <v>493</v>
+      </c>
+      <c r="AW2" s="43" t="s">
         <v>494</v>
       </c>
-      <c r="AU2" s="43" t="s">
+      <c r="AX2" s="43" t="s">
+        <v>494</v>
+      </c>
+      <c r="AY2" s="43" t="s">
         <v>495</v>
       </c>
-      <c r="AV2" s="43" t="s">
-        <v>495</v>
-      </c>
-      <c r="AW2" s="43" t="s">
+      <c r="AZ2" s="43" t="s">
         <v>496</v>
       </c>
-      <c r="AX2" s="43" t="s">
-        <v>496</v>
-      </c>
-      <c r="AY2" s="43" t="s">
+      <c r="BA2" s="43" t="s">
         <v>497</v>
       </c>
-      <c r="AZ2" s="43" t="s">
+      <c r="BB2" s="43" t="s">
         <v>498</v>
-      </c>
-      <c r="BA2" s="43" t="s">
-        <v>499</v>
-      </c>
-      <c r="BB2" s="43" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
@@ -13266,7 +13283,7 @@
         <v>54</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E2" s="67" t="s">
         <v>33</v>
@@ -13718,16 +13735,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>439</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>127</v>
@@ -13852,12 +13869,12 @@
         <v>33</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="J2" s="6"/>
       <c r="L2" t="s">
@@ -13957,12 +13974,12 @@
         <v>33</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="J3" s="6"/>
       <c r="R3" s="9"/>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="35" activeTab="37"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="35" activeTab="38"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -45,25 +45,27 @@
     <sheet name="Account360view" sheetId="35" r:id="rId36"/>
     <sheet name="OpenUI_AccesRrights_6Segments" sheetId="36" r:id="rId37"/>
     <sheet name="BillGeneration_AccountLevel" sheetId="25" r:id="rId38"/>
-    <sheet name="InvoiceToPDF_Generation" sheetId="39" r:id="rId39"/>
-    <sheet name="DunningProcess" sheetId="41" r:id="rId40"/>
-    <sheet name="DunningAction" sheetId="42" r:id="rId41"/>
-    <sheet name="CollectionExit" sheetId="43" r:id="rId42"/>
-    <sheet name="LocalCall" sheetId="40" r:id="rId43"/>
-    <sheet name="Postpaid_USSD_Act-DeAct" sheetId="45" r:id="rId44"/>
-    <sheet name="SIPT" sheetId="14" r:id="rId45"/>
-    <sheet name="ConsumerFixedLine_Provision" sheetId="30" r:id="rId46"/>
-    <sheet name="EnterpriseFixedLine_Provision" sheetId="31" r:id="rId47"/>
-    <sheet name="FL_ONT_CPE_Replacement" sheetId="44" r:id="rId48"/>
-    <sheet name="ETHERNET" sheetId="46" r:id="rId49"/>
-    <sheet name="LEASEDLINE" sheetId="47" r:id="rId50"/>
-    <sheet name="IPLC" sheetId="48" r:id="rId51"/>
-    <sheet name="PearlMobile_Provisioning" sheetId="56" r:id="rId52"/>
-    <sheet name="PearlData_Provisioning" sheetId="57" r:id="rId53"/>
-    <sheet name="DAPN_Provisioning" sheetId="58" r:id="rId54"/>
+    <sheet name="DueAmount" sheetId="60" r:id="rId39"/>
+    <sheet name="BillSummary" sheetId="61" r:id="rId40"/>
+    <sheet name="InvoiceToPDF_Generation" sheetId="39" r:id="rId41"/>
+    <sheet name="DunningProcess" sheetId="41" r:id="rId42"/>
+    <sheet name="DunningAction" sheetId="42" r:id="rId43"/>
+    <sheet name="CollectionExit" sheetId="43" r:id="rId44"/>
+    <sheet name="LocalCall" sheetId="40" r:id="rId45"/>
+    <sheet name="Postpaid_USSD_Act-DeAct" sheetId="45" r:id="rId46"/>
+    <sheet name="SIPT" sheetId="14" r:id="rId47"/>
+    <sheet name="ConsumerFixedLine_Provision" sheetId="30" r:id="rId48"/>
+    <sheet name="EnterpriseFixedLine_Provision" sheetId="31" r:id="rId49"/>
+    <sheet name="FL_ONT_CPE_Replacement" sheetId="44" r:id="rId50"/>
+    <sheet name="ETHERNET" sheetId="46" r:id="rId51"/>
+    <sheet name="LEASEDLINE" sheetId="47" r:id="rId52"/>
+    <sheet name="IPLC" sheetId="48" r:id="rId53"/>
+    <sheet name="PearlMobile_Provisioning" sheetId="56" r:id="rId54"/>
+    <sheet name="PearlData_Provisioning" sheetId="57" r:id="rId55"/>
+    <sheet name="DAPN_Provisioning" sheetId="58" r:id="rId56"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId55"/>
+    <externalReference r:id="rId57"/>
   </externalReferences>
   <definedNames>
     <definedName name="UseCase">[1]LOV!$A$2:$A$25</definedName>
@@ -73,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2649" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2659" uniqueCount="526">
   <si>
     <t>TestCase</t>
   </si>
@@ -1826,7 +1828,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1857,8 +1859,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6DCE4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1975,11 +1983,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2161,6 +2193,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3164,8 +3205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="W21" sqref="W21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9512,8 +9553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9593,72 +9634,43 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="77" t="s">
         <v>337</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" t="s">
-        <v>525</v>
-      </c>
-      <c r="F2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" t="s">
-        <v>525</v>
-      </c>
-      <c r="F3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E7" s="3"/>
+      <c r="B1" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="77"/>
+      <c r="C6" s="78"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9989,6 +10001,119 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="79" t="s">
+        <v>337</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="77"/>
+      <c r="D7" s="78"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" t="s">
+        <v>525</v>
+      </c>
+      <c r="F3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10041,7 +10166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -10093,7 +10218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -10151,7 +10276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -10196,7 +10321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -10249,7 +10374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT7"/>
   <sheetViews>
@@ -10639,7 +10764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO3"/>
   <sheetViews>
@@ -10937,7 +11062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO3"/>
   <sheetViews>
@@ -11229,549 +11354,6 @@
     <cfRule type="duplicateValues" dxfId="12" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>366</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>367</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>368</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>444</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="F2" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
-        <v>445</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="F3" s="76" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
-        <v>443</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="F4" s="76" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:H4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA7"/>
-  <sheetViews>
-    <sheetView topLeftCell="AC1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="AO5" sqref="AO5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
-    <col min="12" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" customWidth="1"/>
-    <col min="18" max="18" width="19.7109375" customWidth="1"/>
-    <col min="19" max="19" width="25.28515625" customWidth="1"/>
-    <col min="20" max="20" width="15.85546875" customWidth="1"/>
-    <col min="21" max="21" width="18" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" customWidth="1"/>
-    <col min="41" max="41" width="27.85546875" customWidth="1"/>
-    <col min="46" max="46" width="26.85546875" customWidth="1"/>
-    <col min="47" max="47" width="32.85546875" customWidth="1"/>
-    <col min="48" max="48" width="30.140625" customWidth="1"/>
-    <col min="49" max="49" width="34.140625" customWidth="1"/>
-    <col min="50" max="50" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="52" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="21.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT1" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU1" s="41" t="s">
-        <v>452</v>
-      </c>
-      <c r="AV1" s="40" t="s">
-        <v>453</v>
-      </c>
-      <c r="AW1" s="41" t="s">
-        <v>454</v>
-      </c>
-      <c r="AX1" s="40" t="s">
-        <v>455</v>
-      </c>
-      <c r="AY1" s="40" t="s">
-        <v>456</v>
-      </c>
-      <c r="AZ1" s="40" t="s">
-        <v>457</v>
-      </c>
-      <c r="BA1" s="40" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="2" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>459</v>
-      </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K2" t="s">
-        <v>116</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AS2" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT2" s="42" t="s">
-        <v>461</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>462</v>
-      </c>
-      <c r="AV2" s="43" t="s">
-        <v>462</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>463</v>
-      </c>
-      <c r="AX2" s="43" t="s">
-        <v>463</v>
-      </c>
-      <c r="AY2" s="43" t="s">
-        <v>464</v>
-      </c>
-      <c r="AZ2" s="43" t="s">
-        <v>465</v>
-      </c>
-      <c r="BA2" s="43" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="L3" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="AI3" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="L4" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="AI4" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="L5" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="AI5" s="6"/>
-      <c r="AK5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="L6" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="AO6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="L7" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="AO7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V2">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12114,6 +11696,549 @@
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="F2" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="37" t="s">
+        <v>445</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="F3" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="F4" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BA7"/>
+  <sheetViews>
+    <sheetView topLeftCell="AC1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="AO5" sqref="AO5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="12" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" customWidth="1"/>
+    <col min="18" max="18" width="19.7109375" customWidth="1"/>
+    <col min="19" max="19" width="25.28515625" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" customWidth="1"/>
+    <col min="21" max="21" width="18" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" customWidth="1"/>
+    <col min="41" max="41" width="27.85546875" customWidth="1"/>
+    <col min="46" max="46" width="26.85546875" customWidth="1"/>
+    <col min="47" max="47" width="32.85546875" customWidth="1"/>
+    <col min="48" max="48" width="30.140625" customWidth="1"/>
+    <col min="49" max="49" width="34.140625" customWidth="1"/>
+    <col min="50" max="50" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT1" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU1" s="41" t="s">
+        <v>452</v>
+      </c>
+      <c r="AV1" s="40" t="s">
+        <v>453</v>
+      </c>
+      <c r="AW1" s="41" t="s">
+        <v>454</v>
+      </c>
+      <c r="AX1" s="40" t="s">
+        <v>455</v>
+      </c>
+      <c r="AY1" s="40" t="s">
+        <v>456</v>
+      </c>
+      <c r="AZ1" s="40" t="s">
+        <v>457</v>
+      </c>
+      <c r="BA1" s="40" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT2" s="42" t="s">
+        <v>461</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>462</v>
+      </c>
+      <c r="AV2" s="43" t="s">
+        <v>462</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>463</v>
+      </c>
+      <c r="AX2" s="43" t="s">
+        <v>463</v>
+      </c>
+      <c r="AY2" s="43" t="s">
+        <v>464</v>
+      </c>
+      <c r="AZ2" s="43" t="s">
+        <v>465</v>
+      </c>
+      <c r="BA2" s="43" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="L3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="AI3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="L4" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="AI4" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="L5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="AI5" s="6"/>
+      <c r="AK5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="L6" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="AO6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="L7" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="AO7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G1:H1">
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2">
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView topLeftCell="AC1" workbookViewId="0">
@@ -12543,7 +12668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB7"/>
   <sheetViews>
@@ -12962,7 +13087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2"/>
   <sheetViews>
@@ -13161,7 +13286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2"/>
   <sheetViews>
@@ -13360,7 +13485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN3"/>
   <sheetViews>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="35" activeTab="38"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="36" activeTab="40"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -45,27 +45,28 @@
     <sheet name="Account360view" sheetId="35" r:id="rId36"/>
     <sheet name="OpenUI_AccesRrights_6Segments" sheetId="36" r:id="rId37"/>
     <sheet name="BillGeneration_AccountLevel" sheetId="25" r:id="rId38"/>
-    <sheet name="DueAmount" sheetId="60" r:id="rId39"/>
-    <sheet name="BillSummary" sheetId="61" r:id="rId40"/>
-    <sheet name="InvoiceToPDF_Generation" sheetId="39" r:id="rId41"/>
-    <sheet name="DunningProcess" sheetId="41" r:id="rId42"/>
-    <sheet name="DunningAction" sheetId="42" r:id="rId43"/>
-    <sheet name="CollectionExit" sheetId="43" r:id="rId44"/>
-    <sheet name="LocalCall" sheetId="40" r:id="rId45"/>
-    <sheet name="Postpaid_USSD_Act-DeAct" sheetId="45" r:id="rId46"/>
-    <sheet name="SIPT" sheetId="14" r:id="rId47"/>
-    <sheet name="ConsumerFixedLine_Provision" sheetId="30" r:id="rId48"/>
-    <sheet name="EnterpriseFixedLine_Provision" sheetId="31" r:id="rId49"/>
-    <sheet name="FL_ONT_CPE_Replacement" sheetId="44" r:id="rId50"/>
-    <sheet name="ETHERNET" sheetId="46" r:id="rId51"/>
-    <sheet name="LEASEDLINE" sheetId="47" r:id="rId52"/>
-    <sheet name="IPLC" sheetId="48" r:id="rId53"/>
-    <sheet name="PearlMobile_Provisioning" sheetId="56" r:id="rId54"/>
-    <sheet name="PearlData_Provisioning" sheetId="57" r:id="rId55"/>
-    <sheet name="DAPN_Provisioning" sheetId="58" r:id="rId56"/>
+    <sheet name="Prepaid_Happy_Offers" sheetId="60" r:id="rId39"/>
+    <sheet name="Postpaid_Bill_Payment" sheetId="61" r:id="rId40"/>
+    <sheet name="Bill_Enquiry" sheetId="62" r:id="rId41"/>
+    <sheet name="InvoiceToPDF_Generation" sheetId="39" r:id="rId42"/>
+    <sheet name="DunningProcess" sheetId="41" r:id="rId43"/>
+    <sheet name="DunningAction" sheetId="42" r:id="rId44"/>
+    <sheet name="CollectionExit" sheetId="43" r:id="rId45"/>
+    <sheet name="LocalCall" sheetId="40" r:id="rId46"/>
+    <sheet name="Postpaid_USSD_Act-DeAct" sheetId="45" r:id="rId47"/>
+    <sheet name="SIPT" sheetId="14" r:id="rId48"/>
+    <sheet name="ConsumerFixedLine_Provision" sheetId="30" r:id="rId49"/>
+    <sheet name="EnterpriseFixedLine_Provision" sheetId="31" r:id="rId50"/>
+    <sheet name="FL_ONT_CPE_Replacement" sheetId="44" r:id="rId51"/>
+    <sheet name="ETHERNET" sheetId="46" r:id="rId52"/>
+    <sheet name="LEASEDLINE" sheetId="47" r:id="rId53"/>
+    <sheet name="IPLC" sheetId="48" r:id="rId54"/>
+    <sheet name="PearlMobile_Provisioning" sheetId="56" r:id="rId55"/>
+    <sheet name="PearlData_Provisioning" sheetId="57" r:id="rId56"/>
+    <sheet name="DAPN_Provisioning" sheetId="58" r:id="rId57"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId57"/>
+    <externalReference r:id="rId58"/>
   </externalReferences>
   <definedNames>
     <definedName name="UseCase">[1]LOV!$A$2:$A$25</definedName>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2659" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2665" uniqueCount="527">
   <si>
     <t>TestCase</t>
   </si>
@@ -1653,6 +1654,9 @@
   </si>
   <si>
     <t>f1</t>
+  </si>
+  <si>
+    <t>Voucher_Amt</t>
   </si>
 </sst>
 </file>
@@ -1866,7 +1870,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1996,22 +2000,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2187,12 +2180,6 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2200,8 +2187,12 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6903,10 +6894,10 @@
       <c r="G2" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="75" t="s">
+      <c r="H2" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="75"/>
+      <c r="I2" s="78"/>
       <c r="J2" s="56" t="s">
         <v>45</v>
       </c>
@@ -6919,10 +6910,10 @@
       <c r="M2" s="59">
         <v>1126194</v>
       </c>
-      <c r="P2" s="75" t="s">
+      <c r="P2" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="75"/>
+      <c r="Q2" s="78"/>
       <c r="T2" s="56" t="s">
         <v>71</v>
       </c>
@@ -7493,10 +7484,10 @@
       <c r="G2" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="75" t="s">
+      <c r="H2" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="75"/>
+      <c r="I2" s="78"/>
       <c r="J2" s="56" t="s">
         <v>45</v>
       </c>
@@ -7509,10 +7500,10 @@
       <c r="M2" s="59">
         <v>1126194</v>
       </c>
-      <c r="P2" s="75" t="s">
+      <c r="P2" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="75"/>
+      <c r="Q2" s="78"/>
       <c r="T2" s="56" t="s">
         <v>71</v>
       </c>
@@ -7651,11 +7642,11 @@
       <c r="B2" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9636,8 +9627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9647,13 +9638,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="75" t="s">
         <v>337</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="75" t="s">
         <v>3</v>
       </c>
     </row>
@@ -9666,8 +9657,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="77"/>
-      <c r="C6" s="78"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="76"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10004,7 +9995,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10014,14 +10005,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="77" t="s">
         <v>337</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="77" t="s">
         <v>3</v>
+      </c>
+      <c r="D1" s="77" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -10033,8 +10027,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="77"/>
-      <c r="D7" s="78"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10042,6 +10036,45 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="77" t="s">
+        <v>337</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -10112,7 +10145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -10166,7 +10199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -10218,7 +10251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -10276,7 +10309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -10321,7 +10354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -10374,7 +10407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT7"/>
   <sheetViews>
@@ -10764,7 +10797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO3"/>
   <sheetViews>
@@ -11057,301 +11090,6 @@
   <conditionalFormatting sqref="T2">
     <cfRule type="duplicateValues" dxfId="17" priority="1"/>
     <cfRule type="duplicateValues" dxfId="16" priority="2"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="H2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="J2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" t="s">
-        <v>69</v>
-      </c>
-      <c r="N2" t="s">
-        <v>70</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="R2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="I3" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="O3" s="9"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="3"/>
-      <c r="AD3" s="6"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W3">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11696,6 +11434,301 @@
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AO3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="H2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="J2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="R2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="I3" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="O3" s="9"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="3"/>
+      <c r="AD3" s="6"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J1:K1">
+    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2:W3">
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11763,11 +11796,11 @@
       <c r="E2" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="F2" s="75" t="s">
+      <c r="F2" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
@@ -11776,11 +11809,11 @@
       <c r="E3" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="F3" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
@@ -11789,11 +11822,11 @@
       <c r="E4" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11806,7 +11839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA7"/>
   <sheetViews>
@@ -12237,7 +12270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD7"/>
   <sheetViews>
@@ -12668,7 +12701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB7"/>
   <sheetViews>
@@ -13087,7 +13120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2"/>
   <sheetViews>
@@ -13286,7 +13319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2"/>
   <sheetViews>
@@ -13485,7 +13518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN3"/>
   <sheetViews>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="36" activeTab="40"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="36" activeTab="39"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,9 @@
     <sheet name="Account360view" sheetId="35" r:id="rId36"/>
     <sheet name="OpenUI_AccesRrights_6Segments" sheetId="36" r:id="rId37"/>
     <sheet name="BillGeneration_AccountLevel" sheetId="25" r:id="rId38"/>
-    <sheet name="Prepaid_Happy_Offers" sheetId="60" r:id="rId39"/>
-    <sheet name="Postpaid_Bill_Payment" sheetId="61" r:id="rId40"/>
-    <sheet name="Bill_Enquiry" sheetId="62" r:id="rId41"/>
+    <sheet name="Prepaid_Happy_Offers_USSD" sheetId="60" r:id="rId39"/>
+    <sheet name="BillPayment_USSD" sheetId="61" r:id="rId40"/>
+    <sheet name="BillEnquiry_USSD" sheetId="62" r:id="rId41"/>
     <sheet name="InvoiceToPDF_Generation" sheetId="39" r:id="rId42"/>
     <sheet name="DunningProcess" sheetId="41" r:id="rId43"/>
     <sheet name="DunningAction" sheetId="42" r:id="rId44"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2665" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2665" uniqueCount="530">
   <si>
     <t>TestCase</t>
   </si>
@@ -1657,6 +1657,15 @@
   </si>
   <si>
     <t>Voucher_Amt</t>
+  </si>
+  <si>
+    <t>BillPayment_USSD</t>
+  </si>
+  <si>
+    <t>Prepaid_Happy_Offers_USSD</t>
+  </si>
+  <si>
+    <t>BillEnquiry_USSD</t>
   </si>
 </sst>
 </file>
@@ -2004,7 +2013,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2184,8 +2193,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3196,9 +3212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6894,10 +6908,10 @@
       <c r="G2" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="78"/>
+      <c r="I2" s="81"/>
       <c r="J2" s="56" t="s">
         <v>45</v>
       </c>
@@ -6910,10 +6924,10 @@
       <c r="M2" s="59">
         <v>1126194</v>
       </c>
-      <c r="P2" s="78" t="s">
+      <c r="P2" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="78"/>
+      <c r="Q2" s="81"/>
       <c r="T2" s="56" t="s">
         <v>71</v>
       </c>
@@ -7484,10 +7498,10 @@
       <c r="G2" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="78"/>
+      <c r="I2" s="81"/>
       <c r="J2" s="56" t="s">
         <v>45</v>
       </c>
@@ -7500,10 +7514,10 @@
       <c r="M2" s="59">
         <v>1126194</v>
       </c>
-      <c r="P2" s="78" t="s">
+      <c r="P2" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="78"/>
+      <c r="Q2" s="81"/>
       <c r="T2" s="56" t="s">
         <v>71</v>
       </c>
@@ -7642,11 +7656,11 @@
       <c r="B2" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9628,29 +9642,29 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
-        <v>337</v>
-      </c>
-      <c r="B1" s="75" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>528</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>32</v>
@@ -9994,33 +10008,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
-        <v>337</v>
-      </c>
-      <c r="B1" s="77" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="1" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>527</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>32</v>
@@ -10039,33 +10054,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
-        <v>337</v>
-      </c>
-      <c r="B1" s="77" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="78" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="77" t="s">
+        <v>529</v>
+      </c>
+      <c r="B2" s="79"/>
+      <c r="C2" s="80" t="s">
         <v>32</v>
       </c>
     </row>
@@ -11796,11 +11812,11 @@
       <c r="E2" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
@@ -11809,11 +11825,11 @@
       <c r="E3" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="F3" s="79" t="s">
+      <c r="F3" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
@@ -11822,11 +11838,11 @@
       <c r="E4" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="F4" s="79" t="s">
+      <c r="F4" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="36" activeTab="39"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="39" activeTab="46"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -45,14 +45,14 @@
     <sheet name="Account360view" sheetId="35" r:id="rId36"/>
     <sheet name="OpenUI_AccesRrights_6Segments" sheetId="36" r:id="rId37"/>
     <sheet name="BillGeneration_AccountLevel" sheetId="25" r:id="rId38"/>
-    <sheet name="Prepaid_Happy_Offers_USSD" sheetId="60" r:id="rId39"/>
-    <sheet name="BillPayment_USSD" sheetId="61" r:id="rId40"/>
-    <sheet name="BillEnquiry_USSD" sheetId="62" r:id="rId41"/>
-    <sheet name="InvoiceToPDF_Generation" sheetId="39" r:id="rId42"/>
-    <sheet name="DunningProcess" sheetId="41" r:id="rId43"/>
-    <sheet name="DunningAction" sheetId="42" r:id="rId44"/>
-    <sheet name="CollectionExit" sheetId="43" r:id="rId45"/>
-    <sheet name="LocalCall" sheetId="40" r:id="rId46"/>
+    <sheet name="InvoiceToPDF_Generation" sheetId="39" r:id="rId39"/>
+    <sheet name="DunningProcess" sheetId="41" r:id="rId40"/>
+    <sheet name="DunningAction" sheetId="42" r:id="rId41"/>
+    <sheet name="CollectionExit" sheetId="43" r:id="rId42"/>
+    <sheet name="LocalCall" sheetId="40" r:id="rId43"/>
+    <sheet name="Prepaid_Happy_Offers_USSD" sheetId="63" r:id="rId44"/>
+    <sheet name="BillPayment_USSD" sheetId="64" r:id="rId45"/>
+    <sheet name="BillEnquiry_USSD" sheetId="65" r:id="rId46"/>
     <sheet name="Postpaid_USSD_Act-DeAct" sheetId="45" r:id="rId47"/>
     <sheet name="SIPT" sheetId="14" r:id="rId48"/>
     <sheet name="ConsumerFixedLine_Provision" sheetId="30" r:id="rId49"/>
@@ -9559,7 +9559,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9639,43 +9639,72 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="75"/>
-      <c r="C6" s="76"/>
+      <c r="B1" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" t="s">
+        <v>525</v>
+      </c>
+      <c r="F3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10006,163 +10035,6 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>527</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="75"/>
-      <c r="D7" s="76"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="78" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
-        <v>529</v>
-      </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="80" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" t="s">
-        <v>525</v>
-      </c>
-      <c r="F2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" t="s">
-        <v>525</v>
-      </c>
-      <c r="F3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E7" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10215,7 +10087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -10267,7 +10139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -10325,7 +10197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -10370,12 +10242,140 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="75"/>
+      <c r="C6" s="76"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="77" t="s">
+        <v>529</v>
+      </c>
+      <c r="B2" s="79"/>
+      <c r="C2" s="80" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="39" activeTab="46"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -64,9 +64,10 @@
     <sheet name="PearlMobile_Provisioning" sheetId="56" r:id="rId55"/>
     <sheet name="PearlData_Provisioning" sheetId="57" r:id="rId56"/>
     <sheet name="DAPN_Provisioning" sheetId="58" r:id="rId57"/>
+    <sheet name="Cancel_Order" sheetId="67" r:id="rId58"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId58"/>
+    <externalReference r:id="rId59"/>
   </externalReferences>
   <definedNames>
     <definedName name="UseCase">[1]LOV!$A$2:$A$25</definedName>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2665" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2677" uniqueCount="535">
   <si>
     <t>TestCase</t>
   </si>
@@ -1666,6 +1667,21 @@
   </si>
   <si>
     <t>BillEnquiry_USSD</t>
+  </si>
+  <si>
+    <t>OrderId</t>
+  </si>
+  <si>
+    <t>Cancel_Reason</t>
+  </si>
+  <si>
+    <t>Account_Level</t>
+  </si>
+  <si>
+    <t>Leaving Country Forever</t>
+  </si>
+  <si>
+    <t>Order_Level</t>
   </si>
 </sst>
 </file>
@@ -2013,7 +2029,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2146,9 +2162,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2202,6 +2215,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3212,7 +3231,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3406,18 +3427,13 @@
       <c r="U2" t="s">
         <v>45</v>
       </c>
-      <c r="W2" t="s">
-        <v>46</v>
-      </c>
-      <c r="X2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>48</v>
-      </c>
+      <c r="V2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
       <c r="AB2" t="s">
         <v>49</v>
@@ -4563,7 +4579,7 @@
   <dimension ref="A1:AG5"/>
   <sheetViews>
     <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:AG2"/>
+      <selection activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6455,8 +6471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6730,7 +6746,7 @@
   <dimension ref="A1:AM3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6908,10 +6924,10 @@
       <c r="G2" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="81" t="s">
+      <c r="H2" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="81"/>
+      <c r="I2" s="82"/>
       <c r="J2" s="56" t="s">
         <v>45</v>
       </c>
@@ -6921,13 +6937,14 @@
       <c r="L2" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="59">
-        <v>1126194</v>
-      </c>
-      <c r="P2" s="81" t="s">
+      <c r="M2" s="58"/>
+      <c r="N2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="P2" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="81"/>
+      <c r="Q2" s="82"/>
       <c r="T2" s="56" t="s">
         <v>71</v>
       </c>
@@ -6998,11 +7015,13 @@
       </c>
       <c r="D3" s="56"/>
       <c r="E3" s="56"/>
-      <c r="M3" s="58"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AE3" s="60"/>
+      <c r="M3" s="58">
+        <v>1126194</v>
+      </c>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AE3" s="59"/>
       <c r="AI3" s="56" t="s">
         <v>55</v>
       </c>
@@ -7032,8 +7051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7322,7 +7341,7 @@
   <dimension ref="A1:AM3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7498,10 +7517,10 @@
       <c r="G2" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="81" t="s">
+      <c r="H2" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="81"/>
+      <c r="I2" s="82"/>
       <c r="J2" s="56" t="s">
         <v>45</v>
       </c>
@@ -7511,13 +7530,14 @@
       <c r="L2" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="59">
-        <v>1126194</v>
-      </c>
-      <c r="P2" s="81" t="s">
+      <c r="M2" s="58"/>
+      <c r="N2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="P2" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="81"/>
+      <c r="Q2" s="82"/>
       <c r="T2" s="56" t="s">
         <v>71</v>
       </c>
@@ -7586,11 +7606,13 @@
       <c r="C3" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="58"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AE3" s="60"/>
+      <c r="M3" s="58">
+        <v>1126194</v>
+      </c>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AE3" s="59"/>
       <c r="AI3" s="56" t="s">
         <v>55</v>
       </c>
@@ -7656,11 +7678,11 @@
       <c r="B2" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7733,7 +7755,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="61" t="s">
         <v>515</v>
       </c>
       <c r="B2" s="25" t="s">
@@ -7744,15 +7766,15 @@
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
-      <c r="K2" s="61" t="s">
+      <c r="K2" s="60" t="s">
         <v>516</v>
       </c>
-      <c r="L2" s="61" t="s">
+      <c r="L2" s="60" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="61" t="s">
         <v>518</v>
       </c>
       <c r="B3" s="25" t="s">
@@ -7774,7 +7796,7 @@
   <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AA18" sqref="AA18"/>
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8327,18 +8349,18 @@
       <c r="E1" s="17" t="s">
         <v>520</v>
       </c>
-      <c r="F1" s="74" t="s">
+      <c r="F1" s="73" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="62" t="s">
         <v>33</v>
       </c>
     </row>
@@ -9559,7 +9581,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9712,8 +9734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G3"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9911,8 +9933,9 @@
       <c r="N2" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="9" t="s">
-        <v>77</v>
+      <c r="O2" s="9"/>
+      <c r="P2" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="R2" t="s">
         <v>46</v>
@@ -9992,6 +10015,9 @@
       </c>
       <c r="H3" s="8"/>
       <c r="J3" s="8"/>
+      <c r="O3" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="Z3" s="6"/>
@@ -10276,8 +10302,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="75"/>
-      <c r="C6" s="76"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="75"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10322,8 +10348,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="75"/>
-      <c r="D7" s="76"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="75"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10346,22 +10372,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="77" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="76" t="s">
         <v>529</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="80" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="79" t="s">
         <v>32</v>
       </c>
     </row>
@@ -10374,7 +10400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -11115,8 +11141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11320,9 +11346,8 @@
       <c r="N2" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="9" t="s">
-        <v>77</v>
-      </c>
+      <c r="O2" s="9"/>
+      <c r="P2" s="3"/>
       <c r="R2" t="s">
         <v>46</v>
       </c>
@@ -11405,7 +11430,9 @@
       <c r="G3" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="O3" s="9"/>
+      <c r="O3" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="Z3" s="6"/>
@@ -11812,11 +11839,11 @@
       <c r="E2" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="F2" s="81" t="s">
+      <c r="F2" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
@@ -11825,11 +11852,11 @@
       <c r="E3" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="F3" s="82" t="s">
+      <c r="F3" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
@@ -11838,11 +11865,11 @@
       <c r="E4" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="F4" s="82" t="s">
+      <c r="F4" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -13147,188 +13174,188 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="M1" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="65" t="s">
+      <c r="N1" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="65" t="s">
+      <c r="O1" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="65" t="s">
+      <c r="P1" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="65" t="s">
+      <c r="Q1" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="65" t="s">
+      <c r="R1" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="65" t="s">
+      <c r="S1" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="65" t="s">
+      <c r="T1" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="64" t="s">
+      <c r="U1" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="65" t="s">
+      <c r="V1" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="65" t="s">
+      <c r="W1" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="65" t="s">
+      <c r="X1" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="65" t="s">
+      <c r="Y1" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="65" t="s">
+      <c r="Z1" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="64" t="s">
+      <c r="AA1" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="AB1" s="65" t="s">
+      <c r="AB1" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="65" t="s">
+      <c r="AC1" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="65" t="s">
+      <c r="AD1" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="AE1" s="65" t="s">
+      <c r="AE1" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="AF1" s="65" t="s">
+      <c r="AF1" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="64" t="s">
+      <c r="AG1" s="63" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="67" t="s">
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="68" t="s">
+      <c r="I2" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="69" t="s">
+      <c r="J2" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="70" t="s">
+      <c r="K2" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="L2" s="67" t="s">
+      <c r="L2" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="67" t="s">
+      <c r="M2" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="67" t="s">
+      <c r="N2" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="67" t="s">
+      <c r="O2" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="70" t="s">
+      <c r="P2" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="Q2" s="67" t="s">
+      <c r="Q2" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="70" t="s">
+      <c r="R2" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="67" t="s">
+      <c r="S2" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66" t="s">
+      <c r="T2" s="65"/>
+      <c r="U2" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="67" t="s">
+      <c r="V2" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="67" t="s">
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="67" t="s">
+      <c r="AC2" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="AD2" s="66" t="s">
+      <c r="AD2" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="AE2" s="67" t="s">
+      <c r="AE2" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="AF2" s="66" t="s">
+      <c r="AF2" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" s="67"/>
+      <c r="AG2" s="66"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13340,194 +13367,194 @@
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="M1" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="65" t="s">
+      <c r="N1" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="65" t="s">
+      <c r="O1" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="65" t="s">
+      <c r="P1" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="65" t="s">
+      <c r="Q1" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="65" t="s">
+      <c r="R1" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="65" t="s">
+      <c r="S1" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="65" t="s">
+      <c r="T1" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="64" t="s">
+      <c r="U1" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="65" t="s">
+      <c r="V1" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="65" t="s">
+      <c r="W1" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="65" t="s">
+      <c r="X1" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="65" t="s">
+      <c r="Y1" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="65" t="s">
+      <c r="Z1" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="64" t="s">
+      <c r="AA1" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="AB1" s="65" t="s">
+      <c r="AB1" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="65" t="s">
+      <c r="AC1" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="65" t="s">
+      <c r="AD1" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="AE1" s="65" t="s">
+      <c r="AE1" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="AF1" s="65" t="s">
+      <c r="AF1" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="64" t="s">
+      <c r="AG1" s="63" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="66" t="s">
         <v>519</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="67" t="s">
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="68" t="s">
+      <c r="I2" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="69" t="s">
+      <c r="J2" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="70" t="s">
+      <c r="K2" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="L2" s="67" t="s">
+      <c r="L2" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="67" t="s">
+      <c r="M2" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="67" t="s">
+      <c r="N2" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="67" t="s">
+      <c r="O2" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="70" t="s">
+      <c r="P2" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="Q2" s="67" t="s">
+      <c r="Q2" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="70" t="s">
+      <c r="R2" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="67" t="s">
+      <c r="S2" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66" t="s">
+      <c r="T2" s="65"/>
+      <c r="U2" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="67" t="s">
+      <c r="V2" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="67" t="s">
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="67" t="s">
+      <c r="AC2" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="AD2" s="66" t="s">
+      <c r="AD2" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="AE2" s="67" t="s">
+      <c r="AE2" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="AF2" s="66" t="s">
+      <c r="AF2" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" s="67"/>
+      <c r="AG2" s="66"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13548,295 +13575,357 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="64" t="s">
+      <c r="K1" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="64" t="s">
+      <c r="L1" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="M1" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="65" t="s">
+      <c r="N1" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="65" t="s">
+      <c r="O1" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="65" t="s">
+      <c r="P1" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="65" t="s">
+      <c r="Q1" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="65" t="s">
+      <c r="R1" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="65" t="s">
+      <c r="S1" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="65" t="s">
+      <c r="T1" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="65" t="s">
+      <c r="U1" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="65" t="s">
+      <c r="V1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="65" t="s">
+      <c r="W1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="65" t="s">
+      <c r="X1" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="65" t="s">
+      <c r="Y1" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="65" t="s">
+      <c r="Z1" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="AA1" s="65" t="s">
+      <c r="AA1" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="AB1" s="65" t="s">
+      <c r="AB1" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="AC1" s="65" t="s">
+      <c r="AC1" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="AD1" s="65" t="s">
+      <c r="AD1" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="AE1" s="65" t="s">
+      <c r="AE1" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="AF1" s="65" t="s">
+      <c r="AF1" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="AG1" s="65" t="s">
+      <c r="AG1" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="AH1" s="65" t="s">
+      <c r="AH1" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="AI1" s="64" t="s">
+      <c r="AI1" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="AJ1" s="65" t="s">
+      <c r="AJ1" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="AK1" s="65" t="s">
+      <c r="AK1" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="AL1" s="65" t="s">
+      <c r="AL1" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="AM1" s="65" t="s">
+      <c r="AM1" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="AN1" s="65" t="s">
+      <c r="AN1" s="64" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66" t="s">
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66" t="s">
+      <c r="J2" s="65"/>
+      <c r="K2" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="66" t="s">
+      <c r="L2" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="M2" s="66" t="s">
+      <c r="M2" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="N2" s="71" t="s">
+      <c r="N2" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66" t="s">
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="67" t="s">
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="V2" s="67" t="s">
+      <c r="V2" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="W2" s="66" t="s">
+      <c r="W2" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="X2" s="66" t="s">
+      <c r="X2" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="Y2" s="70" t="s">
+      <c r="Y2" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="Z2" s="70" t="s">
+      <c r="Z2" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="AA2" s="67" t="s">
+      <c r="AA2" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="AB2" s="66" t="s">
+      <c r="AB2" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AC2" s="72" t="s">
+      <c r="AC2" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="AD2" s="66" t="s">
+      <c r="AD2" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="AE2" s="66" t="s">
+      <c r="AE2" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="AF2" s="67" t="s">
+      <c r="AF2" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="AG2" s="72" t="s">
+      <c r="AG2" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="AH2" s="72" t="s">
+      <c r="AH2" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="67" t="s">
+      <c r="AI2" s="65"/>
+      <c r="AJ2" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="AK2" s="67" t="s">
+      <c r="AK2" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="AL2" s="67" t="s">
+      <c r="AL2" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="AM2" s="67" t="s">
+      <c r="AM2" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="AN2" s="66" t="s">
+      <c r="AN2" s="65" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="67"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="67" t="s">
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="AK3" s="67" t="s">
+      <c r="AK3" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="AL3" s="67" t="s">
+      <c r="AL3" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="AM3" s="67" t="s">
+      <c r="AM3" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="AN3" s="66" t="s">
+      <c r="AN3" s="65" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="E1" s="73" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="81" t="s">
+        <v>532</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="80" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="81" t="s">
+        <v>534</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="80" t="s">
+        <v>533</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13844,8 +13933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR11"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I3"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14066,8 +14155,9 @@
       <c r="Q2" t="s">
         <v>70</v>
       </c>
-      <c r="R2" s="9" t="s">
-        <v>77</v>
+      <c r="R2" s="9"/>
+      <c r="S2" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="U2" t="s">
         <v>46</v>
@@ -14156,7 +14246,9 @@
         <v>507</v>
       </c>
       <c r="J3" s="6"/>
-      <c r="R3" s="9"/>
+      <c r="R3" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AC3" s="6"/>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="36" activeTab="40"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -47,27 +47,28 @@
     <sheet name="BillGeneration_AccountLevel" sheetId="25" r:id="rId38"/>
     <sheet name="InvoiceToPDF_Generation" sheetId="39" r:id="rId39"/>
     <sheet name="DunningProcess" sheetId="41" r:id="rId40"/>
-    <sheet name="DunningAction" sheetId="42" r:id="rId41"/>
-    <sheet name="CollectionExit" sheetId="43" r:id="rId42"/>
-    <sheet name="LocalCall" sheetId="40" r:id="rId43"/>
-    <sheet name="Prepaid_Happy_Offers_USSD" sheetId="63" r:id="rId44"/>
-    <sheet name="BillPayment_USSD" sheetId="64" r:id="rId45"/>
-    <sheet name="BillEnquiry_USSD" sheetId="65" r:id="rId46"/>
-    <sheet name="Postpaid_USSD_Act-DeAct" sheetId="45" r:id="rId47"/>
-    <sheet name="SIPT" sheetId="14" r:id="rId48"/>
-    <sheet name="ConsumerFixedLine_Provision" sheetId="30" r:id="rId49"/>
-    <sheet name="EnterpriseFixedLine_Provision" sheetId="31" r:id="rId50"/>
-    <sheet name="FL_ONT_CPE_Replacement" sheetId="44" r:id="rId51"/>
-    <sheet name="ETHERNET" sheetId="46" r:id="rId52"/>
-    <sheet name="LEASEDLINE" sheetId="47" r:id="rId53"/>
-    <sheet name="IPLC" sheetId="48" r:id="rId54"/>
-    <sheet name="PearlMobile_Provisioning" sheetId="56" r:id="rId55"/>
-    <sheet name="PearlData_Provisioning" sheetId="57" r:id="rId56"/>
-    <sheet name="DAPN_Provisioning" sheetId="58" r:id="rId57"/>
-    <sheet name="Cancel_Order" sheetId="67" r:id="rId58"/>
+    <sheet name="Trial_BillRun" sheetId="68" r:id="rId41"/>
+    <sheet name="DunningAction" sheetId="42" r:id="rId42"/>
+    <sheet name="CollectionExit" sheetId="43" r:id="rId43"/>
+    <sheet name="LocalCall" sheetId="40" r:id="rId44"/>
+    <sheet name="Prepaid_Happy_Offers_USSD" sheetId="63" r:id="rId45"/>
+    <sheet name="BillPayment_USSD" sheetId="64" r:id="rId46"/>
+    <sheet name="BillEnquiry_USSD" sheetId="65" r:id="rId47"/>
+    <sheet name="Postpaid_USSD_Act-DeAct" sheetId="45" r:id="rId48"/>
+    <sheet name="SIPT" sheetId="14" r:id="rId49"/>
+    <sheet name="ConsumerFixedLine_Provision" sheetId="30" r:id="rId50"/>
+    <sheet name="EnterpriseFixedLine_Provision" sheetId="31" r:id="rId51"/>
+    <sheet name="FL_ONT_CPE_Replacement" sheetId="44" r:id="rId52"/>
+    <sheet name="ETHERNET" sheetId="46" r:id="rId53"/>
+    <sheet name="LEASEDLINE" sheetId="47" r:id="rId54"/>
+    <sheet name="IPLC" sheetId="48" r:id="rId55"/>
+    <sheet name="PearlMobile_Provisioning" sheetId="56" r:id="rId56"/>
+    <sheet name="PearlData_Provisioning" sheetId="57" r:id="rId57"/>
+    <sheet name="DAPN_Provisioning" sheetId="58" r:id="rId58"/>
+    <sheet name="Cancel_Order" sheetId="67" r:id="rId59"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId59"/>
+    <externalReference r:id="rId60"/>
   </externalReferences>
   <definedNames>
     <definedName name="UseCase">[1]LOV!$A$2:$A$25</definedName>
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2684" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="538">
   <si>
     <t>TestCase</t>
   </si>
@@ -1682,6 +1683,15 @@
   </si>
   <si>
     <t>Order_Level</t>
+  </si>
+  <si>
+    <t>Ext_Cust</t>
+  </si>
+  <si>
+    <t>Bill_Profile</t>
+  </si>
+  <si>
+    <t>Bill_Cycle</t>
   </si>
 </sst>
 </file>
@@ -9584,7 +9594,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9737,8 +9747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10124,6 +10134,63 @@
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E2" t="s">
+        <v>523</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10174,7 +10241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -10232,7 +10299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -10277,7 +10344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -10319,7 +10386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -10365,7 +10432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -10405,7 +10472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -10458,12 +10525,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT7"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AM5" sqref="AM5"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10848,310 +10915,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO3"/>
-  <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AG18" sqref="AG18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="4.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="U2" t="s">
-        <v>45</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="21" t="s">
-        <v>371</v>
-      </c>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="22"/>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AC3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI3" s="21" t="s">
-        <v>371</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T2">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO5"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:T2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11500,6 +11269,304 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO3"/>
   <sheetViews>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AG18" sqref="AG18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="22"/>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AC3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI3" s="21" t="s">
+        <v>371</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G1:H1">
+    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T2">
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AO3"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1:I3"/>
     </sheetView>
@@ -11791,7 +11858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
@@ -11903,7 +11970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA7"/>
   <sheetViews>
@@ -12334,7 +12401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD7"/>
   <sheetViews>
@@ -12765,7 +12832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB7"/>
   <sheetViews>
@@ -13184,7 +13251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2"/>
   <sheetViews>
@@ -13383,7 +13450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG2"/>
   <sheetViews>
@@ -13582,12 +13649,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN3"/>
+  <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13595,7 +13662,7 @@
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -13618,106 +13685,109 @@
         <v>126</v>
       </c>
       <c r="H1" s="64" t="s">
+        <v>506</v>
+      </c>
+      <c r="I1" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="64" t="s">
+      <c r="J1" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="64" t="s">
+      <c r="K1" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="L1" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="63" t="s">
+      <c r="M1" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="64" t="s">
+      <c r="N1" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="64" t="s">
+      <c r="O1" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="64" t="s">
+      <c r="P1" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="64" t="s">
+      <c r="Q1" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="64" t="s">
+      <c r="R1" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="64" t="s">
+      <c r="S1" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="64" t="s">
+      <c r="T1" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="64" t="s">
+      <c r="U1" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="64" t="s">
+      <c r="V1" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="64" t="s">
+      <c r="W1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="64" t="s">
+      <c r="X1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="64" t="s">
+      <c r="Y1" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="64" t="s">
+      <c r="Z1" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="64" t="s">
+      <c r="AA1" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="AA1" s="64" t="s">
+      <c r="AB1" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="AB1" s="64" t="s">
+      <c r="AC1" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="AC1" s="64" t="s">
+      <c r="AD1" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="AD1" s="64" t="s">
+      <c r="AE1" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="AE1" s="64" t="s">
+      <c r="AF1" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="AF1" s="64" t="s">
+      <c r="AG1" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="AG1" s="64" t="s">
+      <c r="AH1" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="AH1" s="64" t="s">
+      <c r="AI1" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="AI1" s="63" t="s">
+      <c r="AJ1" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="AJ1" s="64" t="s">
+      <c r="AK1" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="AK1" s="64" t="s">
+      <c r="AL1" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="AL1" s="64" t="s">
+      <c r="AM1" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="AM1" s="64" t="s">
+      <c r="AN1" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="AN1" s="64" t="s">
+      <c r="AO1" s="64" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
         <v>125</v>
       </c>
@@ -13735,93 +13805,96 @@
       </c>
       <c r="F2" s="65"/>
       <c r="G2" s="65"/>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="71" t="s">
+        <v>507</v>
+      </c>
+      <c r="I2" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="J2" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65" t="s">
+      <c r="K2" s="65"/>
+      <c r="L2" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="65" t="s">
+      <c r="M2" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="M2" s="65" t="s">
+      <c r="N2" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="N2" s="70" t="s">
+      <c r="O2" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="O2" s="65"/>
       <c r="P2" s="65"/>
-      <c r="Q2" s="65" t="s">
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="65"/>
       <c r="S2" s="65"/>
       <c r="T2" s="65"/>
-      <c r="U2" s="66" t="s">
+      <c r="U2" s="65"/>
+      <c r="V2" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="V2" s="66" t="s">
+      <c r="W2" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="W2" s="65" t="s">
+      <c r="X2" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="X2" s="65" t="s">
+      <c r="Y2" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="Y2" s="69" t="s">
+      <c r="Z2" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="Z2" s="69" t="s">
+      <c r="AA2" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="AA2" s="66" t="s">
+      <c r="AB2" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="AB2" s="65" t="s">
+      <c r="AC2" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AC2" s="71" t="s">
+      <c r="AD2" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="AD2" s="65" t="s">
+      <c r="AE2" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="AE2" s="65" t="s">
+      <c r="AF2" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="AF2" s="66" t="s">
+      <c r="AG2" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="AG2" s="71" t="s">
+      <c r="AH2" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="AH2" s="71" t="s">
+      <c r="AI2" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AI2" s="65"/>
-      <c r="AJ2" s="66" t="s">
+      <c r="AJ2" s="65"/>
+      <c r="AK2" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="AK2" s="66" t="s">
+      <c r="AL2" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="AL2" s="66" t="s">
+      <c r="AM2" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="AM2" s="66" t="s">
+      <c r="AN2" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="AN2" s="65" t="s">
+      <c r="AO2" s="65" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="65" t="s">
         <v>128</v>
       </c>
@@ -13839,47 +13912,50 @@
       </c>
       <c r="F3" s="65"/>
       <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
+      <c r="H3" s="71" t="s">
+        <v>507</v>
+      </c>
       <c r="I3" s="65"/>
       <c r="J3" s="65"/>
       <c r="K3" s="65"/>
       <c r="L3" s="65"/>
       <c r="M3" s="65"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="72"/>
       <c r="P3" s="65"/>
       <c r="Q3" s="65"/>
       <c r="R3" s="65"/>
       <c r="S3" s="65"/>
       <c r="T3" s="65"/>
-      <c r="U3" s="66"/>
+      <c r="U3" s="65"/>
       <c r="V3" s="66"/>
-      <c r="W3" s="65"/>
+      <c r="W3" s="66"/>
       <c r="X3" s="65"/>
       <c r="Y3" s="65"/>
       <c r="Z3" s="65"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="66"/>
       <c r="AC3" s="65"/>
       <c r="AD3" s="65"/>
       <c r="AE3" s="65"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="66"/>
       <c r="AH3" s="65"/>
       <c r="AI3" s="65"/>
-      <c r="AJ3" s="66" t="s">
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="AK3" s="66" t="s">
+      <c r="AL3" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="AL3" s="66" t="s">
+      <c r="AM3" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="AM3" s="66" t="s">
+      <c r="AN3" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="AN3" s="65" t="s">
+      <c r="AO3" s="65" t="s">
         <v>50</v>
       </c>
     </row>
@@ -13888,7 +13964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -13954,8 +14030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR11"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:W2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="36" activeTab="40"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="23" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2716" uniqueCount="540">
   <si>
     <t>TestCase</t>
   </si>
@@ -1692,6 +1692,12 @@
   </si>
   <si>
     <t>Bill_Cycle</t>
+  </si>
+  <si>
+    <t>Spendlimit</t>
+  </si>
+  <si>
+    <t>0.01</t>
   </si>
 </sst>
 </file>
@@ -2039,7 +2045,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2235,7 +2241,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3241,8 +3253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3764,10 +3776,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3775,7 +3787,7 @@
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3792,25 +3804,28 @@
         <v>506</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>134</v>
       </c>
@@ -3820,23 +3835,26 @@
       <c r="E2" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>135</v>
       </c>
@@ -3846,16 +3864,19 @@
       <c r="E3" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" t="s">
+      <c r="F3" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" t="s">
+      <c r="K3" s="3"/>
+      <c r="L3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4021,10 +4042,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB4"/>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AC18" sqref="AC18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4053,9 +4074,10 @@
     <col min="25" max="26" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -4140,8 +4162,11 @@
       <c r="AB1" s="18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC1" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>354</v>
       </c>
@@ -4204,8 +4229,9 @@
       </c>
       <c r="AA2" s="6"/>
       <c r="AB2" s="6"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC2" s="6"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>355</v>
       </c>
@@ -4224,8 +4250,9 @@
       <c r="I3" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC3" s="6"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="19" t="s">
         <v>32</v>
@@ -6756,10 +6783,613 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM3"/>
+  <dimension ref="A1:AN3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="F1" sqref="F1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="X1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC1" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF1" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI1" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ1" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL1" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM1" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN1" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="85" t="s">
+        <v>507</v>
+      </c>
+      <c r="H2" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="83"/>
+      <c r="K2" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="58"/>
+      <c r="O2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q2" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="83"/>
+      <c r="U2" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y2" s="56">
+        <v>12181980</v>
+      </c>
+      <c r="Z2" s="56">
+        <v>12142020</v>
+      </c>
+      <c r="AA2" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB2" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="56">
+        <v>97498098089</v>
+      </c>
+      <c r="AD2" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE2" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF2" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG2" s="56">
+        <v>12345</v>
+      </c>
+      <c r="AH2" s="56">
+        <v>51232</v>
+      </c>
+      <c r="AJ2" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK2" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL2" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM2" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN2" s="56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A3" s="56" t="s">
+        <v>355</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="85" t="s">
+        <v>507</v>
+      </c>
+      <c r="N3" s="58">
+        <v>1126194</v>
+      </c>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AJ3" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK3" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL3" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM3" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN3" s="56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="Q2:R2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="56" t="s">
+        <v>355</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="56"/>
+      <c r="B4" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X4" s="3"/>
+      <c r="Y4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="K2">
+    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AN3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6803,7 +7433,7 @@
     <col min="39" max="39" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -6820,203 +7450,207 @@
         <v>353</v>
       </c>
       <c r="F1" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="O1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="P1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="Q1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="R1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="S1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="T1" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="U1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="V1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="W1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="X1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="Y1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" s="18" t="s">
+      <c r="Z1" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="Z1" s="18" t="s">
+      <c r="AA1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="18" t="s">
+      <c r="AB1" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="AB1" s="18" t="s">
+      <c r="AC1" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="AC1" s="18" t="s">
+      <c r="AD1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="AD1" s="18" t="s">
+      <c r="AE1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AE1" s="18" t="s">
+      <c r="AF1" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="AF1" s="18" t="s">
+      <c r="AG1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="18" t="s">
+      <c r="AH1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="AH1" s="17" t="s">
+      <c r="AI1" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="AI1" s="18" t="s">
+      <c r="AJ1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="AJ1" s="18" t="s">
+      <c r="AK1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AK1" s="18" t="s">
+      <c r="AL1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="AL1" s="18" t="s">
+      <c r="AM1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="AM1" s="18" t="s">
+      <c r="AN1" s="18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>354</v>
       </c>
       <c r="B2" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="G2" s="56" t="s">
+      <c r="F2" s="85" t="s">
+        <v>507</v>
+      </c>
+      <c r="H2" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="82" t="s">
+      <c r="I2" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="82"/>
-      <c r="J2" s="56" t="s">
+      <c r="J2" s="83"/>
+      <c r="K2" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="56" t="s">
+      <c r="L2" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="L2" s="56" t="s">
+      <c r="M2" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="58"/>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="58"/>
+      <c r="O2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="P2" s="82" t="s">
+      <c r="Q2" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="82"/>
-      <c r="T2" s="56" t="s">
+      <c r="R2" s="83"/>
+      <c r="U2" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="U2" s="56" t="s">
+      <c r="V2" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="56" t="s">
+      <c r="W2" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="W2" s="56" t="s">
+      <c r="X2" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="X2" s="56">
+      <c r="Y2" s="56">
         <v>12181980</v>
       </c>
-      <c r="Y2" s="56">
+      <c r="Z2" s="56">
         <v>12142020</v>
       </c>
-      <c r="Z2" s="56" t="s">
+      <c r="AA2" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="AA2" s="56" t="s">
+      <c r="AB2" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="AB2" s="56">
+      <c r="AC2" s="56">
         <v>97498098089</v>
       </c>
-      <c r="AC2" s="56" t="s">
+      <c r="AD2" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="AD2" s="56" t="s">
+      <c r="AE2" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="AE2" s="56" t="s">
+      <c r="AF2" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="AF2" s="56">
+      <c r="AG2" s="56">
         <v>12345</v>
       </c>
-      <c r="AG2" s="56">
+      <c r="AH2" s="56">
         <v>51232</v>
       </c>
-      <c r="AI2" s="56" t="s">
+      <c r="AJ2" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="AJ2" s="56" t="s">
+      <c r="AK2" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="AK2" s="56" t="s">
+      <c r="AL2" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="AL2" s="56" t="s">
+      <c r="AM2" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="AM2" s="56" t="s">
+      <c r="AN2" s="56" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="56" t="s">
         <v>355</v>
       </c>
@@ -7026,626 +7660,36 @@
       <c r="C3" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="M3" s="58">
+      <c r="F3" s="85" t="s">
+        <v>507</v>
+      </c>
+      <c r="N3" s="58">
         <v>1126194</v>
       </c>
-      <c r="T3" s="59"/>
       <c r="U3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AI3" s="56" t="s">
+      <c r="V3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AJ3" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="AJ3" s="56" t="s">
+      <c r="AK3" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="AK3" s="56" t="s">
+      <c r="AL3" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="AL3" s="56" t="s">
+      <c r="AM3" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="AM3" s="56" t="s">
+      <c r="AN3" s="56" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="P2:Q2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB4"/>
-  <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z1" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
-        <v>354</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="W2" t="s">
-        <v>45</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
-        <v>355</v>
-      </c>
-      <c r="B3" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="W4" t="s">
-        <v>45</v>
-      </c>
-      <c r="X4" s="3"/>
-      <c r="Y4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB4" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="K2">
-    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
-    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="T1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="U1" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="V1" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="W1" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="X1" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y1" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z1" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA1" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB1" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD1" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE1" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF1" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG1" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH1" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI1" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ1" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK1" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL1" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM1" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
-        <v>354</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="H2" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="82"/>
-      <c r="J2" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="M2" s="58"/>
-      <c r="N2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="P2" s="82" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" s="82"/>
-      <c r="T2" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="U2" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="V2" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="X2" s="56">
-        <v>12181980</v>
-      </c>
-      <c r="Y2" s="56">
-        <v>12142020</v>
-      </c>
-      <c r="Z2" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA2" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB2" s="56">
-        <v>97498098089</v>
-      </c>
-      <c r="AC2" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD2" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE2" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF2" s="56">
-        <v>12345</v>
-      </c>
-      <c r="AG2" s="56">
-        <v>51232</v>
-      </c>
-      <c r="AI2" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ2" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK2" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL2" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM2" s="56" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
-        <v>355</v>
-      </c>
-      <c r="B3" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="58">
-        <v>1126194</v>
-      </c>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AI3" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ3" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK3" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL3" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM3" s="56" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7655,15 +7699,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7698,9 +7742,6 @@
       <c r="E2" s="82"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C2:E2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9745,10 +9786,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM5"/>
+  <dimension ref="A1:AN5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9759,39 +9800,40 @@
     <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9814,103 +9856,106 @@
         <v>506</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>125</v>
       </c>
@@ -9930,89 +9975,92 @@
       <c r="G2" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" t="s">
+      <c r="H2" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" t="s">
         <v>137</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>45</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>69</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="9"/>
+      <c r="Q2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>46</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>36</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>72</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>75</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>37</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AH2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" t="s">
+      <c r="AK2" s="6"/>
+      <c r="AL2" t="s">
         <v>49</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AM2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -10032,45 +10080,48 @@
       <c r="G3" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="O3" s="9" t="s">
+      <c r="H3" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="P3" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="V3" s="3"/>
       <c r="W3" s="3"/>
-      <c r="Z3" s="6"/>
+      <c r="X3" s="3"/>
       <c r="AA3" s="6"/>
-      <c r="AB3" s="3"/>
-      <c r="AD3" s="6"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="3"/>
+      <c r="AE3" s="6"/>
+      <c r="AH3" s="3"/>
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
-      <c r="AK3" t="s">
+      <c r="AK3" s="6"/>
+      <c r="AL3" t="s">
         <v>49</v>
       </c>
-      <c r="AL3" s="3" t="s">
+      <c r="AM3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AN3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AK4" t="s">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AL4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AI5" s="6"/>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AJ5" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:K1">
+  <conditionalFormatting sqref="K1:L1">
     <cfRule type="duplicateValues" dxfId="47" priority="3"/>
     <cfRule type="duplicateValues" dxfId="46" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W3">
+  <conditionalFormatting sqref="X2:X3">
     <cfRule type="duplicateValues" dxfId="45" priority="1"/>
     <cfRule type="duplicateValues" dxfId="44" priority="2"/>
   </conditionalFormatting>
@@ -10136,8 +10187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10917,10 +10968,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO5"/>
+  <dimension ref="A1:AP5"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H1" sqref="H1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10964,7 +11015,7 @@
     <col min="40" max="40" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10987,109 +11038,112 @@
         <v>506</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>125</v>
       </c>
@@ -11109,95 +11163,98 @@
       <c r="G2" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="J2" t="s">
         <v>137</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>44</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>45</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>69</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="9"/>
+      <c r="Q2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>46</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="U2" s="6"/>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="6"/>
+      <c r="W2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>36</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>72</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>75</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>37</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AH2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="3" t="s">
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AM2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AN2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AO2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -11217,47 +11274,50 @@
       <c r="G3" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="H3" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="P3" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="S3" s="6"/>
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
-      <c r="V3" s="3"/>
+      <c r="V3" s="6"/>
       <c r="W3" s="3"/>
-      <c r="Z3" s="6"/>
+      <c r="X3" s="3"/>
       <c r="AA3" s="6"/>
-      <c r="AB3" s="3"/>
-      <c r="AD3" s="6"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="3"/>
+      <c r="AE3" s="6"/>
+      <c r="AH3" s="3"/>
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
-      <c r="AK3" s="3" t="s">
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AL3" s="3" t="s">
+      <c r="AM3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AM3" s="3" t="s">
+      <c r="AN3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AN3" s="3" t="s">
+      <c r="AO3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AP3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="AI5" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:K1">
+  <conditionalFormatting sqref="K1:L1">
     <cfRule type="duplicateValues" dxfId="43" priority="3"/>
     <cfRule type="duplicateValues" dxfId="42" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W3">
+  <conditionalFormatting sqref="X2:X3">
     <cfRule type="duplicateValues" dxfId="41" priority="1"/>
     <cfRule type="duplicateValues" dxfId="40" priority="2"/>
   </conditionalFormatting>
@@ -11927,11 +11987,11 @@
       <c r="E2" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="F2" s="82" t="s">
+      <c r="F2" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
@@ -11940,11 +12000,11 @@
       <c r="E3" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="F3" s="83" t="s">
+      <c r="F3" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
@@ -11953,11 +12013,11 @@
       <c r="E4" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="F4" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -14028,10 +14088,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR11"/>
+  <dimension ref="A1:AS11"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14078,7 +14138,7 @@
     <col min="43" max="43" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14107,112 +14167,115 @@
         <v>506</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>125</v>
       </c>
@@ -14236,95 +14299,98 @@
       <c r="I2" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="L2" t="s">
+      <c r="J2" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="M2" t="s">
         <v>137</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>44</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>45</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>69</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>70</v>
       </c>
-      <c r="R2" s="9"/>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="9"/>
+      <c r="T2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>46</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>72</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AD2" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AE2" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>39</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AH2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>75</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>37</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AL2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AM2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="3" t="s">
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AP2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AP2" s="3" t="s">
+      <c r="AQ2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AR2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -14348,78 +14414,81 @@
       <c r="I3" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="R3" s="9" t="s">
+      <c r="J3" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="S3" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
-      <c r="AC3" s="6"/>
+      <c r="AA3" s="3"/>
       <c r="AD3" s="6"/>
-      <c r="AE3" s="3"/>
-      <c r="AG3" s="6"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="3"/>
+      <c r="AH3" s="6"/>
+      <c r="AK3" s="3"/>
       <c r="AL3" s="6"/>
       <c r="AM3" s="6"/>
-      <c r="AN3" s="3" t="s">
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AO3" s="3" t="s">
+      <c r="AP3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AP3" s="3" t="s">
+      <c r="AQ3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AQ3" s="3" t="s">
+      <c r="AR3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AS3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="AL5" s="6"/>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="F10" s="35"/>
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="M1:N1">
+  <conditionalFormatting sqref="N1:O1">
     <cfRule type="duplicateValues" dxfId="39" priority="3"/>
     <cfRule type="duplicateValues" dxfId="38" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:Z3">
+  <conditionalFormatting sqref="AA2:AA3">
     <cfRule type="duplicateValues" dxfId="37" priority="1"/>
     <cfRule type="duplicateValues" dxfId="36" priority="2"/>
   </conditionalFormatting>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="23" activeTab="27"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="36" activeTab="40"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2716" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="542">
   <si>
     <t>TestCase</t>
   </si>
@@ -1691,13 +1691,19 @@
     <t>Bill_Profile</t>
   </si>
   <si>
-    <t>Bill_Cycle</t>
-  </si>
-  <si>
     <t>Spendlimit</t>
   </si>
   <si>
     <t>0.01</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Bill_Language</t>
+  </si>
+  <si>
+    <t>Bill_NoOfMonths</t>
   </si>
 </sst>
 </file>
@@ -2241,13 +2247,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3804,7 +3810,7 @@
         <v>506</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>123</v>
@@ -3836,7 +3842,7 @@
         <v>507</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>55</v>
@@ -3865,7 +3871,7 @@
         <v>507</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" t="s">
@@ -6964,16 +6970,16 @@
       </c>
       <c r="D2" s="55"/>
       <c r="E2" s="55"/>
-      <c r="F2" s="85" t="s">
+      <c r="F2" s="83" t="s">
         <v>507</v>
       </c>
       <c r="H2" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="83" t="s">
+      <c r="I2" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="83"/>
+      <c r="J2" s="84"/>
       <c r="K2" s="56" t="s">
         <v>45</v>
       </c>
@@ -6987,10 +6993,10 @@
       <c r="O2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="Q2" s="83" t="s">
+      <c r="Q2" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="83"/>
+      <c r="R2" s="84"/>
       <c r="U2" s="56" t="s">
         <v>71</v>
       </c>
@@ -7061,7 +7067,7 @@
       </c>
       <c r="D3" s="56"/>
       <c r="E3" s="56"/>
-      <c r="F3" s="85" t="s">
+      <c r="F3" s="83" t="s">
         <v>507</v>
       </c>
       <c r="N3" s="58">
@@ -7565,16 +7571,16 @@
       <c r="C2" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="85" t="s">
+      <c r="F2" s="83" t="s">
         <v>507</v>
       </c>
       <c r="H2" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="83" t="s">
+      <c r="I2" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="83"/>
+      <c r="J2" s="84"/>
       <c r="K2" s="56" t="s">
         <v>45</v>
       </c>
@@ -7588,10 +7594,10 @@
       <c r="O2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="Q2" s="83" t="s">
+      <c r="Q2" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="83"/>
+      <c r="R2" s="84"/>
       <c r="U2" s="56" t="s">
         <v>71</v>
       </c>
@@ -7660,7 +7666,7 @@
       <c r="C3" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="85" t="s">
+      <c r="F3" s="83" t="s">
         <v>507</v>
       </c>
       <c r="N3" s="58">
@@ -7699,8 +7705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9856,7 +9862,7 @@
         <v>506</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>126</v>
@@ -9976,7 +9982,7 @@
         <v>507</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" t="s">
@@ -10081,7 +10087,7 @@
         <v>507</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I3" s="8"/>
       <c r="K3" s="8"/>
@@ -10187,8 +10193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10212,10 +10218,10 @@
         <v>536</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>540</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>341</v>
@@ -10226,10 +10232,7 @@
         <v>535</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E2" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>343</v>
@@ -11038,7 +11041,7 @@
         <v>506</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>126</v>
@@ -11164,7 +11167,7 @@
         <v>507</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="J2" t="s">
         <v>137</v>
@@ -11275,7 +11278,7 @@
         <v>507</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>77</v>
@@ -11987,11 +11990,11 @@
       <c r="E2" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
@@ -12000,11 +12003,11 @@
       <c r="E3" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="F3" s="84" t="s">
+      <c r="F3" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
@@ -12013,11 +12016,11 @@
       <c r="E4" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="F4" s="84" t="s">
+      <c r="F4" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -14167,7 +14170,7 @@
         <v>506</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>127</v>
@@ -14300,7 +14303,7 @@
         <v>507</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K2" s="6"/>
       <c r="M2" t="s">
@@ -14415,7 +14418,7 @@
         <v>507</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K3" s="6"/>
       <c r="S3" s="9" t="s">

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" tabRatio="800" firstSheet="21" activeTab="59"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -15,73 +15,78 @@
     <sheet name="EnterprisePostpaid_Prov_OrdPay" sheetId="38" r:id="rId6"/>
     <sheet name="Modify" sheetId="6" r:id="rId7"/>
     <sheet name="Suspend" sheetId="7" r:id="rId8"/>
-    <sheet name="Resume" sheetId="8" r:id="rId9"/>
-    <sheet name="UpgradePromotion" sheetId="9" r:id="rId10"/>
-    <sheet name="Consumer_Migration" sheetId="18" r:id="rId11"/>
-    <sheet name="Enterprise_Migration" sheetId="19" r:id="rId12"/>
-    <sheet name="Change_MSISDN" sheetId="17" r:id="rId13"/>
-    <sheet name="SIMSwap" sheetId="12" r:id="rId14"/>
-    <sheet name="TransferOfService" sheetId="29" r:id="rId15"/>
-    <sheet name="Barring" sheetId="15" r:id="rId16"/>
-    <sheet name="UnBarring" sheetId="16" r:id="rId17"/>
-    <sheet name="Change_PrimaryNumber" sheetId="11" r:id="rId18"/>
-    <sheet name="ModifySmartLimit" sheetId="20" r:id="rId19"/>
-    <sheet name="Discounts" sheetId="24" r:id="rId20"/>
-    <sheet name="Disconnection" sheetId="22" r:id="rId21"/>
-    <sheet name="BillPayment" sheetId="21" r:id="rId22"/>
-    <sheet name="TroubleTicket" sheetId="23" r:id="rId23"/>
-    <sheet name="TransferOfOwnership_C2C" sheetId="33" r:id="rId24"/>
-    <sheet name="TransferOfOwnership_C2E" sheetId="52" r:id="rId25"/>
-    <sheet name="TransferOfOwnership_E2C" sheetId="53" r:id="rId26"/>
-    <sheet name="TransferOfOwnership_E2E" sheetId="51" r:id="rId27"/>
-    <sheet name="LanguageChange" sheetId="54" r:id="rId28"/>
-    <sheet name="Activities" sheetId="55" r:id="rId29"/>
-    <sheet name="CreditLimit" sheetId="59" r:id="rId30"/>
-    <sheet name="ConsumerPostpaid_GuidedJourney" sheetId="32" r:id="rId31"/>
-    <sheet name="SIMSwap_Guided_Journey" sheetId="27" r:id="rId32"/>
-    <sheet name="SIMSwap_Global_Search" sheetId="28" r:id="rId33"/>
-    <sheet name="ModifySmartLimit_Acc360" sheetId="49" r:id="rId34"/>
-    <sheet name="UpgradePromotion_Acc360" sheetId="34" r:id="rId35"/>
-    <sheet name="Account360view" sheetId="35" r:id="rId36"/>
-    <sheet name="OpenUI_AccesRrights_6Segments" sheetId="36" r:id="rId37"/>
-    <sheet name="BillGeneration_AccountLevel" sheetId="25" r:id="rId38"/>
-    <sheet name="InvoiceToPDF_Generation" sheetId="39" r:id="rId39"/>
-    <sheet name="DunningProcess" sheetId="41" r:id="rId40"/>
-    <sheet name="Trial_BillRun" sheetId="68" r:id="rId41"/>
-    <sheet name="DunningAction" sheetId="42" r:id="rId42"/>
-    <sheet name="CollectionExit" sheetId="43" r:id="rId43"/>
-    <sheet name="LocalCall" sheetId="40" r:id="rId44"/>
-    <sheet name="Prepaid_Happy_Offers_USSD" sheetId="63" r:id="rId45"/>
-    <sheet name="BillPayment_USSD" sheetId="64" r:id="rId46"/>
-    <sheet name="BillEnquiry_USSD" sheetId="65" r:id="rId47"/>
-    <sheet name="Postpaid_USSD_Act-DeAct" sheetId="45" r:id="rId48"/>
-    <sheet name="SIPT" sheetId="14" r:id="rId49"/>
-    <sheet name="ConsumerFixedLine_Provision" sheetId="30" r:id="rId50"/>
-    <sheet name="EnterpriseFixedLine_Provision" sheetId="31" r:id="rId51"/>
-    <sheet name="FL_ONT_CPE_Replacement" sheetId="44" r:id="rId52"/>
-    <sheet name="ETHERNET" sheetId="46" r:id="rId53"/>
-    <sheet name="LEASEDLINE" sheetId="47" r:id="rId54"/>
-    <sheet name="IPLC" sheetId="48" r:id="rId55"/>
-    <sheet name="PearlMobile_Provisioning" sheetId="56" r:id="rId56"/>
-    <sheet name="PearlData_Provisioning" sheetId="57" r:id="rId57"/>
-    <sheet name="DAPN_Provisioning" sheetId="58" r:id="rId58"/>
-    <sheet name="Cancel_Order" sheetId="67" r:id="rId59"/>
-    <sheet name="Mcare_Post_ProdActivation" sheetId="69" r:id="rId60"/>
-    <sheet name="Mcare_Post_ProdDeActivation" sheetId="70" r:id="rId61"/>
-    <sheet name="Mcare_Cookies" sheetId="71" r:id="rId62"/>
+    <sheet name="Suspend_Account" sheetId="74" r:id="rId9"/>
+    <sheet name="Resume" sheetId="8" r:id="rId10"/>
+    <sheet name="UpgradePromotion" sheetId="9" r:id="rId11"/>
+    <sheet name="Consumer_Migration" sheetId="18" r:id="rId12"/>
+    <sheet name="Enterprise_Migration" sheetId="19" r:id="rId13"/>
+    <sheet name="Change_MSISDN" sheetId="17" r:id="rId14"/>
+    <sheet name="SIMSwap" sheetId="12" r:id="rId15"/>
+    <sheet name="TransferOfService" sheetId="29" r:id="rId16"/>
+    <sheet name="Barring" sheetId="15" r:id="rId17"/>
+    <sheet name="UnBarring" sheetId="16" r:id="rId18"/>
+    <sheet name="Change_PrimaryNumber" sheetId="11" r:id="rId19"/>
+    <sheet name="ModifySmartLimit" sheetId="20" r:id="rId20"/>
+    <sheet name="Discounts" sheetId="24" r:id="rId21"/>
+    <sheet name="Disconnection" sheetId="22" r:id="rId22"/>
+    <sheet name="FL_Disconnect" sheetId="75" r:id="rId23"/>
+    <sheet name="BillPayment" sheetId="21" r:id="rId24"/>
+    <sheet name="TroubleTicket" sheetId="23" r:id="rId25"/>
+    <sheet name="TransferOfOwnership_C2C" sheetId="33" r:id="rId26"/>
+    <sheet name="TransferOfOwnership_C2E" sheetId="52" r:id="rId27"/>
+    <sheet name="TransferOfOwnership_E2C" sheetId="53" r:id="rId28"/>
+    <sheet name="TransferOfOwnership_E2E" sheetId="51" r:id="rId29"/>
+    <sheet name="LanguageChange" sheetId="54" r:id="rId30"/>
+    <sheet name="Activities" sheetId="55" r:id="rId31"/>
+    <sheet name="CreditLimit" sheetId="59" r:id="rId32"/>
+    <sheet name="ConsumerPostpaid_GuidedJourney" sheetId="32" r:id="rId33"/>
+    <sheet name="SIMSwap_Guided_Journey" sheetId="27" r:id="rId34"/>
+    <sheet name="SIMSwap_Global_Search" sheetId="28" r:id="rId35"/>
+    <sheet name="ModifySmartLimit_Acc360" sheetId="49" r:id="rId36"/>
+    <sheet name="UpgradePromotion_Acc360" sheetId="34" r:id="rId37"/>
+    <sheet name="Account360view" sheetId="35" r:id="rId38"/>
+    <sheet name="OpenUI_AccesRrights_6Segments" sheetId="36" r:id="rId39"/>
+    <sheet name="BillGeneration_BillingProfile" sheetId="72" r:id="rId40"/>
+    <sheet name="BillGeneration_AccountLevel" sheetId="25" r:id="rId41"/>
+    <sheet name="InvoiceToPDF_Generation" sheetId="39" r:id="rId42"/>
+    <sheet name="DunningProcess" sheetId="41" r:id="rId43"/>
+    <sheet name="Trial_BillRun" sheetId="68" r:id="rId44"/>
+    <sheet name="DunningAction" sheetId="42" r:id="rId45"/>
+    <sheet name="CollectionExit" sheetId="43" r:id="rId46"/>
+    <sheet name="LocalCall" sheetId="40" r:id="rId47"/>
+    <sheet name="Prepaid_Happy_Offers_USSD" sheetId="63" r:id="rId48"/>
+    <sheet name="BillPayment_USSD" sheetId="64" r:id="rId49"/>
+    <sheet name="BillEnquiry_USSD" sheetId="65" r:id="rId50"/>
+    <sheet name="Postpaid_USSD_Act-DeAct" sheetId="45" r:id="rId51"/>
+    <sheet name="SIPT" sheetId="14" r:id="rId52"/>
+    <sheet name="ConsumerFixedLine_Provision" sheetId="30" r:id="rId53"/>
+    <sheet name="EnterpriseFixedLine_Provision" sheetId="31" r:id="rId54"/>
+    <sheet name="FL_ONT_CPE_Replacement" sheetId="44" r:id="rId55"/>
+    <sheet name="ETHERNET" sheetId="46" r:id="rId56"/>
+    <sheet name="MPLS" sheetId="73" r:id="rId57"/>
+    <sheet name="LEASEDLINE" sheetId="47" r:id="rId58"/>
+    <sheet name="IPLC" sheetId="48" r:id="rId59"/>
+    <sheet name="PearlMobile_Provisioning" sheetId="56" r:id="rId60"/>
+    <sheet name="PearlData_Provisioning" sheetId="57" r:id="rId61"/>
+    <sheet name="DAPN_Provisioning" sheetId="58" r:id="rId62"/>
+    <sheet name="UpgradePromotion_DAPN" sheetId="76" r:id="rId63"/>
+    <sheet name="Cancel_Order" sheetId="67" r:id="rId64"/>
+    <sheet name="Mcare_Post_ProdActivation" sheetId="69" r:id="rId65"/>
+    <sheet name="Mcare_Post_ProdDeActivation" sheetId="70" r:id="rId66"/>
+    <sheet name="Mcare_Cookies" sheetId="71" r:id="rId67"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId63"/>
+    <externalReference r:id="rId68"/>
   </externalReferences>
   <definedNames>
     <definedName name="UseCase">[1]LOV!$A$2:$A$25</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2723" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2873" uniqueCount="553">
   <si>
     <t>TestCase</t>
   </si>
@@ -1713,12 +1718,39 @@
   </si>
   <si>
     <t>Mcare_Cookies</t>
+  </si>
+  <si>
+    <t>BillingProf</t>
+  </si>
+  <si>
+    <t>MPLS</t>
+  </si>
+  <si>
+    <t>VFQA_MPLS</t>
+  </si>
+  <si>
+    <t>MPLS VPN Network</t>
+  </si>
+  <si>
+    <t>MPLS VPN Access</t>
+  </si>
+  <si>
+    <t>MPLS VPN Node</t>
+  </si>
+  <si>
+    <t>FL_Disconnect</t>
+  </si>
+  <si>
+    <t>DAPN</t>
+  </si>
+  <si>
+    <t>Suspend_Account</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1888,7 +1920,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1925,8 +1957,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2056,11 +2094,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2259,17 +2325,93 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="60">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3603,22 +3745,94 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2">
-    <cfRule type="duplicateValues" dxfId="53" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="duplicateValues" dxfId="51" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="duplicateValues" dxfId="49" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:E5"/>
@@ -3698,7 +3912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:J3"/>
@@ -3792,7 +4006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:L3"/>
@@ -3900,7 +4114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:G5"/>
@@ -3988,7 +4202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:E5"/>
@@ -4057,7 +4271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:AC4"/>
@@ -4342,19 +4556,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2">
-    <cfRule type="duplicateValues" dxfId="35" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:E5"/>
@@ -4437,7 +4651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:E5"/>
@@ -4514,7 +4728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:D5"/>
@@ -4580,54 +4794,6 @@
         <v>32</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet19"/>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5089,6 +5255,54 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet19"/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -5151,7 +5365,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:E5"/>
@@ -5246,7 +5460,55 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="89" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="89" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="90" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="84" t="s">
+        <v>550</v>
+      </c>
+      <c r="B2" s="91"/>
+      <c r="C2" s="84" t="s">
+        <v>370</v>
+      </c>
+      <c r="D2" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="84" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:F2"/>
@@ -5295,7 +5557,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:I205"/>
@@ -6534,7 +6796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:AB4"/>
@@ -6798,18 +7060,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2">
-    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:AN3"/>
@@ -6999,10 +7261,10 @@
       <c r="H2" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="84" t="s">
+      <c r="I2" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="84"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="56" t="s">
         <v>45</v>
       </c>
@@ -7016,10 +7278,10 @@
       <c r="O2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="Q2" s="84" t="s">
+      <c r="Q2" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="84"/>
+      <c r="R2" s="86"/>
       <c r="U2" s="56" t="s">
         <v>71</v>
       </c>
@@ -7125,7 +7387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:AB4"/>
@@ -7403,18 +7665,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2">
-    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:AN3"/>
@@ -7602,10 +7864,10 @@
       <c r="H2" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="84" t="s">
+      <c r="I2" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="84"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="56" t="s">
         <v>45</v>
       </c>
@@ -7619,10 +7881,10 @@
       <c r="O2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="Q2" s="84" t="s">
+      <c r="Q2" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="84"/>
+      <c r="R2" s="86"/>
       <c r="U2" s="56" t="s">
         <v>71</v>
       </c>
@@ -7722,158 +7984,6 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="Q2:R2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet28"/>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="82" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet29"/>
-  <dimension ref="A1:L3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>508</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>509</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>510</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>511</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>512</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>513</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
-        <v>515</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="K2" s="60" t="s">
-        <v>516</v>
-      </c>
-      <c r="L2" s="60" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="61" t="s">
-        <v>518</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8410,6 +8520,158 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet28"/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet29"/>
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>510</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="61" t="s">
+        <v>515</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="K2" s="60" t="s">
+        <v>516</v>
+      </c>
+      <c r="L2" s="60" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="61" t="s">
+        <v>518</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet30"/>
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -8458,7 +8720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:AD3"/>
@@ -8699,7 +8961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet32"/>
   <dimension ref="A1:D5"/>
@@ -8773,7 +9035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet33"/>
   <dimension ref="A1:F5"/>
@@ -8878,7 +9140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet34"/>
   <dimension ref="A1:D2"/>
@@ -8923,7 +9185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet35"/>
   <dimension ref="A1:E5"/>
@@ -9015,7 +9277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet36"/>
   <dimension ref="A1:E5"/>
@@ -9107,7 +9369,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet37"/>
   <dimension ref="A1:AB18"/>
@@ -9669,162 +9931,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet38"/>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E2" t="s">
-        <v>523</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E3" t="s">
-        <v>523</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F5" s="36"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D7" s="3"/>
-      <c r="H7" s="36"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet39"/>
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" t="s">
-        <v>525</v>
-      </c>
-      <c r="F2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" t="s">
-        <v>525</v>
-      </c>
-      <c r="F3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E7" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10159,18 +10265,241 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:L1">
-    <cfRule type="duplicateValues" dxfId="47" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X3">
-    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="F2" t="s">
+        <v>523</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="F3" t="s">
+        <v>523</v>
+      </c>
+      <c r="G3" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet38"/>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E2" t="s">
+        <v>523</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E3" t="s">
+        <v>523</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" s="36"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="3"/>
+      <c r="H7" s="36"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet39"/>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" t="s">
+        <v>525</v>
+      </c>
+      <c r="F3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet40"/>
   <dimension ref="A1:F2"/>
@@ -10225,7 +10554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet41"/>
   <dimension ref="A1:F2"/>
@@ -10280,7 +10609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet42"/>
   <dimension ref="A1:E2"/>
@@ -10333,7 +10662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet43"/>
   <dimension ref="A1:F2"/>
@@ -10392,7 +10721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet44"/>
   <dimension ref="A1:D2"/>
@@ -10438,7 +10767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet45"/>
   <dimension ref="A1:C6"/>
@@ -10481,7 +10810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet46"/>
   <dimension ref="A1:D7"/>
@@ -10528,7 +10857,363 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:AP5"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="J2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="S2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="6"/>
+      <c r="W2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="P3" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="3"/>
+      <c r="AE3" s="6"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AI5" s="6"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="K1:L1">
+    <cfRule type="duplicateValues" dxfId="49" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X2:X3">
+    <cfRule type="duplicateValues" dxfId="47" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet47"/>
   <dimension ref="A1:C2"/>
@@ -10569,7 +11254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet48"/>
   <dimension ref="A1:C3"/>
@@ -10623,7 +11308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet49"/>
   <dimension ref="A1:AT7"/>
@@ -11003,374 +11688,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AP5"/>
-  <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="J2" t="s">
-        <v>137</v>
-      </c>
-      <c r="K2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O2" t="s">
-        <v>70</v>
-      </c>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="S2" t="s">
-        <v>46</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="V2" s="6"/>
-      <c r="W2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="P3" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="3"/>
-      <c r="AE3" s="6"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="AI5" s="6"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="K1:L1">
-    <cfRule type="duplicateValues" dxfId="43" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X3">
-    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="2"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet50"/>
   <dimension ref="A1:AO3"/>
@@ -11658,18 +11987,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet51"/>
   <dimension ref="A1:AO3"/>
@@ -11954,18 +12283,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:W3">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet52"/>
   <dimension ref="A1:L4"/>
@@ -12035,11 +12364,11 @@
       <c r="E2" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
@@ -12048,11 +12377,11 @@
       <c r="E3" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="F3" s="85" t="s">
+      <c r="F3" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
@@ -12061,11 +12390,11 @@
       <c r="E4" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="F4" s="85" t="s">
+      <c r="F4" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -12078,13 +12407,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet53"/>
   <dimension ref="A1:BA7"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="AO5" sqref="AO5"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12095,7 +12424,7 @@
     <col min="4" max="4" width="20.140625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="26.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
     <col min="10" max="10" width="16.42578125" customWidth="1"/>
@@ -12303,7 +12632,7 @@
         <v>116</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>86</v>
@@ -12498,19 +12827,475 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AY16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P17" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="7" width="26.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="13" max="15" width="18" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
+    <col min="18" max="18" width="17.42578125" customWidth="1"/>
+    <col min="19" max="19" width="19.7109375" customWidth="1"/>
+    <col min="20" max="20" width="25.28515625" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" customWidth="1"/>
+    <col min="22" max="22" width="18" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" customWidth="1"/>
+    <col min="42" max="42" width="27.85546875" customWidth="1"/>
+    <col min="47" max="47" width="26.85546875" customWidth="1"/>
+    <col min="48" max="48" width="32.85546875" customWidth="1"/>
+    <col min="49" max="49" width="30.140625" customWidth="1"/>
+    <col min="50" max="50" width="34.140625" customWidth="1"/>
+    <col min="51" max="51" width="24.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU1" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="AV1" s="41" t="s">
+        <v>452</v>
+      </c>
+      <c r="AW1" s="40" t="s">
+        <v>453</v>
+      </c>
+      <c r="AX1" s="41" t="s">
+        <v>454</v>
+      </c>
+      <c r="AY1" s="40" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>545</v>
+      </c>
+      <c r="G2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT2" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU2" s="42" t="s">
+        <v>547</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>548</v>
+      </c>
+      <c r="AW2" s="43" t="s">
+        <v>548</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>549</v>
+      </c>
+      <c r="AY2" s="43" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="M3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="AJ3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="M4" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="AJ4" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="M5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="AJ5" s="6"/>
+      <c r="AL5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="M6" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="AP6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="M7" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="AP7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H1:I1">
+    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2">
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:G14">
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet54"/>
   <dimension ref="A1:BD7"/>
@@ -12942,7 +13727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet55"/>
   <dimension ref="A1:BB7"/>
@@ -13359,785 +14144,6 @@
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet56"/>
-  <dimension ref="A1:AG2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="H1" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB1" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC1" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD1" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE1" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF1" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG1" s="63" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="L2" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="69" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q2" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="R2" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="S2" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="V2" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC2" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD2" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE2" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF2" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG2" s="66"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet57"/>
-  <dimension ref="A1:AG2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="H1" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB1" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC1" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD1" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE1" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF1" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG1" s="63" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="66" t="s">
-        <v>519</v>
-      </c>
-      <c r="E2" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="L2" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="69" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q2" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="R2" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="S2" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="V2" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC2" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD2" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE2" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF2" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG2" s="66"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet58"/>
-  <dimension ref="A1:AO3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="H1" s="64" t="s">
-        <v>506</v>
-      </c>
-      <c r="I1" s="64" t="s">
-        <v>136</v>
-      </c>
-      <c r="J1" s="64" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="N1" s="64" t="s">
-        <v>65</v>
-      </c>
-      <c r="O1" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="P1" s="64" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="U1" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="V1" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="W1" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="X1" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y1" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z1" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA1" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB1" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC1" s="64" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD1" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE1" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF1" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG1" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH1" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI1" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ1" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK1" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL1" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM1" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN1" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO1" s="64" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="71" t="s">
-        <v>507</v>
-      </c>
-      <c r="I2" s="65" t="s">
-        <v>137</v>
-      </c>
-      <c r="J2" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="N2" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="O2" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="W2" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="X2" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z2" s="69" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA2" s="69" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB2" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC2" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD2" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE2" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF2" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH2" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI2" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ2" s="65"/>
-      <c r="AK2" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL2" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM2" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN2" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO2" s="65" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="71" t="s">
-        <v>507</v>
-      </c>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL3" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM3" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN3" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO3" s="65" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet59"/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>530</v>
-      </c>
-      <c r="E1" s="73" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
-        <v>532</v>
-      </c>
-      <c r="B2" s="80" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="80" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
-        <v>534</v>
-      </c>
-      <c r="B3" s="80" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="80" t="s">
-        <v>533</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14537,12 +14543,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N1:O1">
-    <cfRule type="duplicateValues" dxfId="39" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AA3">
-    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14550,11 +14556,835 @@
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet56"/>
+  <dimension ref="A1:AG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB1" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD1" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE1" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF1" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG1" s="63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="L2" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q2" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC2" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD2" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE2" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF2" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG2" s="66"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet57"/>
+  <dimension ref="A1:AG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB1" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD1" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE1" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF1" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG1" s="63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>519</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="L2" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q2" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC2" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD2" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE2" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF2" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG2" s="66"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet58"/>
+  <dimension ref="A1:AO3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="64" t="s">
+        <v>506</v>
+      </c>
+      <c r="I1" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="J1" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="V1" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y1" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z1" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA1" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB1" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC1" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD1" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE1" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF1" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG1" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH1" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI1" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ1" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK1" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL1" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM1" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN1" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO1" s="64" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="71" t="s">
+        <v>507</v>
+      </c>
+      <c r="I2" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="W2" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z2" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA2" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB2" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC2" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD2" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE2" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF2" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG2" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH2" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI2" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ2" s="65"/>
+      <c r="AK2" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL2" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM2" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN2" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO2" s="65" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A3" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="71" t="s">
+        <v>507</v>
+      </c>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL3" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM3" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN3" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO3" s="65" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="89" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="84" t="s">
+        <v>551</v>
+      </c>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="84" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet59"/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="E1" s="73" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="81" t="s">
+        <v>532</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="80" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="81" t="s">
+        <v>534</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="80" t="s">
+        <v>533</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet60"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14586,7 +15416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet61"/>
   <dimension ref="A1:C2"/>
@@ -14624,7 +15454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet62"/>
   <dimension ref="A1:B2"/>
@@ -14812,12 +15642,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -14835,7 +15671,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>94</v>
+        <v>552</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>32</v>
@@ -14845,37 +15681,19 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800" firstSheet="41" activeTab="46"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -51,32 +51,40 @@
     <sheet name="InvoiceToPDF_Generation" sheetId="39" r:id="rId42"/>
     <sheet name="DunningProcess" sheetId="41" r:id="rId43"/>
     <sheet name="Trial_BillRun" sheetId="68" r:id="rId44"/>
-    <sheet name="DunningAction" sheetId="42" r:id="rId45"/>
-    <sheet name="CollectionExit" sheetId="43" r:id="rId46"/>
-    <sheet name="LocalCall" sheetId="40" r:id="rId47"/>
-    <sheet name="Prepaid_Happy_Offers_USSD" sheetId="63" r:id="rId48"/>
-    <sheet name="BillPayment_USSD" sheetId="64" r:id="rId49"/>
-    <sheet name="BillEnquiry_USSD" sheetId="65" r:id="rId50"/>
-    <sheet name="Postpaid_USSD_Act-DeAct" sheetId="45" r:id="rId51"/>
-    <sheet name="SIPT" sheetId="14" r:id="rId52"/>
-    <sheet name="ConsumerFixedLine_Provision" sheetId="30" r:id="rId53"/>
-    <sheet name="EnterpriseFixedLine_Provision" sheetId="31" r:id="rId54"/>
-    <sheet name="FL_ONT_CPE_Replacement" sheetId="44" r:id="rId55"/>
-    <sheet name="ETHERNET" sheetId="46" r:id="rId56"/>
-    <sheet name="MPLS" sheetId="73" r:id="rId57"/>
-    <sheet name="LEASEDLINE" sheetId="47" r:id="rId58"/>
-    <sheet name="IPLC" sheetId="48" r:id="rId59"/>
-    <sheet name="PearlMobile_Provisioning" sheetId="56" r:id="rId60"/>
-    <sheet name="PearlData_Provisioning" sheetId="57" r:id="rId61"/>
-    <sheet name="DAPN_Provisioning" sheetId="58" r:id="rId62"/>
-    <sheet name="UpgradePromotion_DAPN" sheetId="76" r:id="rId63"/>
-    <sheet name="Cancel_Order" sheetId="67" r:id="rId64"/>
-    <sheet name="Mcare_Post_ProdActivation" sheetId="69" r:id="rId65"/>
-    <sheet name="Mcare_Post_ProdDeActivation" sheetId="70" r:id="rId66"/>
-    <sheet name="Mcare_Cookies" sheetId="71" r:id="rId67"/>
+    <sheet name="SharedBundleProvisioning" sheetId="82" r:id="rId45"/>
+    <sheet name="SharedBundleDisconnection" sheetId="83" r:id="rId46"/>
+    <sheet name="OrderReplication" sheetId="84" r:id="rId47"/>
+    <sheet name="DunningAction" sheetId="42" r:id="rId48"/>
+    <sheet name="CollectionExit" sheetId="43" r:id="rId49"/>
+    <sheet name="LocalCall" sheetId="40" r:id="rId50"/>
+    <sheet name="Prepaid_Happy_Offers_USSD" sheetId="63" r:id="rId51"/>
+    <sheet name="BillPayment_USSD" sheetId="64" r:id="rId52"/>
+    <sheet name="BillEnquiry_USSD" sheetId="65" r:id="rId53"/>
+    <sheet name="Postpaid_USSD_Act-DeAct" sheetId="45" r:id="rId54"/>
+    <sheet name="SIPT" sheetId="14" r:id="rId55"/>
+    <sheet name="ConsumerFixedLine_Provision" sheetId="30" r:id="rId56"/>
+    <sheet name="EnterpriseFixedLine_Provision" sheetId="31" r:id="rId57"/>
+    <sheet name="FL_ONT_CPE_Replacement" sheetId="44" r:id="rId58"/>
+    <sheet name="ETHERNET" sheetId="46" r:id="rId59"/>
+    <sheet name="MPLS" sheetId="73" r:id="rId60"/>
+    <sheet name="LEASEDLINE" sheetId="47" r:id="rId61"/>
+    <sheet name="HomeMove" sheetId="81" r:id="rId62"/>
+    <sheet name="IPLC" sheetId="48" r:id="rId63"/>
+    <sheet name="PearlMobile_Provisioning" sheetId="56" r:id="rId64"/>
+    <sheet name="PearlData_Provisioning" sheetId="57" r:id="rId65"/>
+    <sheet name="DAPN_Provisioning" sheetId="58" r:id="rId66"/>
+    <sheet name="UpgradePromotion_DAPN" sheetId="76" r:id="rId67"/>
+    <sheet name="Cancel_Order" sheetId="67" r:id="rId68"/>
+    <sheet name="Mcare_Post_ProdActivation" sheetId="69" r:id="rId69"/>
+    <sheet name="Mcare_Post_ProdDeActivation" sheetId="70" r:id="rId70"/>
+    <sheet name="Mcare_Cookies" sheetId="71" r:id="rId71"/>
+    <sheet name="Get_PUK" sheetId="77" r:id="rId72"/>
+    <sheet name="Adjustments_BillingProfile" sheetId="78" r:id="rId73"/>
+    <sheet name="Adjustments_Bill" sheetId="79" r:id="rId74"/>
+    <sheet name="Adjustments_Item" sheetId="80" r:id="rId75"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId68"/>
+    <externalReference r:id="rId76"/>
   </externalReferences>
   <definedNames>
     <definedName name="UseCase">[1]LOV!$A$2:$A$25</definedName>
@@ -86,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2873" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3089" uniqueCount="556">
   <si>
     <t>TestCase</t>
   </si>
@@ -1495,30 +1503,9 @@
     <t>Virtual Connection2</t>
   </si>
   <si>
-    <t>LL Node Features</t>
-  </si>
-  <si>
-    <t>LL Charges</t>
-  </si>
-  <si>
-    <t>Connection_LL Charges</t>
-  </si>
-  <si>
-    <t>LL Features</t>
-  </si>
-  <si>
-    <t>LL SLA</t>
-  </si>
-  <si>
-    <t>LL SLA2</t>
-  </si>
-  <si>
     <t>LEASEDLINE</t>
   </si>
   <si>
-    <t>VFQA_Leasedline</t>
-  </si>
-  <si>
     <t>LL VPN Network</t>
   </si>
   <si>
@@ -1528,24 +1515,6 @@
     <t>LL Connection</t>
   </si>
   <si>
-    <t>L.L -Vodafone Managed service</t>
-  </si>
-  <si>
-    <t>L.L - Excess Construction Charge</t>
-  </si>
-  <si>
-    <t>L.L  Connection Charge</t>
-  </si>
-  <si>
-    <t>Leased Line 100Mb</t>
-  </si>
-  <si>
-    <t>Standard SLA(LL)</t>
-  </si>
-  <si>
-    <t>Enhanced SLA(LL)</t>
-  </si>
-  <si>
     <t>IPLC Node Features</t>
   </si>
   <si>
@@ -1745,6 +1714,54 @@
   </si>
   <si>
     <t>Suspend_Account</t>
+  </si>
+  <si>
+    <t>Get_PUK</t>
+  </si>
+  <si>
+    <t>Debit</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>SharedBundle</t>
+  </si>
+  <si>
+    <t>PlanName_1</t>
+  </si>
+  <si>
+    <t>SharedAddon</t>
+  </si>
+  <si>
+    <t>NewActivation</t>
+  </si>
+  <si>
+    <t>Postpaid Business Value 160 Promotion</t>
+  </si>
+  <si>
+    <t>Corporate Account Level Bundle</t>
+  </si>
+  <si>
+    <t>Postpaid Red 750 Promotion</t>
+  </si>
+  <si>
+    <t>Shared Mix – Starter</t>
+  </si>
+  <si>
+    <t>ShareData</t>
+  </si>
+  <si>
+    <t>MSISDNLevel</t>
+  </si>
+  <si>
+    <t>Long Vacation</t>
+  </si>
+  <si>
+    <t>AccountLevel</t>
+  </si>
+  <si>
+    <t>Existing</t>
   </si>
 </sst>
 </file>
@@ -2126,7 +2143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2221,11 +2238,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2329,12 +2341,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2347,11 +2353,93 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="66">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3745,16 +3833,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2">
-    <cfRule type="duplicateValues" dxfId="59" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="duplicateValues" dxfId="57" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="duplicateValues" dxfId="55" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4034,10 +4122,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>123</v>
@@ -4066,7 +4154,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="F2" s="6"/>
       <c r="H2" s="3" t="s">
@@ -4093,7 +4181,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -4395,7 +4483,7 @@
         <v>23</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -4556,12 +4644,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2">
-    <cfRule type="duplicateValues" dxfId="41" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="duplicateValues" dxfId="39" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4805,10 +4893,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:AH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4844,7 +4932,7 @@
     <col min="33" max="33" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4945,7 +5033,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>125</v>
       </c>
@@ -5027,23 +5115,25 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="92" t="s">
         <v>34</v>
       </c>
       <c r="I3" s="7" t="s">
@@ -5055,67 +5145,63 @@
       <c r="K3" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="92" t="s">
         <v>40</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="92" t="s">
         <v>41</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="U3" t="s">
+      <c r="T3" s="90"/>
+      <c r="U3" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="V3" s="3"/>
-      <c r="W3" t="s">
-        <v>46</v>
-      </c>
-      <c r="X3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB3" s="3" t="s">
+      <c r="V3" s="92" t="s">
+        <v>122</v>
+      </c>
+      <c r="W3" s="90"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="AC3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD3" t="s">
+      <c r="AC3" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD3" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="AE3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG3" s="3"/>
-    </row>
-    <row r="4" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE3" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF3" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG3" s="92"/>
+      <c r="AH3" s="90" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4" t="s">
         <v>53</v>
@@ -5202,7 +5288,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>128</v>
       </c>
@@ -5276,7 +5362,7 @@
         <v>91</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -5471,34 +5557,34 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="E1" s="85" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
-        <v>550</v>
-      </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="84" t="s">
+      <c r="A2" s="81" t="s">
+        <v>537</v>
+      </c>
+      <c r="B2" s="86"/>
+      <c r="C2" s="81" t="s">
         <v>370</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="81" t="s">
         <v>143</v>
       </c>
     </row>
@@ -7060,12 +7146,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2">
-    <cfRule type="duplicateValues" dxfId="37" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="duplicateValues" dxfId="35" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7138,7 +7224,7 @@
         <v>353</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="G1" s="18" t="s">
         <v>126</v>
@@ -7244,137 +7330,137 @@
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="53" t="s">
         <v>354</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="83" t="s">
-        <v>507</v>
-      </c>
-      <c r="H2" s="56" t="s">
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="80" t="s">
+        <v>494</v>
+      </c>
+      <c r="H2" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="86" t="s">
+      <c r="I2" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="86"/>
-      <c r="K2" s="56" t="s">
+      <c r="J2" s="94"/>
+      <c r="K2" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="56" t="s">
+      <c r="L2" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="M2" s="56" t="s">
+      <c r="M2" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="N2" s="58"/>
+      <c r="N2" s="55"/>
       <c r="O2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="Q2" s="86" t="s">
+      <c r="Q2" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="86"/>
-      <c r="U2" s="56" t="s">
+      <c r="R2" s="94"/>
+      <c r="U2" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="V2" s="56" t="s">
+      <c r="V2" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="W2" s="56" t="s">
+      <c r="W2" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="X2" s="56" t="s">
+      <c r="X2" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="Y2" s="56">
+      <c r="Y2" s="53">
         <v>12181980</v>
       </c>
-      <c r="Z2" s="56">
+      <c r="Z2" s="53">
         <v>12142020</v>
       </c>
-      <c r="AA2" s="56" t="s">
+      <c r="AA2" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="AB2" s="56" t="s">
+      <c r="AB2" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="AC2" s="56">
+      <c r="AC2" s="53">
         <v>97498098089</v>
       </c>
-      <c r="AD2" s="56" t="s">
+      <c r="AD2" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="AE2" s="56" t="s">
+      <c r="AE2" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="AF2" s="56" t="s">
+      <c r="AF2" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="AG2" s="56">
+      <c r="AG2" s="53">
         <v>12345</v>
       </c>
-      <c r="AH2" s="56">
+      <c r="AH2" s="53">
         <v>51232</v>
       </c>
-      <c r="AJ2" s="56" t="s">
+      <c r="AJ2" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="AK2" s="56" t="s">
+      <c r="AK2" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="AL2" s="56" t="s">
+      <c r="AL2" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="AM2" s="56" t="s">
+      <c r="AM2" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="AN2" s="56" t="s">
+      <c r="AN2" s="53" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="53" t="s">
         <v>355</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="83" t="s">
-        <v>507</v>
-      </c>
-      <c r="N3" s="58">
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="80" t="s">
+        <v>494</v>
+      </c>
+      <c r="N3" s="55">
         <v>1126194</v>
       </c>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AJ3" s="56" t="s">
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="AA3" s="56"/>
+      <c r="AF3" s="56"/>
+      <c r="AJ3" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="AK3" s="56" t="s">
+      <c r="AK3" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="AL3" s="56" t="s">
+      <c r="AL3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="AM3" s="56" t="s">
+      <c r="AM3" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="AN3" s="56" t="s">
+      <c r="AN3" s="53" t="s">
         <v>50</v>
       </c>
     </row>
@@ -7510,13 +7596,13 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="53" t="s">
         <v>354</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="53" t="s">
         <v>33</v>
       </c>
       <c r="G2" t="s">
@@ -7574,13 +7660,13 @@
       <c r="AB2" s="6"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="53" t="s">
         <v>355</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="53" t="s">
         <v>33</v>
       </c>
       <c r="G3" t="s">
@@ -7594,11 +7680,11 @@
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="53" t="s">
         <v>33</v>
       </c>
       <c r="G4" t="s">
@@ -7665,12 +7751,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2">
-    <cfRule type="duplicateValues" dxfId="33" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7743,7 +7829,7 @@
         <v>353</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="G1" s="18" t="s">
         <v>126</v>
@@ -7849,133 +7935,133 @@
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="53" t="s">
         <v>354</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="83" t="s">
-        <v>507</v>
-      </c>
-      <c r="H2" s="56" t="s">
+      <c r="F2" s="80" t="s">
+        <v>494</v>
+      </c>
+      <c r="H2" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="86" t="s">
+      <c r="I2" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="86"/>
-      <c r="K2" s="56" t="s">
+      <c r="J2" s="94"/>
+      <c r="K2" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="56" t="s">
+      <c r="L2" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="M2" s="56" t="s">
+      <c r="M2" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="N2" s="58"/>
+      <c r="N2" s="55"/>
       <c r="O2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="Q2" s="86" t="s">
+      <c r="Q2" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="86"/>
-      <c r="U2" s="56" t="s">
+      <c r="R2" s="94"/>
+      <c r="U2" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="V2" s="56" t="s">
+      <c r="V2" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="W2" s="56" t="s">
+      <c r="W2" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="X2" s="56" t="s">
+      <c r="X2" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="Y2" s="56">
+      <c r="Y2" s="53">
         <v>12181980</v>
       </c>
-      <c r="Z2" s="56">
+      <c r="Z2" s="53">
         <v>12142020</v>
       </c>
-      <c r="AA2" s="56" t="s">
+      <c r="AA2" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="AB2" s="56" t="s">
+      <c r="AB2" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="AC2" s="56">
+      <c r="AC2" s="53">
         <v>97498098089</v>
       </c>
-      <c r="AD2" s="56" t="s">
+      <c r="AD2" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="AE2" s="56" t="s">
+      <c r="AE2" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="AF2" s="56" t="s">
+      <c r="AF2" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="AG2" s="56">
+      <c r="AG2" s="53">
         <v>12345</v>
       </c>
-      <c r="AH2" s="56">
+      <c r="AH2" s="53">
         <v>51232</v>
       </c>
-      <c r="AJ2" s="56" t="s">
+      <c r="AJ2" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="AK2" s="56" t="s">
+      <c r="AK2" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="AL2" s="56" t="s">
+      <c r="AL2" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="AM2" s="56" t="s">
+      <c r="AM2" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="AN2" s="56" t="s">
+      <c r="AN2" s="53" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="53" t="s">
         <v>355</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="83" t="s">
-        <v>507</v>
-      </c>
-      <c r="N3" s="58">
+      <c r="F3" s="80" t="s">
+        <v>494</v>
+      </c>
+      <c r="N3" s="55">
         <v>1126194</v>
       </c>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AJ3" s="56" t="s">
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="AA3" s="56"/>
+      <c r="AF3" s="56"/>
+      <c r="AJ3" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="AK3" s="56" t="s">
+      <c r="AK3" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="AL3" s="56" t="s">
+      <c r="AL3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="AM3" s="56" t="s">
+      <c r="AM3" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="AN3" s="56" t="s">
+      <c r="AN3" s="53" t="s">
         <v>50</v>
       </c>
     </row>
@@ -8553,17 +8639,17 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8612,30 +8698,30 @@
         <v>139</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
-        <v>515</v>
+      <c r="A2" s="58" t="s">
+        <v>502</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>32</v>
@@ -8645,16 +8731,16 @@
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
-      <c r="K2" s="60" t="s">
-        <v>516</v>
-      </c>
-      <c r="L2" s="60" t="s">
-        <v>517</v>
+      <c r="K2" s="57" t="s">
+        <v>503</v>
+      </c>
+      <c r="L2" s="57" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="61" t="s">
-        <v>518</v>
+      <c r="A3" s="58" t="s">
+        <v>505</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>32</v>
@@ -8698,20 +8784,20 @@
         <v>91</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>520</v>
-      </c>
-      <c r="F1" s="73" t="s">
-        <v>521</v>
+        <v>507</v>
+      </c>
+      <c r="F1" s="70" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="59" t="s">
         <v>33</v>
       </c>
     </row>
@@ -9068,7 +9154,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9076,15 +9162,15 @@
         <v>94</v>
       </c>
       <c r="B2" s="24"/>
-      <c r="C2" s="54"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="25" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>32</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9092,15 +9178,15 @@
         <v>96</v>
       </c>
       <c r="B3" s="24"/>
-      <c r="C3" s="54"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="25" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9108,15 +9194,15 @@
         <v>95</v>
       </c>
       <c r="B4" s="24"/>
-      <c r="C4" s="54"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="25" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="E4" s="25" t="s">
         <v>32</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9124,15 +9210,15 @@
         <v>97</v>
       </c>
       <c r="B5" s="24"/>
-      <c r="C5" s="54"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="25" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -9157,26 +9243,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="48" t="s">
-        <v>499</v>
-      </c>
-      <c r="D1" s="49" t="s">
+      <c r="C1" s="45" t="s">
+        <v>486</v>
+      </c>
+      <c r="D1" s="46" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="48" t="s">
         <v>32</v>
       </c>
     </row>
@@ -10004,10 +10090,10 @@
         <v>127</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>126</v>
@@ -10124,7 +10210,7 @@
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="8"/>
@@ -10227,7 +10313,7 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="8"/>
@@ -10265,12 +10351,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:L1">
-    <cfRule type="duplicateValues" dxfId="53" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X3">
-    <cfRule type="duplicateValues" dxfId="51" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10302,7 +10388,7 @@
         <v>344</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>340</v>
@@ -10319,10 +10405,10 @@
         <v>337</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="F2" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="G2" s="6"/>
     </row>
@@ -10331,10 +10417,10 @@
         <v>338</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="F3" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="G3" s="6"/>
     </row>
@@ -10388,10 +10474,10 @@
         <v>337</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="E2" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>343</v>
@@ -10402,10 +10488,10 @@
         <v>338</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="E3" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>343</v>
@@ -10472,10 +10558,10 @@
       </c>
       <c r="D2" s="6"/>
       <c r="E2" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="F2" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -10484,10 +10570,10 @@
       </c>
       <c r="D3" s="6"/>
       <c r="E3" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="F3" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -10581,13 +10667,13 @@
         <v>342</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>341</v>
@@ -10595,10 +10681,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>343</v>
@@ -10610,6 +10696,453 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AT3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE1" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH1" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK1" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL1" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN1" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO1" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR1" s="18" t="s">
+        <v>543</v>
+      </c>
+      <c r="AS1" s="18" t="s">
+        <v>544</v>
+      </c>
+      <c r="AT1" s="18" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A2" s="93" t="s">
+        <v>546</v>
+      </c>
+      <c r="B2" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="93" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="93" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="93">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="93" t="s">
+        <v>122</v>
+      </c>
+      <c r="S2" s="93" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="93">
+        <v>12345</v>
+      </c>
+      <c r="U2" s="93">
+        <v>51232</v>
+      </c>
+      <c r="W2" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="X2" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA2" s="93">
+        <v>12181980</v>
+      </c>
+      <c r="AB2" s="93">
+        <v>12142020</v>
+      </c>
+      <c r="AC2" s="93" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD2" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE2" s="93">
+        <v>97498098089</v>
+      </c>
+      <c r="AF2" s="93" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG2" s="93" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH2" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI2" s="93">
+        <v>12345</v>
+      </c>
+      <c r="AJ2" s="93">
+        <v>51232</v>
+      </c>
+      <c r="AL2" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM2" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN2" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO2" s="93" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP2" s="93" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ2" s="93" t="s">
+        <v>547</v>
+      </c>
+      <c r="AR2" s="93" t="s">
+        <v>548</v>
+      </c>
+      <c r="AS2" s="93" t="s">
+        <v>549</v>
+      </c>
+      <c r="AT2" s="93" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A3" s="93" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="93" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="93" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="93">
+        <v>1000</v>
+      </c>
+      <c r="P3" s="55">
+        <v>1126194</v>
+      </c>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AH3" s="56"/>
+      <c r="AL3" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM3" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN3" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO3" s="93" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP3" s="93" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="93" t="s">
+        <v>552</v>
+      </c>
+      <c r="D2" s="93" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="93" t="s">
+        <v>553</v>
+      </c>
+      <c r="G2" s="93" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="93" t="s">
+        <v>554</v>
+      </c>
+      <c r="D3" s="93" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="93" t="s">
+        <v>553</v>
+      </c>
+      <c r="G3" s="93" t="s">
+        <v>548</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="93" t="s">
+        <v>555</v>
+      </c>
+      <c r="D2" s="93" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="93">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet42"/>
   <dimension ref="A1:E2"/>
@@ -10662,7 +11195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet43"/>
   <dimension ref="A1:F2"/>
@@ -10715,142 +11248,6 @@
       <c r="E2" s="38" t="s">
         <v>438</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet44"/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>440</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet45"/>
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="74"/>
-      <c r="C6" s="75"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet46"/>
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>527</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="74"/>
-      <c r="D7" s="75"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10927,10 +11324,10 @@
         <v>127</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>126</v>
@@ -11053,7 +11450,7 @@
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="H2" s="6"/>
       <c r="J2" t="s">
@@ -11162,7 +11559,7 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="H3" s="6"/>
       <c r="P3" s="9" t="s">
@@ -11202,18 +11599,154 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:L1">
-    <cfRule type="duplicateValues" dxfId="49" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X3">
-    <cfRule type="duplicateValues" dxfId="47" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet44"/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet45"/>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="71"/>
+      <c r="C6" s="72"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet46"/>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="71"/>
+      <c r="D7" s="72"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet47"/>
   <dimension ref="A1:C2"/>
@@ -11230,22 +11763,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="74" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
-        <v>529</v>
-      </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="79" t="s">
+      <c r="A2" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="B2" s="75"/>
+      <c r="C2" s="76" t="s">
         <v>32</v>
       </c>
     </row>
@@ -11254,7 +11787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet48"/>
   <dimension ref="A1:C3"/>
@@ -11308,7 +11841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet49"/>
   <dimension ref="A1:AT7"/>
@@ -11420,7 +11953,7 @@
         <v>67</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>5</v>
@@ -11536,7 +12069,7 @@
         <v>48</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>117</v>
@@ -11688,18 +12221,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="29" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2">
-    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet50"/>
   <dimension ref="A1:AO3"/>
@@ -11987,18 +12520,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2">
-    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet51"/>
   <dimension ref="A1:AO3"/>
@@ -12035,7 +12568,7 @@
         <v>136</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>17</v>
@@ -12155,7 +12688,7 @@
         <v>137</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="J2" t="s">
         <v>44</v>
@@ -12252,7 +12785,7 @@
       </c>
       <c r="F3" s="6"/>
       <c r="I3" s="6" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="O3" s="9"/>
       <c r="V3" s="3"/>
@@ -12283,18 +12816,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:W3">
-    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet52"/>
   <dimension ref="A1:L4"/>
@@ -12364,11 +12897,11 @@
       <c r="E2" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="F2" s="86" t="s">
+      <c r="F2" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
@@ -12377,11 +12910,11 @@
       <c r="E3" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="F3" s="87" t="s">
+      <c r="F3" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
@@ -12390,11 +12923,11 @@
       <c r="E4" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="F4" s="87" t="s">
+      <c r="F4" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -12407,7 +12940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet53"/>
   <dimension ref="A1:BA7"/>
@@ -12827,1323 +13360,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P17" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="7" width="26.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" customWidth="1"/>
-    <col min="13" max="15" width="18" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" customWidth="1"/>
-    <col min="18" max="18" width="17.42578125" customWidth="1"/>
-    <col min="19" max="19" width="19.7109375" customWidth="1"/>
-    <col min="20" max="20" width="25.28515625" customWidth="1"/>
-    <col min="21" max="21" width="15.85546875" customWidth="1"/>
-    <col min="22" max="22" width="18" customWidth="1"/>
-    <col min="23" max="23" width="12.42578125" customWidth="1"/>
-    <col min="42" max="42" width="27.85546875" customWidth="1"/>
-    <col min="47" max="47" width="26.85546875" customWidth="1"/>
-    <col min="48" max="48" width="32.85546875" customWidth="1"/>
-    <col min="49" max="49" width="30.140625" customWidth="1"/>
-    <col min="50" max="50" width="34.140625" customWidth="1"/>
-    <col min="51" max="51" width="24.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU1" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="AV1" s="41" t="s">
-        <v>452</v>
-      </c>
-      <c r="AW1" s="40" t="s">
-        <v>453</v>
-      </c>
-      <c r="AX1" s="41" t="s">
-        <v>454</v>
-      </c>
-      <c r="AY1" s="40" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="2" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>545</v>
-      </c>
-      <c r="G2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" t="s">
-        <v>115</v>
-      </c>
-      <c r="L2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AT2" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU2" s="42" t="s">
-        <v>547</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>548</v>
-      </c>
-      <c r="AW2" s="43" t="s">
-        <v>548</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>549</v>
-      </c>
-      <c r="AY2" s="43" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="M3" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="AJ3" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="M4" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="AJ4" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="M5" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="AJ5" s="6"/>
-      <c r="AL5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="M6" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="AP6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="M7" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="AP7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-    </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-    </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-    </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="H1:I1">
-    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W2">
-    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14:G14">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet54"/>
-  <dimension ref="A1:BD7"/>
-  <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AO5" sqref="AO5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="46" max="46" width="15.28515625" style="46" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11.85546875" customWidth="1"/>
-    <col min="49" max="50" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="29" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="31.28515625" customWidth="1"/>
-    <col min="53" max="53" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="21.28515625" customWidth="1"/>
-    <col min="55" max="55" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="16.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT1" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU1" s="40" t="s">
-        <v>454</v>
-      </c>
-      <c r="AV1" s="40" t="s">
-        <v>455</v>
-      </c>
-      <c r="AW1" s="40" t="s">
-        <v>467</v>
-      </c>
-      <c r="AX1" s="40" t="s">
-        <v>468</v>
-      </c>
-      <c r="AY1" s="40" t="s">
-        <v>469</v>
-      </c>
-      <c r="AZ1" s="40" t="s">
-        <v>470</v>
-      </c>
-      <c r="BA1" s="40" t="s">
-        <v>471</v>
-      </c>
-      <c r="BB1" s="40" t="s">
-        <v>472</v>
-      </c>
-      <c r="BC1" s="40" t="s">
-        <v>473</v>
-      </c>
-      <c r="BD1" s="40" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>475</v>
-      </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K2" t="s">
-        <v>116</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AS2" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT2" s="44" t="s">
-        <v>477</v>
-      </c>
-      <c r="AU2" s="43" t="s">
-        <v>478</v>
-      </c>
-      <c r="AV2" s="43" t="s">
-        <v>478</v>
-      </c>
-      <c r="AW2" s="45" t="s">
-        <v>479</v>
-      </c>
-      <c r="AX2" s="43" t="s">
-        <v>479</v>
-      </c>
-      <c r="AY2" s="43" t="s">
-        <v>480</v>
-      </c>
-      <c r="AZ2" s="43" t="s">
-        <v>481</v>
-      </c>
-      <c r="BA2" s="43" t="s">
-        <v>482</v>
-      </c>
-      <c r="BB2" s="43" t="s">
-        <v>483</v>
-      </c>
-      <c r="BC2" s="43" t="s">
-        <v>484</v>
-      </c>
-      <c r="BD2" s="43" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="L3" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="AI3" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="L4" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="AI4" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="L5" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="AI5" s="6"/>
-      <c r="AK5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="L6" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="AO6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="L7" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="AO7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V2">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet55"/>
-  <dimension ref="A1:BB7"/>
-  <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AO5" sqref="AO5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="46" max="46" width="23.85546875" customWidth="1"/>
-    <col min="47" max="47" width="31.5703125" customWidth="1"/>
-    <col min="48" max="48" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="39.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT1" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU1" s="40" t="s">
-        <v>454</v>
-      </c>
-      <c r="AV1" s="40" t="s">
-        <v>455</v>
-      </c>
-      <c r="AW1" s="40" t="s">
-        <v>467</v>
-      </c>
-      <c r="AX1" s="40" t="s">
-        <v>468</v>
-      </c>
-      <c r="AY1" s="40" t="s">
-        <v>486</v>
-      </c>
-      <c r="AZ1" s="40" t="s">
-        <v>487</v>
-      </c>
-      <c r="BA1" s="40" t="s">
-        <v>488</v>
-      </c>
-      <c r="BB1" s="40" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>490</v>
-      </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K2" t="s">
-        <v>116</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AS2" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT2" s="43" t="s">
-        <v>492</v>
-      </c>
-      <c r="AU2" s="43" t="s">
-        <v>493</v>
-      </c>
-      <c r="AV2" s="43" t="s">
-        <v>493</v>
-      </c>
-      <c r="AW2" s="43" t="s">
-        <v>494</v>
-      </c>
-      <c r="AX2" s="43" t="s">
-        <v>494</v>
-      </c>
-      <c r="AY2" s="43" t="s">
-        <v>495</v>
-      </c>
-      <c r="AZ2" s="43" t="s">
-        <v>496</v>
-      </c>
-      <c r="BA2" s="43" t="s">
-        <v>497</v>
-      </c>
-      <c r="BB2" s="43" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="L3" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="AI3" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="L4" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="AI4" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="L5" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="AI5" s="6"/>
-      <c r="AK5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="L6" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="AO6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="L7" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="AO7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V2">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -14226,10 +13451,10 @@
         <v>437</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>127</v>
@@ -14359,7 +13584,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="6" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -14472,7 +13697,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="6" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -14543,18 +13768,1655 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N1:O1">
-    <cfRule type="duplicateValues" dxfId="45" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AA3">
-    <cfRule type="duplicateValues" dxfId="43" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AY16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P17" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="7" width="26.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="13" max="15" width="18" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
+    <col min="18" max="18" width="17.42578125" customWidth="1"/>
+    <col min="19" max="19" width="19.7109375" customWidth="1"/>
+    <col min="20" max="20" width="25.28515625" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" customWidth="1"/>
+    <col min="22" max="22" width="18" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" customWidth="1"/>
+    <col min="42" max="42" width="27.85546875" customWidth="1"/>
+    <col min="47" max="47" width="26.85546875" customWidth="1"/>
+    <col min="48" max="48" width="32.85546875" customWidth="1"/>
+    <col min="49" max="49" width="30.140625" customWidth="1"/>
+    <col min="50" max="50" width="34.140625" customWidth="1"/>
+    <col min="51" max="51" width="24.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU1" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="AV1" s="41" t="s">
+        <v>452</v>
+      </c>
+      <c r="AW1" s="40" t="s">
+        <v>453</v>
+      </c>
+      <c r="AX1" s="41" t="s">
+        <v>454</v>
+      </c>
+      <c r="AY1" s="40" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>532</v>
+      </c>
+      <c r="G2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT2" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU2" s="42" t="s">
+        <v>534</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>535</v>
+      </c>
+      <c r="AW2" s="43" t="s">
+        <v>535</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>536</v>
+      </c>
+      <c r="AY2" s="43" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="M3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="AJ3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="M4" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="AJ4" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="M5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="AJ5" s="6"/>
+      <c r="AL5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="M6" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="AP6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="M7" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="AP7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H1:I1">
+    <cfRule type="duplicateValues" dxfId="19" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2">
+    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:G14">
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet54"/>
+  <dimension ref="A1:AY16"/>
+  <sheetViews>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="90" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="90" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="90" customWidth="1"/>
+    <col min="5" max="5" width="15" style="90" customWidth="1"/>
+    <col min="6" max="7" width="26.42578125" style="90" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="90" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="90" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="90" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="90" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" style="90" customWidth="1"/>
+    <col min="13" max="15" width="18" style="90" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="90" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="90" customWidth="1"/>
+    <col min="18" max="18" width="17.42578125" style="90" customWidth="1"/>
+    <col min="19" max="19" width="19.7109375" style="90" customWidth="1"/>
+    <col min="20" max="20" width="25.28515625" style="90" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" style="90" customWidth="1"/>
+    <col min="22" max="22" width="18" style="90" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" style="90" customWidth="1"/>
+    <col min="24" max="41" width="9.140625" style="90"/>
+    <col min="42" max="42" width="27.85546875" style="90" customWidth="1"/>
+    <col min="43" max="46" width="9.140625" style="90"/>
+    <col min="47" max="47" width="26.85546875" style="90" customWidth="1"/>
+    <col min="48" max="48" width="32.85546875" style="90" customWidth="1"/>
+    <col min="49" max="49" width="30.140625" style="90" customWidth="1"/>
+    <col min="50" max="50" width="34.140625" style="90" customWidth="1"/>
+    <col min="51" max="51" width="24.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="52" max="16384" width="9.140625" style="90"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ1" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU1" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="AV1" s="41" t="s">
+        <v>452</v>
+      </c>
+      <c r="AW1" s="40" t="s">
+        <v>453</v>
+      </c>
+      <c r="AX1" s="41" t="s">
+        <v>454</v>
+      </c>
+      <c r="AY1" s="40" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="90" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="90" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="90" t="s">
+        <v>469</v>
+      </c>
+      <c r="G2" s="90" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="90" t="s">
+        <v>115</v>
+      </c>
+      <c r="L2" s="90" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="92" t="s">
+        <v>533</v>
+      </c>
+      <c r="W2" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB2" s="92" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC2" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE2" s="90" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF2" s="90" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG2" s="92" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL2" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM2" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN2" s="90" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO2" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP2" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ2" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR2" s="90" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS2" s="90" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT2" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU2" s="42" t="s">
+        <v>470</v>
+      </c>
+      <c r="AV2" s="90" t="s">
+        <v>472</v>
+      </c>
+      <c r="AW2" s="43" t="s">
+        <v>472</v>
+      </c>
+      <c r="AX2" s="90" t="s">
+        <v>471</v>
+      </c>
+      <c r="AY2" s="43" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="M3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="AJ3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK3" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL3" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM3" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN3" s="90" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO3" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP3" s="90" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="M4" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="AJ4" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL4" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM4" s="90" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP4" s="90" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="M5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="AJ5" s="6"/>
+      <c r="AL5" s="90" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP5" s="90" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="M6" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="AP6" s="90" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="M7" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="AP7" s="90" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H1:I1">
+    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2">
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:G14">
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AO3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="90"/>
+    <col min="3" max="3" width="23.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="90" bestFit="1" customWidth="1"/>
+    <col min="6" max="38" width="9.140625" style="90"/>
+    <col min="39" max="39" width="4.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="9.140625" style="90"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB1" s="91" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH1" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI1" s="91" t="s">
+        <v>364</v>
+      </c>
+      <c r="AJ1" s="91" t="s">
+        <v>365</v>
+      </c>
+      <c r="AK1" s="91" t="s">
+        <v>366</v>
+      </c>
+      <c r="AL1" s="91" t="s">
+        <v>367</v>
+      </c>
+      <c r="AM1" s="91" t="s">
+        <v>444</v>
+      </c>
+      <c r="AN1" s="91" t="s">
+        <v>368</v>
+      </c>
+      <c r="AO1" s="91" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="90" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="92" t="s">
+        <v>370</v>
+      </c>
+      <c r="E2" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="L2" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q2" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="92" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="W2" s="92" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD2" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE2" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF2" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG2" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="22"/>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A3" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="90" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>370</v>
+      </c>
+      <c r="E3" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="92"/>
+      <c r="V3" s="92"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AC3" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD3" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE3" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF3" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG3" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI3" s="21" t="s">
+        <v>371</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G1:H1">
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T2">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet55"/>
+  <dimension ref="A1:BB7"/>
+  <sheetViews>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AO5" sqref="AO5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="46" max="46" width="23.85546875" customWidth="1"/>
+    <col min="47" max="47" width="31.5703125" customWidth="1"/>
+    <col min="48" max="48" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="39.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT1" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU1" s="40" t="s">
+        <v>454</v>
+      </c>
+      <c r="AV1" s="40" t="s">
+        <v>455</v>
+      </c>
+      <c r="AW1" s="40" t="s">
+        <v>467</v>
+      </c>
+      <c r="AX1" s="40" t="s">
+        <v>468</v>
+      </c>
+      <c r="AY1" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="AZ1" s="40" t="s">
+        <v>474</v>
+      </c>
+      <c r="BA1" s="40" t="s">
+        <v>475</v>
+      </c>
+      <c r="BB1" s="40" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>477</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT2" s="43" t="s">
+        <v>479</v>
+      </c>
+      <c r="AU2" s="43" t="s">
+        <v>480</v>
+      </c>
+      <c r="AV2" s="43" t="s">
+        <v>480</v>
+      </c>
+      <c r="AW2" s="43" t="s">
+        <v>481</v>
+      </c>
+      <c r="AX2" s="43" t="s">
+        <v>481</v>
+      </c>
+      <c r="AY2" s="43" t="s">
+        <v>482</v>
+      </c>
+      <c r="AZ2" s="43" t="s">
+        <v>483</v>
+      </c>
+      <c r="BA2" s="43" t="s">
+        <v>484</v>
+      </c>
+      <c r="BB2" s="43" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="L3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="AI3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="L4" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="AI4" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="L5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="AI5" s="6"/>
+      <c r="AK5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="L6" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="AO6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="L7" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="AO7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G1:H1">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet56"/>
   <dimension ref="A1:AG2"/>
@@ -14566,195 +15428,195 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="64" t="s">
+      <c r="G1" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="64" t="s">
+      <c r="I1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="64" t="s">
+      <c r="J1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="64" t="s">
+      <c r="K1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="64" t="s">
+      <c r="L1" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="64" t="s">
+      <c r="M1" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="64" t="s">
+      <c r="N1" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="64" t="s">
+      <c r="O1" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="64" t="s">
+      <c r="P1" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="64" t="s">
+      <c r="Q1" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="64" t="s">
+      <c r="R1" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="64" t="s">
+      <c r="S1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="64" t="s">
+      <c r="T1" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="63" t="s">
+      <c r="U1" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="64" t="s">
+      <c r="V1" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="64" t="s">
+      <c r="W1" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="64" t="s">
+      <c r="X1" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="64" t="s">
+      <c r="Y1" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="64" t="s">
+      <c r="Z1" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="63" t="s">
+      <c r="AA1" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="AB1" s="64" t="s">
+      <c r="AB1" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="64" t="s">
+      <c r="AC1" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="64" t="s">
+      <c r="AD1" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="AE1" s="64" t="s">
+      <c r="AE1" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="AF1" s="64" t="s">
+      <c r="AF1" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="63" t="s">
+      <c r="AG1" s="60" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="66" t="s">
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="67" t="s">
+      <c r="I2" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="68" t="s">
+      <c r="J2" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="69" t="s">
+      <c r="K2" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="L2" s="66" t="s">
+      <c r="L2" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="66" t="s">
+      <c r="M2" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="66" t="s">
+      <c r="N2" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="66" t="s">
+      <c r="O2" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="69" t="s">
+      <c r="P2" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="Q2" s="66" t="s">
+      <c r="Q2" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="69" t="s">
+      <c r="R2" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="66" t="s">
+      <c r="S2" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65" t="s">
+      <c r="T2" s="62"/>
+      <c r="U2" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="66" t="s">
+      <c r="V2" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="66" t="s">
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="66" t="s">
+      <c r="AC2" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="AD2" s="65" t="s">
+      <c r="AD2" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="AE2" s="66" t="s">
+      <c r="AE2" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="AF2" s="65" t="s">
+      <c r="AF2" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" s="66"/>
+      <c r="AG2" s="63"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet57"/>
   <dimension ref="A1:AG2"/>
@@ -14766,195 +15628,195 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="64" t="s">
+      <c r="G1" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="64" t="s">
+      <c r="I1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="64" t="s">
+      <c r="J1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="64" t="s">
+      <c r="K1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="64" t="s">
+      <c r="L1" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="64" t="s">
+      <c r="M1" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="64" t="s">
+      <c r="N1" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="64" t="s">
+      <c r="O1" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="64" t="s">
+      <c r="P1" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="64" t="s">
+      <c r="Q1" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="64" t="s">
+      <c r="R1" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="64" t="s">
+      <c r="S1" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="64" t="s">
+      <c r="T1" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="63" t="s">
+      <c r="U1" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="64" t="s">
+      <c r="V1" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="64" t="s">
+      <c r="W1" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="64" t="s">
+      <c r="X1" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="64" t="s">
+      <c r="Y1" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="64" t="s">
+      <c r="Z1" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="63" t="s">
+      <c r="AA1" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="AB1" s="64" t="s">
+      <c r="AB1" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="64" t="s">
+      <c r="AC1" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="64" t="s">
+      <c r="AD1" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="AE1" s="64" t="s">
+      <c r="AE1" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="AF1" s="64" t="s">
+      <c r="AF1" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="63" t="s">
+      <c r="AG1" s="60" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="66" t="s">
-        <v>519</v>
-      </c>
-      <c r="E2" s="66" t="s">
+      <c r="D2" s="63" t="s">
+        <v>506</v>
+      </c>
+      <c r="E2" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="66" t="s">
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="67" t="s">
+      <c r="I2" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="68" t="s">
+      <c r="J2" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="69" t="s">
+      <c r="K2" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="L2" s="66" t="s">
+      <c r="L2" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="66" t="s">
+      <c r="M2" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="66" t="s">
+      <c r="N2" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="66" t="s">
+      <c r="O2" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="69" t="s">
+      <c r="P2" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="Q2" s="66" t="s">
+      <c r="Q2" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="69" t="s">
+      <c r="R2" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="66" t="s">
+      <c r="S2" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65" t="s">
+      <c r="T2" s="62"/>
+      <c r="U2" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="66" t="s">
+      <c r="V2" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="66" t="s">
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="66" t="s">
+      <c r="AC2" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="AD2" s="65" t="s">
+      <c r="AD2" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="AE2" s="66" t="s">
+      <c r="AE2" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="AF2" s="65" t="s">
+      <c r="AF2" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" s="66"/>
+      <c r="AG2" s="63"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet58"/>
   <dimension ref="A1:AO3"/>
@@ -14969,299 +15831,299 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="64" t="s">
+      <c r="G1" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="64" t="s">
-        <v>506</v>
-      </c>
-      <c r="I1" s="64" t="s">
+      <c r="H1" s="61" t="s">
+        <v>493</v>
+      </c>
+      <c r="I1" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="J1" s="64" t="s">
+      <c r="J1" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="64" t="s">
+      <c r="K1" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="63" t="s">
+      <c r="L1" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="63" t="s">
+      <c r="M1" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="64" t="s">
+      <c r="N1" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="64" t="s">
+      <c r="O1" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="P1" s="64" t="s">
+      <c r="P1" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="64" t="s">
+      <c r="Q1" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="64" t="s">
+      <c r="R1" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="64" t="s">
+      <c r="S1" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="64" t="s">
+      <c r="T1" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="64" t="s">
+      <c r="U1" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="64" t="s">
+      <c r="V1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="64" t="s">
+      <c r="W1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="64" t="s">
+      <c r="X1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="64" t="s">
+      <c r="Y1" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="Z1" s="64" t="s">
+      <c r="Z1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" s="64" t="s">
+      <c r="AA1" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="AB1" s="64" t="s">
+      <c r="AB1" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="AC1" s="64" t="s">
+      <c r="AC1" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="AD1" s="64" t="s">
+      <c r="AD1" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="AE1" s="64" t="s">
+      <c r="AE1" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="AF1" s="64" t="s">
+      <c r="AF1" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="64" t="s">
+      <c r="AG1" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="AH1" s="64" t="s">
+      <c r="AH1" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="AI1" s="64" t="s">
+      <c r="AI1" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="AJ1" s="63" t="s">
+      <c r="AJ1" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="AK1" s="64" t="s">
+      <c r="AK1" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="AL1" s="64" t="s">
+      <c r="AL1" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="AM1" s="64" t="s">
+      <c r="AM1" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="AN1" s="64" t="s">
+      <c r="AN1" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="AO1" s="64" t="s">
+      <c r="AO1" s="61" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="71" t="s">
-        <v>507</v>
-      </c>
-      <c r="I2" s="65" t="s">
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="68" t="s">
+        <v>494</v>
+      </c>
+      <c r="I2" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="J2" s="65" t="s">
+      <c r="J2" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65" t="s">
+      <c r="K2" s="62"/>
+      <c r="L2" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="65" t="s">
+      <c r="M2" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="N2" s="65" t="s">
+      <c r="N2" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="70" t="s">
+      <c r="O2" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65" t="s">
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="66" t="s">
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="W2" s="66" t="s">
+      <c r="W2" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="X2" s="65" t="s">
+      <c r="X2" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="Y2" s="65" t="s">
+      <c r="Y2" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="Z2" s="69" t="s">
+      <c r="Z2" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="AA2" s="69" t="s">
+      <c r="AA2" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="AB2" s="66" t="s">
+      <c r="AB2" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="AC2" s="65" t="s">
+      <c r="AC2" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="71" t="s">
+      <c r="AD2" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="AE2" s="65" t="s">
+      <c r="AE2" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="AF2" s="65" t="s">
+      <c r="AF2" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="AG2" s="66" t="s">
+      <c r="AG2" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="AH2" s="71" t="s">
+      <c r="AH2" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="AI2" s="71" t="s">
+      <c r="AI2" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="AJ2" s="65"/>
-      <c r="AK2" s="66" t="s">
+      <c r="AJ2" s="62"/>
+      <c r="AK2" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="AL2" s="66" t="s">
+      <c r="AL2" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="AM2" s="66" t="s">
+      <c r="AM2" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="AN2" s="66" t="s">
+      <c r="AN2" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="AO2" s="65" t="s">
+      <c r="AO2" s="62" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="71" t="s">
-        <v>507</v>
-      </c>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="66" t="s">
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="68" t="s">
+        <v>494</v>
+      </c>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="62"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="62"/>
+      <c r="AI3" s="62"/>
+      <c r="AJ3" s="62"/>
+      <c r="AK3" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="AL3" s="66" t="s">
+      <c r="AL3" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="AM3" s="66" t="s">
+      <c r="AM3" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="AN3" s="66" t="s">
+      <c r="AN3" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="AO3" s="65" t="s">
+      <c r="AO3" s="62" t="s">
         <v>50</v>
       </c>
     </row>
@@ -15270,7 +16132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -15281,32 +16143,32 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="84" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
-        <v>551</v>
-      </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="84" t="s">
+      <c r="A2" s="81" t="s">
+        <v>538</v>
+      </c>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="81" t="s">
         <v>33</v>
       </c>
     </row>
@@ -15315,7 +16177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet59"/>
   <dimension ref="A1:E3"/>
@@ -15344,32 +16206,32 @@
         <v>342</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>530</v>
-      </c>
-      <c r="E1" s="73" t="s">
-        <v>531</v>
+        <v>517</v>
+      </c>
+      <c r="E1" s="70" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
-        <v>532</v>
-      </c>
-      <c r="B2" s="80" t="s">
+      <c r="A2" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="B2" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="80" t="s">
-        <v>533</v>
+      <c r="E2" s="77" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
-        <v>534</v>
-      </c>
-      <c r="B3" s="80" t="s">
+      <c r="A3" s="78" t="s">
+        <v>521</v>
+      </c>
+      <c r="B3" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="80" t="s">
-        <v>533</v>
+      <c r="E3" s="77" t="s">
+        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -15378,7 +16240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet60"/>
   <dimension ref="A1:C2"/>
@@ -15402,83 +16264,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>448</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet61"/>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>542</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet62"/>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>543</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -15566,6 +16358,276 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet61"/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet62"/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="89" t="s">
+        <v>540</v>
+      </c>
+      <c r="B2" s="87"/>
+      <c r="C2" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="89" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="92" t="s">
+        <v>541</v>
+      </c>
+      <c r="B2" s="90"/>
+      <c r="C2" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="90" t="s">
+        <v>542</v>
+      </c>
+      <c r="B3" s="90"/>
+      <c r="C3" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="92" t="s">
+        <v>541</v>
+      </c>
+      <c r="B2" s="90"/>
+      <c r="C2" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="90" t="s">
+        <v>542</v>
+      </c>
+      <c r="B3" s="90"/>
+      <c r="C3" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="92" t="s">
+        <v>541</v>
+      </c>
+      <c r="B2" s="90"/>
+      <c r="C2" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="90" t="s">
+        <v>542</v>
+      </c>
+      <c r="B3" s="90"/>
+      <c r="C3" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
@@ -15644,7 +16706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -15671,7 +16733,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>32</v>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800" firstSheet="41" activeTab="46"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800" firstSheet="68" activeTab="73"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3089" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3082" uniqueCount="556">
   <si>
     <t>TestCase</t>
   </si>
@@ -2366,13 +2366,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3499,8 +3499,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AF10" sqref="AF10"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AA21" sqref="AA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4208,7 +4208,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4895,8 +4895,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:AH3"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5313,6 +5313,9 @@
       <c r="R5" s="5"/>
       <c r="T5"/>
       <c r="U5"/>
+      <c r="V5" s="92" t="s">
+        <v>122</v>
+      </c>
       <c r="W5"/>
       <c r="X5"/>
       <c r="Y5" s="6"/>
@@ -7347,10 +7350,10 @@
       <c r="H2" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="94" t="s">
+      <c r="I2" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="94"/>
+      <c r="J2" s="95"/>
       <c r="K2" s="53" t="s">
         <v>45</v>
       </c>
@@ -7364,10 +7367,10 @@
       <c r="O2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="Q2" s="94" t="s">
+      <c r="Q2" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="94"/>
+      <c r="R2" s="95"/>
       <c r="U2" s="53" t="s">
         <v>71</v>
       </c>
@@ -7950,10 +7953,10 @@
       <c r="H2" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="94" t="s">
+      <c r="I2" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="94"/>
+      <c r="J2" s="95"/>
       <c r="K2" s="53" t="s">
         <v>45</v>
       </c>
@@ -7967,10 +7970,10 @@
       <c r="O2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="Q2" s="94" t="s">
+      <c r="Q2" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="94"/>
+      <c r="R2" s="95"/>
       <c r="U2" s="53" t="s">
         <v>71</v>
       </c>
@@ -8079,7 +8082,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="AB6" sqref="AB6:AD7"/>
     </sheetView>
   </sheetViews>
@@ -10025,8 +10028,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AN5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10318,9 +10321,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="8"/>
       <c r="K3" s="8"/>
-      <c r="P3" s="9" t="s">
-        <v>77</v>
-      </c>
+      <c r="P3" s="9"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="AA3" s="6"/>
@@ -10876,7 +10877,7 @@
       <c r="O2" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="P2" s="96"/>
+      <c r="P2" s="94"/>
       <c r="Q2" s="93" t="s">
         <v>122</v>
       </c>
@@ -11083,7 +11084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
@@ -11125,11 +11126,11 @@
       <c r="D2" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="94" t="s">
+      <c r="E2" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
       <c r="H2" s="93">
         <v>1000</v>
       </c>
@@ -11259,8 +11260,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AP5"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11562,9 +11563,7 @@
         <v>494</v>
       </c>
       <c r="H3" s="6"/>
-      <c r="P3" s="9" t="s">
-        <v>77</v>
-      </c>
+      <c r="P3" s="9"/>
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
@@ -11846,8 +11845,8 @@
   <sheetPr codeName="Sheet49"/>
   <dimension ref="A1:AT7"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12059,8 +12058,9 @@
       <c r="K2" t="s">
         <v>116</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>77</v>
+      <c r="L2" s="9"/>
+      <c r="M2" t="s">
+        <v>122</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>47</v>
@@ -12148,9 +12148,7 @@
       <c r="AT2" s="6"/>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="L3" s="9" t="s">
-        <v>85</v>
-      </c>
+      <c r="L3" s="9"/>
       <c r="S3" s="6"/>
       <c r="AH3" s="6" t="s">
         <v>124</v>
@@ -12175,9 +12173,7 @@
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="L4" s="9" t="s">
-        <v>86</v>
-      </c>
+      <c r="L4" s="9"/>
       <c r="AG4" s="6" t="s">
         <v>124</v>
       </c>
@@ -12192,9 +12188,7 @@
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="L5" s="9" t="s">
-        <v>88</v>
-      </c>
+      <c r="L5" s="9"/>
       <c r="AG5" s="6"/>
       <c r="AI5" t="s">
         <v>76</v>
@@ -12204,17 +12198,13 @@
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="L6" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="L6" s="9"/>
       <c r="AM6" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="L7" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="L7" s="9"/>
       <c r="AM7" t="s">
         <v>107</v>
       </c>
@@ -12897,11 +12887,11 @@
       <c r="E2" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="F2" s="94" t="s">
+      <c r="F2" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
@@ -12910,11 +12900,11 @@
       <c r="E3" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="F3" s="95" t="s">
+      <c r="F3" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
@@ -12923,11 +12913,11 @@
       <c r="E4" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="F4" s="95" t="s">
+      <c r="F4" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -13378,7 +13368,7 @@
   <dimension ref="A1:AS11"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13701,9 +13691,7 @@
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
-      <c r="S3" s="9" t="s">
-        <v>77</v>
-      </c>
+      <c r="S3" s="9"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
       <c r="AD3" s="6"/>
@@ -15622,7 +15610,7 @@
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16284,10 +16272,14 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -16526,7 +16518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -16519,10 +16519,13 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="91" t="s">

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800" firstSheet="68" activeTab="73"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800" firstSheet="58" activeTab="58"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -12935,8 +12935,8 @@
   <sheetPr codeName="Sheet53"/>
   <dimension ref="A1:BA7"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="AT2" sqref="AT2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16518,8 +16518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800" firstSheet="58" activeTab="58"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800" firstSheet="58" activeTab="62"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3082" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3067" uniqueCount="556">
   <si>
     <t>TestCase</t>
   </si>
@@ -1497,12 +1497,6 @@
     <t>Ethernet VPN Access 1Gb</t>
   </si>
   <si>
-    <t>Virtual Connection1</t>
-  </si>
-  <si>
-    <t>Virtual Connection2</t>
-  </si>
-  <si>
     <t>LEASEDLINE</t>
   </si>
   <si>
@@ -1518,21 +1512,9 @@
     <t>IPLC Node Features</t>
   </si>
   <si>
-    <t>IPLC Features</t>
-  </si>
-  <si>
-    <t>IPLC Service</t>
-  </si>
-  <si>
-    <t>IPLC Charges</t>
-  </si>
-  <si>
     <t>IPLC</t>
   </si>
   <si>
-    <t>VFQA_IPLC</t>
-  </si>
-  <si>
     <t>IPLC VPN Network</t>
   </si>
   <si>
@@ -1762,6 +1744,24 @@
   </si>
   <si>
     <t>Existing</t>
+  </si>
+  <si>
+    <t>VPN Connection 1</t>
+  </si>
+  <si>
+    <t>VPN Connection 2</t>
+  </si>
+  <si>
+    <t>IPLCFeatures</t>
+  </si>
+  <si>
+    <t>IPLCServices</t>
+  </si>
+  <si>
+    <t>IPLC_Charge</t>
+  </si>
+  <si>
+    <t>IPLCSLA</t>
   </si>
 </sst>
 </file>
@@ -2143,7 +2143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2369,10 +2369,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4122,10 +4128,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>123</v>
@@ -4154,7 +4160,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="F2" s="6"/>
       <c r="H2" s="3" t="s">
@@ -4181,7 +4187,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -4483,7 +4489,7 @@
         <v>23</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -5365,7 +5371,7 @@
         <v>91</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -5578,7 +5584,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="81" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B2" s="86"/>
       <c r="C2" s="81" t="s">
@@ -7227,7 +7233,7 @@
         <v>353</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="G1" s="18" t="s">
         <v>126</v>
@@ -7345,15 +7351,15 @@
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
       <c r="F2" s="80" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="H2" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="95" t="s">
+      <c r="I2" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="95"/>
+      <c r="J2" s="96"/>
       <c r="K2" s="53" t="s">
         <v>45</v>
       </c>
@@ -7367,10 +7373,10 @@
       <c r="O2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="Q2" s="95" t="s">
+      <c r="Q2" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="95"/>
+      <c r="R2" s="96"/>
       <c r="U2" s="53" t="s">
         <v>71</v>
       </c>
@@ -7442,7 +7448,7 @@
       <c r="D3" s="53"/>
       <c r="E3" s="53"/>
       <c r="F3" s="80" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="N3" s="55">
         <v>1126194</v>
@@ -7832,7 +7838,7 @@
         <v>353</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="G1" s="18" t="s">
         <v>126</v>
@@ -7948,15 +7954,15 @@
         <v>33</v>
       </c>
       <c r="F2" s="80" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="H2" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="95" t="s">
+      <c r="I2" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="95"/>
+      <c r="J2" s="96"/>
       <c r="K2" s="53" t="s">
         <v>45</v>
       </c>
@@ -7970,10 +7976,10 @@
       <c r="O2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="Q2" s="95" t="s">
+      <c r="Q2" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="95"/>
+      <c r="R2" s="96"/>
       <c r="U2" s="53" t="s">
         <v>71</v>
       </c>
@@ -8043,7 +8049,7 @@
         <v>33</v>
       </c>
       <c r="F3" s="80" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="N3" s="55">
         <v>1126194</v>
@@ -8701,30 +8707,30 @@
         <v>139</v>
       </c>
       <c r="F1" s="17" t="s">
+        <v>489</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>490</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>491</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>493</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="L1" s="17" t="s">
         <v>495</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>496</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>497</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>498</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>499</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>500</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="58" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>32</v>
@@ -8735,15 +8741,15 @@
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
       <c r="K2" s="57" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="L2" s="57" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="58" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>32</v>
@@ -8787,10 +8793,10 @@
         <v>91</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="F1" s="70" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -9157,7 +9163,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9167,13 +9173,13 @@
       <c r="B2" s="24"/>
       <c r="C2" s="51"/>
       <c r="D2" s="25" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>32</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9183,13 +9189,13 @@
       <c r="B3" s="24"/>
       <c r="C3" s="51"/>
       <c r="D3" s="25" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9199,13 +9205,13 @@
       <c r="B4" s="24"/>
       <c r="C4" s="51"/>
       <c r="D4" s="25" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="E4" s="25" t="s">
         <v>32</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9215,13 +9221,13 @@
       <c r="B5" s="24"/>
       <c r="C5" s="51"/>
       <c r="D5" s="25" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -9253,7 +9259,7 @@
         <v>91</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D1" s="46" t="s">
         <v>3</v>
@@ -10093,10 +10099,10 @@
         <v>127</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>126</v>
@@ -10213,7 +10219,7 @@
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="8"/>
@@ -10316,7 +10322,7 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="8"/>
@@ -10389,7 +10395,7 @@
         <v>344</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>340</v>
@@ -10406,10 +10412,10 @@
         <v>337</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F2" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="G2" s="6"/>
     </row>
@@ -10418,10 +10424,10 @@
         <v>338</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F3" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="G3" s="6"/>
     </row>
@@ -10475,10 +10481,10 @@
         <v>337</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="E2" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>343</v>
@@ -10489,10 +10495,10 @@
         <v>338</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="E3" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>343</v>
@@ -10559,10 +10565,10 @@
       </c>
       <c r="D2" s="6"/>
       <c r="E2" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="F2" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -10571,10 +10577,10 @@
       </c>
       <c r="D3" s="6"/>
       <c r="E3" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="F3" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -10668,13 +10674,13 @@
         <v>342</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>341</v>
@@ -10682,10 +10688,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>343</v>
@@ -10726,10 +10732,10 @@
         <v>127</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>126</v>
@@ -10837,18 +10843,18 @@
         <v>29</v>
       </c>
       <c r="AR1" s="18" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="AS1" s="18" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="AT1" s="18" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="93" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B2" s="93" t="s">
         <v>53</v>
@@ -10948,16 +10954,16 @@
         <v>50</v>
       </c>
       <c r="AQ2" s="93" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="AR2" s="93" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="AS2" s="93" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="AT2" s="93" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
@@ -11038,12 +11044,12 @@
         <v>142</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="93" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="D2" s="93" t="s">
         <v>32</v>
@@ -11052,15 +11058,15 @@
         <v>33</v>
       </c>
       <c r="F2" s="93" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="G2" s="93" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="93" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D3" s="93" t="s">
         <v>32</v>
@@ -11069,10 +11075,10 @@
         <v>33</v>
       </c>
       <c r="F3" s="93" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="G3" s="93" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -11113,24 +11119,24 @@
         <v>127</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="93" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="D2" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="95" t="s">
+      <c r="E2" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
       <c r="H2" s="93">
         <v>1000</v>
       </c>
@@ -11325,10 +11331,10 @@
         <v>127</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>126</v>
@@ -11451,7 +11457,7 @@
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="H2" s="6"/>
       <c r="J2" t="s">
@@ -11560,7 +11566,7 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="H3" s="6"/>
       <c r="P3" s="9"/>
@@ -11683,7 +11689,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>32</v>
@@ -11725,12 +11731,12 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>32</v>
@@ -11774,7 +11780,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="73" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B2" s="75"/>
       <c r="C2" s="76" t="s">
@@ -11952,7 +11958,7 @@
         <v>67</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>5</v>
@@ -12069,7 +12075,7 @@
         <v>48</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>117</v>
@@ -12558,7 +12564,7 @@
         <v>136</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>17</v>
@@ -12678,7 +12684,7 @@
         <v>137</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J2" t="s">
         <v>44</v>
@@ -12775,7 +12781,7 @@
       </c>
       <c r="F3" s="6"/>
       <c r="I3" s="6" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="O3" s="9"/>
       <c r="V3" s="3"/>
@@ -12887,11 +12893,11 @@
       <c r="E2" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="F2" s="95" t="s">
+      <c r="F2" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
@@ -12900,11 +12906,11 @@
       <c r="E3" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="F3" s="96" t="s">
+      <c r="F3" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
@@ -12913,11 +12919,11 @@
       <c r="E4" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="F4" s="96" t="s">
+      <c r="F4" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -12935,7 +12941,7 @@
   <sheetPr codeName="Sheet53"/>
   <dimension ref="A1:BA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView topLeftCell="AL1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="AT2" sqref="AT2"/>
     </sheetView>
   </sheetViews>
@@ -13441,10 +13447,10 @@
         <v>437</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>127</v>
@@ -13574,7 +13580,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="6" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -13687,7 +13693,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="6" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -13968,7 +13974,7 @@
         <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="G2" t="s">
         <v>137</v>
@@ -14001,7 +14007,7 @@
         <v>48</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="W2" s="3" t="s">
         <v>35</v>
@@ -14074,19 +14080,19 @@
         <v>121</v>
       </c>
       <c r="AU2" s="42" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="AV2" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="AW2" s="43" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="AX2" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="AY2" s="43" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
@@ -14428,7 +14434,7 @@
         <v>84</v>
       </c>
       <c r="C2" s="90" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G2" s="90" t="s">
         <v>137</v>
@@ -14461,7 +14467,7 @@
         <v>48</v>
       </c>
       <c r="V2" s="92" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="W2" s="92" t="s">
         <v>35</v>
@@ -14534,19 +14540,19 @@
         <v>121</v>
       </c>
       <c r="AU2" s="42" t="s">
+        <v>468</v>
+      </c>
+      <c r="AV2" s="90" t="s">
         <v>470</v>
       </c>
-      <c r="AV2" s="90" t="s">
-        <v>472</v>
-      </c>
       <c r="AW2" s="43" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AX2" s="90" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AY2" s="43" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
@@ -14987,419 +14993,664 @@
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet55"/>
-  <dimension ref="A1:BB7"/>
+  <dimension ref="A1:BC7"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AO5" sqref="AO5"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="46" max="46" width="23.85546875" customWidth="1"/>
-    <col min="47" max="47" width="31.5703125" customWidth="1"/>
-    <col min="48" max="48" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="39.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="22" customWidth="1"/>
+    <col min="4" max="45" width="9.140625" style="22"/>
+    <col min="46" max="46" width="23.85546875" style="22" customWidth="1"/>
+    <col min="47" max="47" width="31.5703125" style="22" customWidth="1"/>
+    <col min="48" max="48" width="11.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="18.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="30.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="27.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="30.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="39.5703125" style="22" customWidth="1"/>
+    <col min="55" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="18" t="s">
         <v>450</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AP1" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ1" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AR1" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AS1" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="AT1" s="40" t="s">
+      <c r="AT1" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="AU1" s="40" t="s">
+      <c r="AU1" s="39" t="s">
         <v>454</v>
       </c>
-      <c r="AV1" s="40" t="s">
+      <c r="AV1" s="39" t="s">
         <v>455</v>
       </c>
-      <c r="AW1" s="40" t="s">
-        <v>467</v>
-      </c>
-      <c r="AX1" s="40" t="s">
-        <v>468</v>
-      </c>
-      <c r="AY1" s="40" t="s">
+      <c r="AW1" s="39" t="s">
+        <v>550</v>
+      </c>
+      <c r="AX1" s="39" t="s">
+        <v>551</v>
+      </c>
+      <c r="AY1" s="39" t="s">
+        <v>471</v>
+      </c>
+      <c r="AZ1" s="39" t="s">
+        <v>552</v>
+      </c>
+      <c r="BA1" s="39" t="s">
+        <v>553</v>
+      </c>
+      <c r="BB1" s="39" t="s">
+        <v>554</v>
+      </c>
+      <c r="BC1" s="98" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="95" t="s">
+        <v>472</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="96"/>
+      <c r="I2" s="95" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="95" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" s="95" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" s="55">
+        <v>98766</v>
+      </c>
+      <c r="M2" s="55">
+        <v>98663499921</v>
+      </c>
+      <c r="N2" s="55">
+        <v>1126192</v>
+      </c>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2" s="95">
+        <v>12345</v>
+      </c>
+      <c r="S2" s="95">
+        <v>51232</v>
+      </c>
+      <c r="T2"/>
+      <c r="U2" s="95" t="s">
+        <v>460</v>
+      </c>
+      <c r="V2" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y2" s="95">
+        <v>12181980</v>
+      </c>
+      <c r="Z2" s="95">
+        <v>12142020</v>
+      </c>
+      <c r="AA2" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB2" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="95">
+        <v>97498098089</v>
+      </c>
+      <c r="AD2" s="95" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE2" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF2" s="95" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG2" s="95">
+        <v>12345</v>
+      </c>
+      <c r="AH2" s="95">
+        <v>51232</v>
+      </c>
+      <c r="AI2"/>
+      <c r="AJ2" s="95" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK2" s="95" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL2" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM2" s="95" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN2" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO2" s="95" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP2" s="95" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ2" s="95" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR2" s="95" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS2" s="95">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="23" t="s">
         <v>473</v>
       </c>
-      <c r="AZ1" s="40" t="s">
+      <c r="AU2" s="25" t="s">
         <v>474</v>
       </c>
-      <c r="BA1" s="40" t="s">
+      <c r="AV2" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="AW2" s="25" t="s">
         <v>475</v>
       </c>
-      <c r="BB1" s="40" t="s">
+      <c r="AX2" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="AY2" s="25" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="AZ2" s="25" t="s">
         <v>477</v>
       </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K2" t="s">
-        <v>116</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" s="3" t="s">
+      <c r="BA2" s="25" t="s">
         <v>478</v>
       </c>
-      <c r="V2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" t="s">
+      <c r="BB2" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="BC2"/>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3" s="95" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ3" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AK3" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AL3" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AM3" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AN3" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="AO2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AS2" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT2" s="43" t="s">
-        <v>479</v>
-      </c>
-      <c r="AU2" s="43" t="s">
-        <v>480</v>
-      </c>
-      <c r="AV2" s="43" t="s">
-        <v>480</v>
-      </c>
-      <c r="AW2" s="43" t="s">
-        <v>481</v>
-      </c>
-      <c r="AX2" s="43" t="s">
-        <v>481</v>
-      </c>
-      <c r="AY2" s="43" t="s">
-        <v>482</v>
-      </c>
-      <c r="AZ2" s="43" t="s">
-        <v>483</v>
-      </c>
-      <c r="BA2" s="43" t="s">
-        <v>484</v>
-      </c>
-      <c r="BB2" s="43" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="L3" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="AI3" s="6" t="s">
+      <c r="AO3" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP3"/>
+      <c r="AQ3"/>
+      <c r="AR3"/>
+      <c r="AS3"/>
+      <c r="AT3"/>
+      <c r="AU3"/>
+      <c r="AV3"/>
+      <c r="AW3"/>
+      <c r="AX3"/>
+      <c r="AY3"/>
+      <c r="AZ3"/>
+      <c r="BA3"/>
+      <c r="BB3"/>
+      <c r="BC3"/>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4" s="95" t="s">
         <v>124</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="L4" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="AI4" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK4" t="s">
+      <c r="AJ4"/>
+      <c r="AK4" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AL4" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AM4"/>
+      <c r="AN4"/>
+      <c r="AO4" s="95" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="L5" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="AI5" s="6"/>
-      <c r="AK5" t="s">
+      <c r="AP4"/>
+      <c r="AQ4"/>
+      <c r="AR4"/>
+      <c r="AS4"/>
+      <c r="AT4"/>
+      <c r="AU4"/>
+      <c r="AV4"/>
+      <c r="AW4"/>
+      <c r="AX4"/>
+      <c r="AY4"/>
+      <c r="AZ4"/>
+      <c r="BA4"/>
+      <c r="BB4"/>
+      <c r="BC4"/>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+      <c r="AJ5"/>
+      <c r="AK5" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AL5" s="97"/>
+      <c r="AM5"/>
+      <c r="AN5"/>
+      <c r="AO5" s="95" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="L6" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="AO6" t="s">
+      <c r="AP5"/>
+      <c r="AQ5"/>
+      <c r="AR5"/>
+      <c r="AS5"/>
+      <c r="AT5"/>
+      <c r="AU5"/>
+      <c r="AV5"/>
+      <c r="AW5"/>
+      <c r="AX5"/>
+      <c r="AY5"/>
+      <c r="AZ5"/>
+      <c r="BA5"/>
+      <c r="BB5"/>
+      <c r="BC5"/>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+      <c r="AK6"/>
+      <c r="AL6"/>
+      <c r="AM6"/>
+      <c r="AN6"/>
+      <c r="AO6" s="95" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="L7" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="AO7" t="s">
+      <c r="AP6"/>
+      <c r="AQ6"/>
+      <c r="AR6"/>
+      <c r="AS6"/>
+      <c r="AT6"/>
+      <c r="AU6"/>
+      <c r="AV6"/>
+      <c r="AW6"/>
+      <c r="AX6"/>
+      <c r="AY6"/>
+      <c r="AZ6"/>
+      <c r="BA6"/>
+      <c r="BB6"/>
+      <c r="BC6"/>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AJ7"/>
+      <c r="AK7"/>
+      <c r="AL7"/>
+      <c r="AM7"/>
+      <c r="AN7"/>
+      <c r="AO7" s="97" t="s">
         <v>107</v>
       </c>
+      <c r="AP7" s="97"/>
+      <c r="AQ7" s="97"/>
+      <c r="AR7"/>
+      <c r="AS7"/>
+      <c r="AT7"/>
+      <c r="AU7"/>
+      <c r="AV7"/>
+      <c r="AW7"/>
+      <c r="AX7"/>
+      <c r="AY7"/>
+      <c r="AZ7"/>
+      <c r="BA7"/>
+      <c r="BB7"/>
+      <c r="BC7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V2">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-  </conditionalFormatting>
+  <mergeCells count="3">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AO7:AQ7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15727,7 +15978,7 @@
         <v>54</v>
       </c>
       <c r="D2" s="63" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="E2" s="63" t="s">
         <v>33</v>
@@ -15841,7 +16092,7 @@
         <v>126</v>
       </c>
       <c r="H1" s="61" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="I1" s="61" t="s">
         <v>136</v>
@@ -15962,7 +16213,7 @@
       <c r="F2" s="62"/>
       <c r="G2" s="62"/>
       <c r="H2" s="68" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I2" s="62" t="s">
         <v>137</v>
@@ -16069,7 +16320,7 @@
       <c r="F3" s="62"/>
       <c r="G3" s="62"/>
       <c r="H3" s="68" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I3" s="62"/>
       <c r="J3" s="62"/>
@@ -16149,7 +16400,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="81" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B2" s="86"/>
       <c r="C2" s="86"/>
@@ -16194,32 +16445,32 @@
         <v>342</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B2" s="77" t="s">
         <v>32</v>
       </c>
       <c r="E2" s="77" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="78" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B3" s="77" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="77" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -16252,7 +16503,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>32</v>
@@ -16374,7 +16625,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>32</v>
@@ -16409,7 +16660,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>32</v>
@@ -16446,7 +16697,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="89" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B2" s="87"/>
       <c r="C2" s="89" t="s">
@@ -16487,7 +16738,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="92" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B2" s="90"/>
       <c r="C2" s="92" t="s">
@@ -16499,7 +16750,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="90" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B3" s="90"/>
       <c r="C3" s="92" t="s">
@@ -16543,7 +16794,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="92" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B2" s="90"/>
       <c r="C2" s="92" t="s">
@@ -16555,7 +16806,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="90" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B3" s="90"/>
       <c r="C3" s="92" t="s">
@@ -16596,7 +16847,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="92" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B2" s="90"/>
       <c r="C2" s="92" t="s">
@@ -16608,7 +16859,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="90" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B3" s="90"/>
       <c r="C3" s="92" t="s">
@@ -16728,7 +16979,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>32</v>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800" firstSheet="58" activeTab="62"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
   <definedNames>
     <definedName name="UseCase">[1]LOV!$A$2:$A$25</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1767,7 +1767,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2372,60 +2372,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="66">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="62">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3839,16 +3799,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2">
-    <cfRule type="duplicateValues" dxfId="65" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="duplicateValues" dxfId="63" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="duplicateValues" dxfId="61" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4650,12 +4610,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2">
-    <cfRule type="duplicateValues" dxfId="47" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4901,7 +4861,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
@@ -7155,12 +7115,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2">
-    <cfRule type="duplicateValues" dxfId="43" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7356,10 +7316,10 @@
       <c r="H2" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="96" t="s">
+      <c r="I2" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="96"/>
+      <c r="J2" s="97"/>
       <c r="K2" s="53" t="s">
         <v>45</v>
       </c>
@@ -7373,10 +7333,10 @@
       <c r="O2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="Q2" s="96" t="s">
+      <c r="Q2" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="96"/>
+      <c r="R2" s="97"/>
       <c r="U2" s="53" t="s">
         <v>71</v>
       </c>
@@ -7760,12 +7720,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2">
-    <cfRule type="duplicateValues" dxfId="39" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7959,10 +7919,10 @@
       <c r="H2" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="96" t="s">
+      <c r="I2" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="96"/>
+      <c r="J2" s="97"/>
       <c r="K2" s="53" t="s">
         <v>45</v>
       </c>
@@ -7976,10 +7936,10 @@
       <c r="O2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="Q2" s="96" t="s">
+      <c r="Q2" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="96"/>
+      <c r="R2" s="97"/>
       <c r="U2" s="53" t="s">
         <v>71</v>
       </c>
@@ -10034,8 +9994,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AN5"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10358,12 +10318,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:L1">
-    <cfRule type="duplicateValues" dxfId="59" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X3">
-    <cfRule type="duplicateValues" dxfId="57" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11132,11 +11092,11 @@
       <c r="D2" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="96" t="s">
+      <c r="E2" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
       <c r="H2" s="93">
         <v>1000</v>
       </c>
@@ -11266,8 +11226,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AP5"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11604,12 +11564,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:L1">
-    <cfRule type="duplicateValues" dxfId="55" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X3">
-    <cfRule type="duplicateValues" dxfId="53" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12217,12 +12177,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="35" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2">
-    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12516,12 +12476,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2">
-    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12812,12 +12772,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:W3">
-    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12893,11 +12853,11 @@
       <c r="E2" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="F2" s="96" t="s">
+      <c r="F2" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
@@ -12906,11 +12866,11 @@
       <c r="E3" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="F3" s="97" t="s">
+      <c r="F3" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
@@ -12919,11 +12879,11 @@
       <c r="E4" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="F4" s="97" t="s">
+      <c r="F4" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -13356,12 +13316,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13373,7 +13333,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AS11"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
@@ -13762,12 +13722,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N1:O1">
-    <cfRule type="duplicateValues" dxfId="51" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AA3">
-    <cfRule type="duplicateValues" dxfId="49" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14214,16 +14174,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:I1">
-    <cfRule type="duplicateValues" dxfId="19" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2">
-    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:G14">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14674,16 +14634,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:I1">
-    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2">
-    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:G14">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14979,12 +14939,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14995,7 +14955,7 @@
   <sheetPr codeName="Sheet55"/>
   <dimension ref="A1:BC7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+    <sheetView topLeftCell="AV1" workbookViewId="0">
       <selection activeCell="L3" sqref="L3:L7"/>
     </sheetView>
   </sheetViews>
@@ -15179,7 +15139,7 @@
       <c r="BB1" s="39" t="s">
         <v>554</v>
       </c>
-      <c r="BC1" s="98" t="s">
+      <c r="BC1" s="96" t="s">
         <v>555</v>
       </c>
     </row>
@@ -15196,10 +15156,10 @@
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
-      <c r="G2" s="96" t="s">
+      <c r="G2" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="96"/>
+      <c r="H2" s="97"/>
       <c r="I2" s="95" t="s">
         <v>45</v>
       </c>
@@ -15503,10 +15463,10 @@
       <c r="AH5"/>
       <c r="AI5"/>
       <c r="AJ5"/>
-      <c r="AK5" s="97" t="s">
+      <c r="AK5" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="AL5" s="97"/>
+      <c r="AL5" s="98"/>
       <c r="AM5"/>
       <c r="AN5"/>
       <c r="AO5" s="95" t="s">
@@ -15627,11 +15587,11 @@
       <c r="AL7"/>
       <c r="AM7"/>
       <c r="AN7"/>
-      <c r="AO7" s="97" t="s">
+      <c r="AO7" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="AP7" s="97"/>
-      <c r="AQ7" s="97"/>
+      <c r="AP7" s="98"/>
+      <c r="AQ7" s="98"/>
       <c r="AR7"/>
       <c r="AS7"/>
       <c r="AT7"/>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800" firstSheet="26" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3067" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3061" uniqueCount="556">
   <si>
     <t>TestCase</t>
   </si>
@@ -3465,7 +3465,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AA21" sqref="AA21"/>
     </sheetView>
   </sheetViews>
@@ -4066,7 +4066,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4119,9 +4119,7 @@
       <c r="D2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>488</v>
-      </c>
+      <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="H2" s="3" t="s">
         <v>55</v>
@@ -4146,9 +4144,7 @@
       <c r="D3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>488</v>
-      </c>
+      <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" t="s">
@@ -4331,7 +4327,7 @@
   <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4862,7 +4858,7 @@
   <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5223,6 +5219,9 @@
       <c r="U4" t="s">
         <v>45</v>
       </c>
+      <c r="V4" s="92" t="s">
+        <v>122</v>
+      </c>
       <c r="W4" t="s">
         <v>46</v>
       </c>
@@ -7132,7 +7131,7 @@
   <dimension ref="A1:AN3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7407,9 +7406,7 @@
       </c>
       <c r="D3" s="53"/>
       <c r="E3" s="53"/>
-      <c r="F3" s="80" t="s">
-        <v>488</v>
-      </c>
+      <c r="F3" s="80"/>
       <c r="N3" s="55">
         <v>1126194</v>
       </c>
@@ -7448,7 +7445,7 @@
   <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7737,7 +7734,7 @@
   <dimension ref="A1:AN3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8008,9 +8005,7 @@
       <c r="C3" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="80" t="s">
-        <v>488</v>
-      </c>
+      <c r="F3" s="80"/>
       <c r="N3" s="55">
         <v>1126194</v>
       </c>
@@ -8048,7 +8043,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="AB6" sqref="AB6:AD7"/>
     </sheetView>
   </sheetViews>
@@ -8630,8 +8625,8 @@
   <sheetPr codeName="Sheet29"/>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9995,7 +9990,7 @@
   <dimension ref="A1:AN5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10281,9 +10276,7 @@
         <v>33</v>
       </c>
       <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
-        <v>488</v>
-      </c>
+      <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="8"/>
       <c r="K3" s="8"/>
@@ -11226,8 +11219,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AP5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11525,9 +11518,7 @@
         <v>33</v>
       </c>
       <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
-        <v>488</v>
-      </c>
+      <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="P3" s="9"/>
       <c r="T3" s="6"/>
@@ -13334,7 +13325,7 @@
   <dimension ref="A1:AS11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13652,9 +13643,7 @@
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="6" t="s">
-        <v>488</v>
-      </c>
+      <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="S3" s="9"/>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800" firstSheet="26" activeTab="30"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800" firstSheet="68" activeTab="71"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -78,13 +78,14 @@
     <sheet name="Mcare_Post_ProdActivation" sheetId="69" r:id="rId69"/>
     <sheet name="Mcare_Post_ProdDeActivation" sheetId="70" r:id="rId70"/>
     <sheet name="Mcare_Cookies" sheetId="71" r:id="rId71"/>
-    <sheet name="Get_PUK" sheetId="77" r:id="rId72"/>
-    <sheet name="Adjustments_BillingProfile" sheetId="78" r:id="rId73"/>
-    <sheet name="Adjustments_Bill" sheetId="79" r:id="rId74"/>
-    <sheet name="Adjustments_Item" sheetId="80" r:id="rId75"/>
+    <sheet name="Mcare_BillPayments" sheetId="86" r:id="rId72"/>
+    <sheet name="Get_PUK" sheetId="77" r:id="rId73"/>
+    <sheet name="Adjustments_BillingProfile" sheetId="78" r:id="rId74"/>
+    <sheet name="Adjustments_Bill" sheetId="79" r:id="rId75"/>
+    <sheet name="Adjustments_Item" sheetId="80" r:id="rId76"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId76"/>
+    <externalReference r:id="rId77"/>
   </externalReferences>
   <definedNames>
     <definedName name="UseCase">[1]LOV!$A$2:$A$25</definedName>
@@ -94,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3061" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3067" uniqueCount="558">
   <si>
     <t>TestCase</t>
   </si>
@@ -1762,6 +1763,12 @@
   </si>
   <si>
     <t>IPLCSLA</t>
+  </si>
+  <si>
+    <t>Payment_Self</t>
+  </si>
+  <si>
+    <t>Payment_Others</t>
   </si>
 </sst>
 </file>
@@ -2143,7 +2150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2379,6 +2386,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8625,7 +8635,7 @@
   <sheetPr codeName="Sheet29"/>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -8726,7 +8736,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16434,7 +16444,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16556,7 +16566,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16622,6 +16632,49 @@
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="99" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
+        <v>556</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="75" t="s">
+        <v>557</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16661,7 +16714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -16714,7 +16767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -16770,7 +16823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800" firstSheet="68" activeTab="71"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800" firstSheet="19" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -27,75 +27,76 @@
     <sheet name="UnBarring" sheetId="16" r:id="rId18"/>
     <sheet name="Change_PrimaryNumber" sheetId="11" r:id="rId19"/>
     <sheet name="ModifySmartLimit" sheetId="20" r:id="rId20"/>
-    <sheet name="Discounts" sheetId="24" r:id="rId21"/>
-    <sheet name="Disconnection" sheetId="22" r:id="rId22"/>
-    <sheet name="FL_Disconnect" sheetId="75" r:id="rId23"/>
-    <sheet name="BillPayment" sheetId="21" r:id="rId24"/>
-    <sheet name="TroubleTicket" sheetId="23" r:id="rId25"/>
-    <sheet name="TransferOfOwnership_C2C" sheetId="33" r:id="rId26"/>
-    <sheet name="TransferOfOwnership_C2E" sheetId="52" r:id="rId27"/>
-    <sheet name="TransferOfOwnership_E2C" sheetId="53" r:id="rId28"/>
-    <sheet name="TransferOfOwnership_E2E" sheetId="51" r:id="rId29"/>
-    <sheet name="LanguageChange" sheetId="54" r:id="rId30"/>
-    <sheet name="Activities" sheetId="55" r:id="rId31"/>
-    <sheet name="CreditLimit" sheetId="59" r:id="rId32"/>
-    <sheet name="ConsumerPostpaid_GuidedJourney" sheetId="32" r:id="rId33"/>
-    <sheet name="SIMSwap_Guided_Journey" sheetId="27" r:id="rId34"/>
-    <sheet name="SIMSwap_Global_Search" sheetId="28" r:id="rId35"/>
-    <sheet name="ModifySmartLimit_Acc360" sheetId="49" r:id="rId36"/>
-    <sheet name="UpgradePromotion_Acc360" sheetId="34" r:id="rId37"/>
-    <sheet name="Account360view" sheetId="35" r:id="rId38"/>
-    <sheet name="OpenUI_AccesRrights_6Segments" sheetId="36" r:id="rId39"/>
-    <sheet name="BillGeneration_BillingProfile" sheetId="72" r:id="rId40"/>
-    <sheet name="BillGeneration_AccountLevel" sheetId="25" r:id="rId41"/>
-    <sheet name="InvoiceToPDF_Generation" sheetId="39" r:id="rId42"/>
-    <sheet name="DunningProcess" sheetId="41" r:id="rId43"/>
-    <sheet name="Trial_BillRun" sheetId="68" r:id="rId44"/>
-    <sheet name="SharedBundleProvisioning" sheetId="82" r:id="rId45"/>
-    <sheet name="SharedBundleDisconnection" sheetId="83" r:id="rId46"/>
-    <sheet name="OrderReplication" sheetId="84" r:id="rId47"/>
-    <sheet name="DunningAction" sheetId="42" r:id="rId48"/>
-    <sheet name="CollectionExit" sheetId="43" r:id="rId49"/>
-    <sheet name="LocalCall" sheetId="40" r:id="rId50"/>
-    <sheet name="Prepaid_Happy_Offers_USSD" sheetId="63" r:id="rId51"/>
-    <sheet name="BillPayment_USSD" sheetId="64" r:id="rId52"/>
-    <sheet name="BillEnquiry_USSD" sheetId="65" r:id="rId53"/>
-    <sheet name="Postpaid_USSD_Act-DeAct" sheetId="45" r:id="rId54"/>
-    <sheet name="SIPT" sheetId="14" r:id="rId55"/>
-    <sheet name="ConsumerFixedLine_Provision" sheetId="30" r:id="rId56"/>
-    <sheet name="EnterpriseFixedLine_Provision" sheetId="31" r:id="rId57"/>
-    <sheet name="FL_ONT_CPE_Replacement" sheetId="44" r:id="rId58"/>
-    <sheet name="ETHERNET" sheetId="46" r:id="rId59"/>
-    <sheet name="MPLS" sheetId="73" r:id="rId60"/>
-    <sheet name="LEASEDLINE" sheetId="47" r:id="rId61"/>
-    <sheet name="HomeMove" sheetId="81" r:id="rId62"/>
-    <sheet name="IPLC" sheetId="48" r:id="rId63"/>
-    <sheet name="PearlMobile_Provisioning" sheetId="56" r:id="rId64"/>
-    <sheet name="PearlData_Provisioning" sheetId="57" r:id="rId65"/>
-    <sheet name="DAPN_Provisioning" sheetId="58" r:id="rId66"/>
-    <sheet name="UpgradePromotion_DAPN" sheetId="76" r:id="rId67"/>
-    <sheet name="Cancel_Order" sheetId="67" r:id="rId68"/>
-    <sheet name="Mcare_Post_ProdActivation" sheetId="69" r:id="rId69"/>
-    <sheet name="Mcare_Post_ProdDeActivation" sheetId="70" r:id="rId70"/>
-    <sheet name="Mcare_Cookies" sheetId="71" r:id="rId71"/>
-    <sheet name="Mcare_BillPayments" sheetId="86" r:id="rId72"/>
-    <sheet name="Get_PUK" sheetId="77" r:id="rId73"/>
-    <sheet name="Adjustments_BillingProfile" sheetId="78" r:id="rId74"/>
-    <sheet name="Adjustments_Bill" sheetId="79" r:id="rId75"/>
-    <sheet name="Adjustments_Item" sheetId="80" r:id="rId76"/>
+    <sheet name="ModifySpendlimit" sheetId="87" r:id="rId21"/>
+    <sheet name="Discounts" sheetId="24" r:id="rId22"/>
+    <sheet name="Disconnection" sheetId="22" r:id="rId23"/>
+    <sheet name="FL_Disconnect" sheetId="75" r:id="rId24"/>
+    <sheet name="BillPayment" sheetId="21" r:id="rId25"/>
+    <sheet name="TroubleTicket" sheetId="23" r:id="rId26"/>
+    <sheet name="TransferOfOwnership_C2C" sheetId="33" r:id="rId27"/>
+    <sheet name="TransferOfOwnership_C2E" sheetId="52" r:id="rId28"/>
+    <sheet name="TransferOfOwnership_E2C" sheetId="53" r:id="rId29"/>
+    <sheet name="TransferOfOwnership_E2E" sheetId="51" r:id="rId30"/>
+    <sheet name="LanguageChange" sheetId="54" r:id="rId31"/>
+    <sheet name="Activities" sheetId="55" r:id="rId32"/>
+    <sheet name="CreditLimit" sheetId="59" r:id="rId33"/>
+    <sheet name="ConsumerPostpaid_GuidedJourney" sheetId="32" r:id="rId34"/>
+    <sheet name="SIMSwap_Guided_Journey" sheetId="27" r:id="rId35"/>
+    <sheet name="SIMSwap_Global_Search" sheetId="28" r:id="rId36"/>
+    <sheet name="ModifySmartLimit_Acc360" sheetId="49" r:id="rId37"/>
+    <sheet name="UpgradePromotion_Acc360" sheetId="34" r:id="rId38"/>
+    <sheet name="Account360view" sheetId="35" r:id="rId39"/>
+    <sheet name="OpenUI_AccesRrights_6Segments" sheetId="36" r:id="rId40"/>
+    <sheet name="BillGeneration_BillingProfile" sheetId="72" r:id="rId41"/>
+    <sheet name="BillGeneration_AccountLevel" sheetId="25" r:id="rId42"/>
+    <sheet name="InvoiceToPDF_Generation" sheetId="39" r:id="rId43"/>
+    <sheet name="DunningProcess" sheetId="41" r:id="rId44"/>
+    <sheet name="Trial_BillRun" sheetId="68" r:id="rId45"/>
+    <sheet name="SharedBundleProvisioning" sheetId="82" r:id="rId46"/>
+    <sheet name="SharedBundleDisconnection" sheetId="83" r:id="rId47"/>
+    <sheet name="OrderReplication" sheetId="84" r:id="rId48"/>
+    <sheet name="DunningAction" sheetId="42" r:id="rId49"/>
+    <sheet name="CollectionExit" sheetId="43" r:id="rId50"/>
+    <sheet name="LocalCall" sheetId="40" r:id="rId51"/>
+    <sheet name="Prepaid_Happy_Offers_USSD" sheetId="63" r:id="rId52"/>
+    <sheet name="BillPayment_USSD" sheetId="64" r:id="rId53"/>
+    <sheet name="BillEnquiry_USSD" sheetId="65" r:id="rId54"/>
+    <sheet name="Postpaid_USSD_Act-DeAct" sheetId="45" r:id="rId55"/>
+    <sheet name="SIPT" sheetId="14" r:id="rId56"/>
+    <sheet name="ConsumerFixedLine_Provision" sheetId="30" r:id="rId57"/>
+    <sheet name="EnterpriseFixedLine_Provision" sheetId="31" r:id="rId58"/>
+    <sheet name="FL_ONT_CPE_Replacement" sheetId="44" r:id="rId59"/>
+    <sheet name="ETHERNET" sheetId="46" r:id="rId60"/>
+    <sheet name="MPLS" sheetId="73" r:id="rId61"/>
+    <sheet name="LEASEDLINE" sheetId="47" r:id="rId62"/>
+    <sheet name="HomeMove" sheetId="81" r:id="rId63"/>
+    <sheet name="IPLC" sheetId="48" r:id="rId64"/>
+    <sheet name="PearlMobile_Provisioning" sheetId="56" r:id="rId65"/>
+    <sheet name="PearlData_Provisioning" sheetId="57" r:id="rId66"/>
+    <sheet name="DAPN_Provisioning" sheetId="58" r:id="rId67"/>
+    <sheet name="UpgradePromotion_DAPN" sheetId="76" r:id="rId68"/>
+    <sheet name="Cancel_Order" sheetId="67" r:id="rId69"/>
+    <sheet name="Mcare_Post_ProdActivation" sheetId="69" r:id="rId70"/>
+    <sheet name="Mcare_Post_ProdDeActivation" sheetId="70" r:id="rId71"/>
+    <sheet name="Mcare_Cookies" sheetId="71" r:id="rId72"/>
+    <sheet name="Mcare_BillPayments" sheetId="86" r:id="rId73"/>
+    <sheet name="Get_PUK" sheetId="77" r:id="rId74"/>
+    <sheet name="Adjustments_BillingProfile" sheetId="78" r:id="rId75"/>
+    <sheet name="Adjustments_Bill" sheetId="79" r:id="rId76"/>
+    <sheet name="Adjustments_Item" sheetId="80" r:id="rId77"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId77"/>
+    <externalReference r:id="rId78"/>
   </externalReferences>
   <definedNames>
     <definedName name="UseCase">[1]LOV!$A$2:$A$25</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3067" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3075" uniqueCount="558">
   <si>
     <t>TestCase</t>
   </si>
@@ -1774,7 +1775,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2382,13 +2383,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5323,7 +5324,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5366,6 +5367,55 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" style="90" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="90"/>
+    <col min="3" max="3" width="15.28515625" style="90" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="90"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="92" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:G3"/>
@@ -5429,7 +5479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:E5"/>
@@ -5524,7 +5574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -5572,7 +5622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:F2"/>
@@ -5621,7 +5671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:I205"/>
@@ -6860,7 +6910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet24"/>
   <dimension ref="A1:AB4"/>
@@ -7135,7 +7185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:AN3"/>
@@ -7325,10 +7375,10 @@
       <c r="H2" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="97" t="s">
+      <c r="I2" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="97"/>
+      <c r="J2" s="98"/>
       <c r="K2" s="53" t="s">
         <v>45</v>
       </c>
@@ -7342,10 +7392,10 @@
       <c r="O2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="Q2" s="97" t="s">
+      <c r="Q2" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="97"/>
+      <c r="R2" s="98"/>
       <c r="U2" s="53" t="s">
         <v>71</v>
       </c>
@@ -7449,7 +7499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet26"/>
   <dimension ref="A1:AB4"/>
@@ -7738,7 +7788,537 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:AJ11"/>
+  <sheetViews>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AB6" sqref="AB6:AD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2"/>
+      <c r="X2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="I4" s="6"/>
+      <c r="J4"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AG4"/>
+      <c r="AI4"/>
+    </row>
+    <row r="5" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="I5" s="6"/>
+      <c r="J5"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AG5"/>
+      <c r="AI5"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="K6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y6" s="3"/>
+      <c r="Z6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD6" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ6" s="3"/>
+    </row>
+    <row r="7" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7"/>
+      <c r="K7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W7"/>
+      <c r="X7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD7" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:AN3"/>
@@ -7926,10 +8506,10 @@
       <c r="H2" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="97" t="s">
+      <c r="I2" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="97"/>
+      <c r="J2" s="98"/>
       <c r="K2" s="53" t="s">
         <v>45</v>
       </c>
@@ -7943,10 +8523,10 @@
       <c r="O2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="Q2" s="97" t="s">
+      <c r="Q2" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="97"/>
+      <c r="R2" s="98"/>
       <c r="U2" s="53" t="s">
         <v>71</v>
       </c>
@@ -8048,537 +8628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ11"/>
-  <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AB6" sqref="AB6:AD7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="W2"/>
-      <c r="X2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z2"/>
-      <c r="AA2"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="I4" s="6"/>
-      <c r="J4"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AG4"/>
-      <c r="AI4"/>
-    </row>
-    <row r="5" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="I5" s="6"/>
-      <c r="J5"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AG5"/>
-      <c r="AI5"/>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="K6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="X6" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y6" s="3"/>
-      <c r="Z6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD6" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ6" s="3"/>
-    </row>
-    <row r="7" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7"/>
-      <c r="B7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7"/>
-      <c r="K7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="W7"/>
-      <c r="X7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD7" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:E2"/>
@@ -8630,7 +8680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet29"/>
   <dimension ref="A1:L3"/>
@@ -8730,7 +8780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet30"/>
   <dimension ref="A1:F2"/>
@@ -8780,7 +8830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:AD3"/>
@@ -9021,7 +9071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet32"/>
   <dimension ref="A1:D5"/>
@@ -9095,7 +9145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet33"/>
   <dimension ref="A1:F5"/>
@@ -9200,7 +9250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet34"/>
   <dimension ref="A1:D2"/>
@@ -9245,7 +9295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet35"/>
   <dimension ref="A1:E5"/>
@@ -9337,7 +9387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet36"/>
   <dimension ref="A1:E5"/>
@@ -9423,571 +9473,6 @@
       <c r="E5" s="25" t="s">
         <v>33</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet37"/>
-  <dimension ref="A1:AB18"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="51.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="46.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="62.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="26" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>418</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>420</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>421</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>422</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>423</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>424</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>425</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>428</v>
-      </c>
-      <c r="S1" s="18" t="s">
-        <v>377</v>
-      </c>
-      <c r="T1" s="18" t="s">
-        <v>429</v>
-      </c>
-      <c r="U1" s="18" t="s">
-        <v>430</v>
-      </c>
-      <c r="V1" s="18" t="s">
-        <v>431</v>
-      </c>
-      <c r="W1" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="X1" s="18" t="s">
-        <v>432</v>
-      </c>
-      <c r="Y1" s="18" t="s">
-        <v>433</v>
-      </c>
-      <c r="Z1" s="18" t="s">
-        <v>434</v>
-      </c>
-      <c r="AA1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB1" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>379</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>380</v>
-      </c>
-      <c r="D3" t="s">
-        <v>390</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="L3" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="P3" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="T3" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="X3" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB3" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>381</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB4" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>382</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB5" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>383</v>
-      </c>
-      <c r="E6" t="s">
-        <v>389</v>
-      </c>
-      <c r="I6" t="s">
-        <v>392</v>
-      </c>
-      <c r="M6" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>397</v>
-      </c>
-      <c r="U6" t="s">
-        <v>399</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>401</v>
-      </c>
-      <c r="AA6" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB6" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>384</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="AA7" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB7" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>385</v>
-      </c>
-      <c r="D8" t="s">
-        <v>390</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="L8" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="P8" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="T8" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="X8" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB8" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>386</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>387</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>388</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-    </row>
-    <row r="11" spans="1:28" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="30">
-        <v>97470899087</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>389</v>
-      </c>
-      <c r="E11" s="31">
-        <v>8959436734</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>390</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>391</v>
-      </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-    </row>
-    <row r="12" spans="1:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="30">
-        <v>97489755046</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>392</v>
-      </c>
-      <c r="E12" s="31">
-        <v>5637448925</v>
-      </c>
-      <c r="F12" s="31">
-        <v>99900007765</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>393</v>
-      </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-    </row>
-    <row r="13" spans="1:28" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="30">
-        <v>97489756692</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>394</v>
-      </c>
-      <c r="E13" s="31">
-        <v>7321895097</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>395</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>396</v>
-      </c>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-    </row>
-    <row r="14" spans="1:28" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="30">
-        <v>97478151045</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>397</v>
-      </c>
-      <c r="E14" s="31">
-        <v>7779562981</v>
-      </c>
-      <c r="F14" s="31">
-        <v>23457</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>398</v>
-      </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-    </row>
-    <row r="15" spans="1:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="30">
-        <v>97478152922</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>399</v>
-      </c>
-      <c r="E15" s="31">
-        <v>9811140835</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>400</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-    </row>
-    <row r="16" spans="1:28" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="30">
-        <v>97478151043</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>401</v>
-      </c>
-      <c r="E16" s="31">
-        <v>7769191001</v>
-      </c>
-      <c r="F16" s="31">
-        <v>454345</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>363</v>
-      </c>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10334,6 +9819,571 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet37"/>
+  <dimension ref="A1:AB18"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="62.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="X1" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="AA1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB2" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="D3" t="s">
+        <v>390</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="L3" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="P3" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="T3" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="X3" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB3" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB4" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB5" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="E6" t="s">
+        <v>389</v>
+      </c>
+      <c r="I6" t="s">
+        <v>392</v>
+      </c>
+      <c r="M6" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>397</v>
+      </c>
+      <c r="U6" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>401</v>
+      </c>
+      <c r="AA6" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB6" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="AA7" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB7" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="D8" t="s">
+        <v>390</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="P8" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="T8" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="X8" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB8" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+    </row>
+    <row r="11" spans="1:28" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="30">
+        <v>97470899087</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>389</v>
+      </c>
+      <c r="E11" s="31">
+        <v>8959436734</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>391</v>
+      </c>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+    </row>
+    <row r="12" spans="1:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="30">
+        <v>97489755046</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="E12" s="31">
+        <v>5637448925</v>
+      </c>
+      <c r="F12" s="31">
+        <v>99900007765</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+    </row>
+    <row r="13" spans="1:28" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="30">
+        <v>97489756692</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="E13" s="31">
+        <v>7321895097</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>396</v>
+      </c>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+    </row>
+    <row r="14" spans="1:28" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="30">
+        <v>97478151045</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="E14" s="31">
+        <v>7779562981</v>
+      </c>
+      <c r="F14" s="31">
+        <v>23457</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+    </row>
+    <row r="15" spans="1:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="30">
+        <v>97478152922</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="E15" s="31">
+        <v>9811140835</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+    </row>
+    <row r="16" spans="1:28" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="30">
+        <v>97478151043</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>401</v>
+      </c>
+      <c r="E16" s="31">
+        <v>7769191001</v>
+      </c>
+      <c r="F16" s="31">
+        <v>454345</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10399,7 +10449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet38"/>
   <dimension ref="A1:H7"/>
@@ -10483,7 +10533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet39"/>
   <dimension ref="A1:F7"/>
@@ -10555,7 +10605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet40"/>
   <dimension ref="A1:F2"/>
@@ -10610,7 +10660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet41"/>
   <dimension ref="A1:F2"/>
@@ -10665,7 +10715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT3"/>
   <sheetViews>
@@ -10977,7 +11027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -11049,7 +11099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -11095,11 +11145,11 @@
       <c r="D2" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="97" t="s">
+      <c r="E2" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
       <c r="H2" s="93">
         <v>1000</v>
       </c>
@@ -11112,7 +11162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet42"/>
   <dimension ref="A1:E2"/>
@@ -11159,65 +11209,6 @@
       </c>
       <c r="D2" s="37"/>
       <c r="E2" s="37"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet43"/>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>355</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38" t="s">
-        <v>438</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11578,6 +11569,65 @@
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet43"/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38" t="s">
+        <v>438</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet44"/>
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -11622,7 +11672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet45"/>
   <dimension ref="A1:C6"/>
@@ -11665,7 +11715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet46"/>
   <dimension ref="A1:D7"/>
@@ -11712,7 +11762,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet47"/>
   <dimension ref="A1:C2"/>
@@ -11753,7 +11803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet48"/>
   <dimension ref="A1:C3"/>
@@ -11807,7 +11857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet49"/>
   <dimension ref="A1:AT7"/>
@@ -12189,7 +12239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet50"/>
   <dimension ref="A1:AO3"/>
@@ -12488,7 +12538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet51"/>
   <dimension ref="A1:AO3"/>
@@ -12784,7 +12834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet52"/>
   <dimension ref="A1:L4"/>
@@ -12854,11 +12904,11 @@
       <c r="E2" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="F2" s="97" t="s">
+      <c r="F2" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
@@ -12867,11 +12917,11 @@
       <c r="E3" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="F3" s="98" t="s">
+      <c r="F3" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
@@ -12880,11 +12930,11 @@
       <c r="E4" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="F4" s="98" t="s">
+      <c r="F4" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -12892,438 +12942,6 @@
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F4:H4"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet53"/>
-  <dimension ref="A1:BA7"/>
-  <sheetViews>
-    <sheetView topLeftCell="AL1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="AT2" sqref="AT2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
-    <col min="12" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" customWidth="1"/>
-    <col min="18" max="18" width="19.7109375" customWidth="1"/>
-    <col min="19" max="19" width="25.28515625" customWidth="1"/>
-    <col min="20" max="20" width="15.85546875" customWidth="1"/>
-    <col min="21" max="21" width="18" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" customWidth="1"/>
-    <col min="41" max="41" width="27.85546875" customWidth="1"/>
-    <col min="46" max="46" width="26.85546875" customWidth="1"/>
-    <col min="47" max="47" width="32.85546875" customWidth="1"/>
-    <col min="48" max="48" width="30.140625" customWidth="1"/>
-    <col min="49" max="49" width="34.140625" customWidth="1"/>
-    <col min="50" max="50" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="52" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="21.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT1" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU1" s="41" t="s">
-        <v>452</v>
-      </c>
-      <c r="AV1" s="40" t="s">
-        <v>453</v>
-      </c>
-      <c r="AW1" s="41" t="s">
-        <v>454</v>
-      </c>
-      <c r="AX1" s="40" t="s">
-        <v>455</v>
-      </c>
-      <c r="AY1" s="40" t="s">
-        <v>456</v>
-      </c>
-      <c r="AZ1" s="40" t="s">
-        <v>457</v>
-      </c>
-      <c r="BA1" s="40" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="2" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>459</v>
-      </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K2" t="s">
-        <v>116</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AS2" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT2" s="42" t="s">
-        <v>461</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>462</v>
-      </c>
-      <c r="AV2" s="43" t="s">
-        <v>462</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>463</v>
-      </c>
-      <c r="AX2" s="43" t="s">
-        <v>463</v>
-      </c>
-      <c r="AY2" s="43" t="s">
-        <v>464</v>
-      </c>
-      <c r="AZ2" s="43" t="s">
-        <v>465</v>
-      </c>
-      <c r="BA2" s="43" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="L3" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="AI3" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="L4" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="AI4" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="L5" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="AI5" s="6"/>
-      <c r="AK5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="L6" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="AO6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="L7" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="AO7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V2">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -13734,6 +13352,438 @@
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet53"/>
+  <dimension ref="A1:BA7"/>
+  <sheetViews>
+    <sheetView topLeftCell="AL1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="AT2" sqref="AT2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="12" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" customWidth="1"/>
+    <col min="18" max="18" width="19.7109375" customWidth="1"/>
+    <col min="19" max="19" width="25.28515625" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" customWidth="1"/>
+    <col min="21" max="21" width="18" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" customWidth="1"/>
+    <col min="41" max="41" width="27.85546875" customWidth="1"/>
+    <col min="46" max="46" width="26.85546875" customWidth="1"/>
+    <col min="47" max="47" width="32.85546875" customWidth="1"/>
+    <col min="48" max="48" width="30.140625" customWidth="1"/>
+    <col min="49" max="49" width="34.140625" customWidth="1"/>
+    <col min="50" max="50" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT1" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU1" s="41" t="s">
+        <v>452</v>
+      </c>
+      <c r="AV1" s="40" t="s">
+        <v>453</v>
+      </c>
+      <c r="AW1" s="41" t="s">
+        <v>454</v>
+      </c>
+      <c r="AX1" s="40" t="s">
+        <v>455</v>
+      </c>
+      <c r="AY1" s="40" t="s">
+        <v>456</v>
+      </c>
+      <c r="AZ1" s="40" t="s">
+        <v>457</v>
+      </c>
+      <c r="BA1" s="40" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT2" s="42" t="s">
+        <v>461</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>462</v>
+      </c>
+      <c r="AV2" s="43" t="s">
+        <v>462</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>463</v>
+      </c>
+      <c r="AX2" s="43" t="s">
+        <v>463</v>
+      </c>
+      <c r="AY2" s="43" t="s">
+        <v>464</v>
+      </c>
+      <c r="AZ2" s="43" t="s">
+        <v>465</v>
+      </c>
+      <c r="BA2" s="43" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="L3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="AI3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="L4" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="AI4" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="L5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="AI5" s="6"/>
+      <c r="AK5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="L6" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="AO6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="L7" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="AO7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G1:H1">
+    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2">
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14188,7 +14238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet54"/>
   <dimension ref="A1:AY16"/>
@@ -14648,7 +14698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO3"/>
   <sheetViews>
@@ -14949,7 +14999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet55"/>
   <dimension ref="A1:BC7"/>
@@ -15155,10 +15205,10 @@
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
-      <c r="G2" s="97" t="s">
+      <c r="G2" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="97"/>
+      <c r="H2" s="98"/>
       <c r="I2" s="95" t="s">
         <v>45</v>
       </c>
@@ -15462,10 +15512,10 @@
       <c r="AH5"/>
       <c r="AI5"/>
       <c r="AJ5"/>
-      <c r="AK5" s="98" t="s">
+      <c r="AK5" s="99" t="s">
         <v>76</v>
       </c>
-      <c r="AL5" s="98"/>
+      <c r="AL5" s="99"/>
       <c r="AM5"/>
       <c r="AN5"/>
       <c r="AO5" s="95" t="s">
@@ -15586,11 +15636,11 @@
       <c r="AL7"/>
       <c r="AM7"/>
       <c r="AN7"/>
-      <c r="AO7" s="98" t="s">
+      <c r="AO7" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="AP7" s="98"/>
-      <c r="AQ7" s="98"/>
+      <c r="AP7" s="99"/>
+      <c r="AQ7" s="99"/>
       <c r="AR7"/>
       <c r="AS7"/>
       <c r="AT7"/>
@@ -15614,7 +15664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet56"/>
   <dimension ref="A1:AG2"/>
@@ -15814,7 +15864,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet57"/>
   <dimension ref="A1:AG2"/>
@@ -16014,7 +16064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet58"/>
   <dimension ref="A1:AO3"/>
@@ -16330,7 +16380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -16375,7 +16425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet59"/>
   <dimension ref="A1:E3"/>
@@ -16435,44 +16485,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet60"/>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>522</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -16562,6 +16574,44 @@
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet60"/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet61"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -16598,7 +16648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet62"/>
   <dimension ref="A1:B2"/>
@@ -16630,12 +16680,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16645,10 +16695,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="97" t="s">
         <v>3</v>
       </c>
     </row>
@@ -16673,7 +16723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -16714,7 +16764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -16767,7 +16817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -16823,7 +16873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800" firstSheet="19" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800" firstSheet="47" activeTab="47"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
   <definedNames>
     <definedName name="UseCase">[1]LOV!$A$2:$A$25</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1775,7 +1775,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5370,8 +5370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11103,8 +11103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11150,9 +11150,7 @@
       </c>
       <c r="F2" s="98"/>
       <c r="G2" s="98"/>
-      <c r="H2" s="93">
-        <v>1000</v>
-      </c>
+      <c r="H2" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800" firstSheet="47" activeTab="47"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3075" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3081" uniqueCount="557">
   <si>
     <t>TestCase</t>
   </si>
@@ -1557,9 +1557,6 @@
   </si>
   <si>
     <t>EnterprisePrepaid_Test</t>
-  </si>
-  <si>
-    <t>Ent_CreditLimit</t>
   </si>
   <si>
     <t>1000</t>
@@ -3474,10 +3471,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG4"/>
+  <dimension ref="A1:AH4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA21" sqref="AA21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3488,32 +3485,33 @@
     <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3536,85 +3534,88 @@
         <v>126</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>125</v>
       </c>
@@ -3632,65 +3633,66 @@
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="T2"/>
-      <c r="U2" t="s">
+      <c r="U2"/>
+      <c r="V2" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="W2"/>
       <c r="X2"/>
-      <c r="Y2" s="6"/>
+      <c r="Y2"/>
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
-      <c r="AB2" t="s">
+      <c r="AB2" s="6"/>
+      <c r="AC2" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -3708,28 +3710,29 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="T3"/>
+      <c r="H3" s="6"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="S3" s="5"/>
       <c r="U3"/>
-      <c r="W3"/>
+      <c r="V3"/>
       <c r="X3"/>
-      <c r="Y3" s="6"/>
+      <c r="Y3"/>
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
-      <c r="AB3" t="s">
+      <c r="AB3" s="6"/>
+      <c r="AC3" t="s">
         <v>49</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4" t="s">
         <v>30</v>
@@ -3745,79 +3748,80 @@
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="90"/>
+      <c r="I4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="S4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="T4"/>
-      <c r="U4" t="s">
+      <c r="U4"/>
+      <c r="V4" t="s">
         <v>45</v>
-      </c>
-      <c r="W4" t="s">
-        <v>46</v>
       </c>
       <c r="X4" t="s">
         <v>46</v>
       </c>
-      <c r="Y4" s="6" t="s">
+      <c r="Y4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="AA4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AA4" s="6"/>
-      <c r="AB4" t="s">
+      <c r="AB4" s="6"/>
+      <c r="AC4" t="s">
         <v>49</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I2">
+  <conditionalFormatting sqref="J2">
     <cfRule type="duplicateValues" dxfId="61" priority="5"/>
     <cfRule type="duplicateValues" dxfId="60" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
+  <conditionalFormatting sqref="J3">
     <cfRule type="duplicateValues" dxfId="59" priority="3"/>
     <cfRule type="duplicateValues" dxfId="58" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
+  <conditionalFormatting sqref="J4">
     <cfRule type="duplicateValues" dxfId="57" priority="1"/>
     <cfRule type="duplicateValues" dxfId="56" priority="2"/>
   </conditionalFormatting>
@@ -3980,18 +3984,19 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="90"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4008,45 +4013,49 @@
         <v>123</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>134</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>135</v>
       </c>
@@ -4054,15 +4063,16 @@
         <v>32</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="F3" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" t="s">
+      <c r="J3" s="3"/>
+      <c r="K3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4077,7 +4087,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4099,10 +4109,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>123</v>
@@ -4337,8 +4347,8 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:AC4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4456,7 +4466,7 @@
         <v>23</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -4866,10 +4876,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AI5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4880,32 +4890,33 @@
     <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4928,85 +4939,88 @@
         <v>126</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>125</v>
       </c>
@@ -5024,71 +5038,72 @@
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="T2"/>
-      <c r="U2" t="s">
+      <c r="U2"/>
+      <c r="V2" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="W2"/>
       <c r="X2"/>
-      <c r="Y2" s="6"/>
+      <c r="Y2"/>
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
-      <c r="AB2" s="3" t="s">
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>10</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="90" t="s">
         <v>59</v>
       </c>
@@ -5106,75 +5121,76 @@
       </c>
       <c r="F3" s="90"/>
       <c r="G3" s="90"/>
-      <c r="H3" s="92" t="s">
+      <c r="H3" s="6"/>
+      <c r="I3" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="L3" s="92" t="s">
+      <c r="M3" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="92" t="s">
+      <c r="N3" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="92" t="s">
+      <c r="O3" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="92" t="s">
+      <c r="P3" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="Q3" s="92" t="s">
+      <c r="R3" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="92" t="s">
+      <c r="T3" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90" t="s">
+      <c r="U3" s="90"/>
+      <c r="V3" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="V3" s="92" t="s">
+      <c r="W3" s="92" t="s">
         <v>122</v>
       </c>
-      <c r="W3" s="90"/>
       <c r="X3" s="90"/>
-      <c r="Y3" s="6"/>
+      <c r="Y3" s="90"/>
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
-      <c r="AB3" s="92" t="s">
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="AC3" s="92" t="s">
+      <c r="AD3" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="AD3" s="90" t="s">
+      <c r="AE3" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="AE3" s="92" t="s">
+      <c r="AF3" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="AF3" s="90" t="s">
+      <c r="AG3" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="AG3" s="92"/>
-      <c r="AH3" s="90" t="s">
+      <c r="AH3" s="92"/>
+      <c r="AI3" s="90" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="4" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4" t="s">
         <v>53</v>
@@ -5190,81 +5206,82 @@
       </c>
       <c r="F4" s="6"/>
       <c r="G4"/>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="90"/>
+      <c r="I4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="S4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="T4"/>
-      <c r="U4" t="s">
+      <c r="U4"/>
+      <c r="V4" t="s">
         <v>45</v>
       </c>
-      <c r="V4" s="92" t="s">
+      <c r="W4" s="92" t="s">
         <v>122</v>
-      </c>
-      <c r="W4" t="s">
-        <v>46</v>
       </c>
       <c r="X4" t="s">
         <v>46</v>
       </c>
-      <c r="Y4" s="6" t="s">
+      <c r="Y4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="AA4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AA4" s="6" t="s">
+      <c r="AB4" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>10</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>128</v>
       </c>
@@ -5282,34 +5299,35 @@
       </c>
       <c r="F5" s="6"/>
       <c r="G5"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="T5"/>
+      <c r="H5" s="90"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="S5" s="5"/>
       <c r="U5"/>
-      <c r="V5" s="92" t="s">
+      <c r="V5"/>
+      <c r="W5" s="92" t="s">
         <v>122</v>
       </c>
-      <c r="W5"/>
       <c r="X5"/>
-      <c r="Y5" s="6"/>
+      <c r="Y5"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
-      <c r="AB5" s="3" t="s">
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AD5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>10</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AF5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5603,7 +5621,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="81" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B2" s="86"/>
       <c r="C2" s="81" t="s">
@@ -6913,10 +6931,10 @@
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet24"/>
-  <dimension ref="A1:AB4"/>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6927,12 +6945,13 @@
     <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -6952,73 +6971,76 @@
         <v>123</v>
       </c>
       <c r="G1" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="O1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="P1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="Q1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="R1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="S1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="T1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="U1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="V1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="W1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="Y1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="18" t="s">
+      <c r="Z1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="18" t="s">
+      <c r="AA1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="18" t="s">
+      <c r="AB1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="18" t="s">
+      <c r="AC1" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>354</v>
       </c>
@@ -7028,61 +7050,62 @@
       <c r="C2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="80"/>
+      <c r="H2" t="s">
         <v>50</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>45</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="AA2" s="6"/>
       <c r="AB2" s="6"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC2" s="6"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>355</v>
       </c>
@@ -7092,17 +7115,18 @@
       <c r="C3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="80"/>
+      <c r="H3" t="s">
         <v>50</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="19" t="s">
         <v>32</v>
@@ -7110,74 +7134,74 @@
       <c r="C4" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>50</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="S4" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>45</v>
       </c>
-      <c r="X4" s="3"/>
-      <c r="Y4" t="s">
-        <v>46</v>
-      </c>
+      <c r="Y4" s="3"/>
       <c r="Z4" t="s">
         <v>46</v>
       </c>
-      <c r="AA4" s="6" t="s">
+      <c r="AA4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AB4" s="6" t="s">
+      <c r="AC4" s="6" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K2">
+  <conditionalFormatting sqref="L2">
     <cfRule type="duplicateValues" dxfId="39" priority="3"/>
     <cfRule type="duplicateValues" dxfId="38" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
+  <conditionalFormatting sqref="L4">
     <cfRule type="duplicateValues" dxfId="37" priority="1"/>
     <cfRule type="duplicateValues" dxfId="36" priority="2"/>
   </conditionalFormatting>
@@ -7191,7 +7215,7 @@
   <dimension ref="A1:AN3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7252,7 +7276,7 @@
         <v>353</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="G1" s="18" t="s">
         <v>126</v>
@@ -7370,7 +7394,7 @@
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
       <c r="F2" s="80" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H2" s="53" t="s">
         <v>137</v>
@@ -7502,10 +7526,10 @@
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet26"/>
-  <dimension ref="A1:AB4"/>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7515,27 +7539,28 @@
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -7552,76 +7577,79 @@
         <v>353</v>
       </c>
       <c r="F1" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="O1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="P1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="Q1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="R1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="S1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="T1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="U1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="V1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="W1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="Y1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="18" t="s">
+      <c r="Z1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="18" t="s">
+      <c r="AA1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="18" t="s">
+      <c r="AB1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="18" t="s">
+      <c r="AC1" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>354</v>
       </c>
@@ -7631,61 +7659,62 @@
       <c r="C2" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" s="80"/>
+      <c r="H2" t="s">
         <v>50</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>45</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="AA2" s="6"/>
       <c r="AB2" s="6"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC2" s="6"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>355</v>
       </c>
@@ -7695,17 +7724,18 @@
       <c r="C3" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" s="80"/>
+      <c r="H3" t="s">
         <v>50</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="53"/>
       <c r="B4" s="53" t="s">
         <v>32</v>
@@ -7713,74 +7743,74 @@
       <c r="C4" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>50</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="S4" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>45</v>
       </c>
-      <c r="X4" s="3"/>
-      <c r="Y4" t="s">
-        <v>46</v>
-      </c>
+      <c r="Y4" s="3"/>
       <c r="Z4" t="s">
         <v>46</v>
       </c>
-      <c r="AA4" s="6" t="s">
+      <c r="AA4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AB4" s="6" t="s">
+      <c r="AC4" s="6" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K2">
+  <conditionalFormatting sqref="L2">
     <cfRule type="duplicateValues" dxfId="35" priority="3"/>
     <cfRule type="duplicateValues" dxfId="34" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
+  <conditionalFormatting sqref="L4">
     <cfRule type="duplicateValues" dxfId="33" priority="1"/>
     <cfRule type="duplicateValues" dxfId="32" priority="2"/>
   </conditionalFormatting>
@@ -7791,10 +7821,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:AK11"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AB6" sqref="AB6:AD7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7808,32 +7838,33 @@
     <col min="7" max="7" width="18.42578125" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7865,85 +7896,88 @@
         <v>126</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>125</v>
       </c>
@@ -7964,71 +7998,72 @@
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="6"/>
+      <c r="L2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W2"/>
-      <c r="X2" t="s">
+      <c r="X2"/>
+      <c r="Y2" t="s">
         <v>45</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="Z2"/>
       <c r="AA2"/>
-      <c r="AB2" s="6"/>
+      <c r="AB2"/>
       <c r="AC2" s="6"/>
       <c r="AD2" s="6"/>
-      <c r="AE2" s="3" t="s">
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>10</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AI2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -8049,77 +8084,80 @@
       </c>
       <c r="I3" s="6"/>
       <c r="J3"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="W3"/>
+      <c r="K3" s="6"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="V3" s="5"/>
       <c r="X3"/>
-      <c r="Z3"/>
+      <c r="Y3"/>
       <c r="AA3"/>
-      <c r="AB3" s="6"/>
+      <c r="AB3"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
-      <c r="AE3" s="3" t="s">
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AG3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>10</v>
       </c>
-      <c r="AH3" s="3" t="s">
+      <c r="AI3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
       <c r="I4" s="6"/>
       <c r="J4"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="W4"/>
+      <c r="K4" s="90"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="V4" s="5"/>
       <c r="X4"/>
-      <c r="Z4"/>
+      <c r="Y4"/>
       <c r="AA4"/>
-      <c r="AB4" s="6"/>
+      <c r="AB4"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
-      <c r="AG4"/>
-      <c r="AI4"/>
-    </row>
-    <row r="5" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE4" s="6"/>
+      <c r="AH4"/>
+      <c r="AJ4"/>
+    </row>
+    <row r="5" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
       <c r="I5" s="6"/>
       <c r="J5"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="W5"/>
+      <c r="K5" s="90"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="V5" s="5"/>
       <c r="X5"/>
-      <c r="Z5"/>
+      <c r="Y5"/>
       <c r="AA5"/>
-      <c r="AB5" s="6"/>
+      <c r="AB5"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
-      <c r="AG5"/>
-      <c r="AI5"/>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AE5" s="6"/>
+      <c r="AH5"/>
+      <c r="AJ5"/>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -8138,79 +8176,79 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="O6" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="T6" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="U6" s="5" t="s">
+      <c r="V6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="W6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>45</v>
       </c>
-      <c r="Y6" s="3"/>
-      <c r="Z6" t="s">
-        <v>46</v>
-      </c>
+      <c r="Z6" s="3"/>
       <c r="AA6" t="s">
         <v>46</v>
       </c>
-      <c r="AB6" s="6" t="s">
+      <c r="AB6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AC6" s="6" t="s">
+      <c r="AD6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AD6" s="6" t="s">
+      <c r="AE6" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="AE6" s="3" t="s">
+      <c r="AF6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>60</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AH6" t="s">
         <v>10</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AI6" t="s">
         <v>61</v>
       </c>
-      <c r="AI6" s="3" t="s">
+      <c r="AJ6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AJ6" s="3"/>
-    </row>
-    <row r="7" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK6" s="3"/>
+    </row>
+    <row r="7" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7" t="s">
         <v>53</v>
@@ -8226,89 +8264,90 @@
       </c>
       <c r="I7" s="6"/>
       <c r="J7"/>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="90"/>
+      <c r="L7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="O7" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="T7" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="U7" s="5" t="s">
+      <c r="V7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="W7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="W7"/>
-      <c r="X7" t="s">
+      <c r="X7"/>
+      <c r="Y7" t="s">
         <v>45</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>46</v>
       </c>
       <c r="AA7" t="s">
         <v>46</v>
       </c>
-      <c r="AB7" s="6" t="s">
+      <c r="AB7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AC7" s="6" t="s">
+      <c r="AD7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AD7" s="6" t="s">
+      <c r="AE7" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="AE7" s="3" t="s">
+      <c r="AF7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AF7" s="3" t="s">
+      <c r="AG7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AH7" t="s">
         <v>10</v>
       </c>
-      <c r="AH7" s="3" t="s">
+      <c r="AI7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AJ7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="E9" s="35"/>
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="F10" s="35"/>
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
@@ -8324,7 +8363,7 @@
   <dimension ref="A1:AN3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8385,7 +8424,7 @@
         <v>353</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="G1" s="18" t="s">
         <v>126</v>
@@ -8501,7 +8540,7 @@
         <v>33</v>
       </c>
       <c r="F2" s="80" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H2" s="53" t="s">
         <v>137</v>
@@ -8722,30 +8761,30 @@
         <v>139</v>
       </c>
       <c r="F1" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>490</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>491</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>492</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>493</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>494</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="58" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>32</v>
@@ -8756,15 +8795,15 @@
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
       <c r="K2" s="57" t="s">
+        <v>496</v>
+      </c>
+      <c r="L2" s="57" t="s">
         <v>497</v>
-      </c>
-      <c r="L2" s="57" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="58" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>32</v>
@@ -8808,10 +8847,10 @@
         <v>91</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>500</v>
+      </c>
+      <c r="F1" s="70" t="s">
         <v>501</v>
-      </c>
-      <c r="F1" s="70" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -9485,7 +9524,7 @@
   <dimension ref="A1:AN5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9549,10 +9588,10 @@
         <v>127</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>126</v>
@@ -9669,7 +9708,7 @@
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="8"/>
@@ -10408,7 +10447,7 @@
         <v>344</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>340</v>
@@ -10425,10 +10464,10 @@
         <v>337</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F2" t="s">
         <v>503</v>
-      </c>
-      <c r="F2" t="s">
-        <v>504</v>
       </c>
       <c r="G2" s="6"/>
     </row>
@@ -10437,10 +10476,10 @@
         <v>338</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F3" t="s">
         <v>503</v>
-      </c>
-      <c r="F3" t="s">
-        <v>504</v>
       </c>
       <c r="G3" s="6"/>
     </row>
@@ -10494,10 +10533,10 @@
         <v>337</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="E2" t="s">
         <v>503</v>
-      </c>
-      <c r="E2" t="s">
-        <v>504</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>343</v>
@@ -10508,10 +10547,10 @@
         <v>338</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="E3" t="s">
         <v>503</v>
-      </c>
-      <c r="E3" t="s">
-        <v>504</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>343</v>
@@ -10578,10 +10617,10 @@
       </c>
       <c r="D2" s="6"/>
       <c r="E2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -10590,10 +10629,10 @@
       </c>
       <c r="D3" s="6"/>
       <c r="E3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -10687,13 +10726,13 @@
         <v>342</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>520</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>521</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>341</v>
@@ -10701,10 +10740,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>343</v>
@@ -10720,7 +10759,7 @@
   <dimension ref="A1:AT3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10745,10 +10784,10 @@
         <v>127</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>126</v>
@@ -10856,18 +10895,18 @@
         <v>29</v>
       </c>
       <c r="AR1" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="AS1" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="AS1" s="18" t="s">
+      <c r="AT1" s="18" t="s">
         <v>538</v>
-      </c>
-      <c r="AT1" s="18" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="93" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B2" s="93" t="s">
         <v>53</v>
@@ -10967,16 +11006,16 @@
         <v>50</v>
       </c>
       <c r="AQ2" s="93" t="s">
+        <v>540</v>
+      </c>
+      <c r="AR2" s="93" t="s">
         <v>541</v>
       </c>
-      <c r="AR2" s="93" t="s">
+      <c r="AS2" s="93" t="s">
         <v>542</v>
       </c>
-      <c r="AS2" s="93" t="s">
+      <c r="AT2" s="93" t="s">
         <v>543</v>
-      </c>
-      <c r="AT2" s="93" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
@@ -11057,12 +11096,12 @@
         <v>142</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="93" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D2" s="93" t="s">
         <v>32</v>
@@ -11071,15 +11110,15 @@
         <v>33</v>
       </c>
       <c r="F2" s="93" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G2" s="93" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="93" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D3" s="93" t="s">
         <v>32</v>
@@ -11088,10 +11127,10 @@
         <v>33</v>
       </c>
       <c r="F3" s="93" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G3" s="93" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -11103,8 +11142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11132,15 +11171,15 @@
         <v>127</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="93" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D2" s="93" t="s">
         <v>32</v>
@@ -11219,7 +11258,7 @@
   <dimension ref="A1:AP5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11283,10 +11322,10 @@
         <v>127</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>126</v>
@@ -11409,7 +11448,7 @@
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H2" s="6"/>
       <c r="J2" t="s">
@@ -11698,7 +11737,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>32</v>
@@ -11740,12 +11779,12 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>32</v>
@@ -11789,7 +11828,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="73" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B2" s="75"/>
       <c r="C2" s="76" t="s">
@@ -11860,8 +11899,8 @@
   <sheetPr codeName="Sheet49"/>
   <dimension ref="A1:AT7"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11967,7 +12006,7 @@
         <v>67</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>5</v>
@@ -12084,7 +12123,7 @@
         <v>48</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>117</v>
@@ -12542,7 +12581,7 @@
   <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I3"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12573,7 +12612,7 @@
         <v>136</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>17</v>
@@ -12693,7 +12732,7 @@
         <v>137</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J2" t="s">
         <v>44</v>
@@ -12790,7 +12829,7 @@
       </c>
       <c r="F3" s="6"/>
       <c r="I3" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O3" s="9"/>
       <c r="V3" s="3"/>
@@ -12951,7 +12990,7 @@
   <dimension ref="A1:AS11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13024,10 +13063,10 @@
         <v>437</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>127</v>
@@ -13157,7 +13196,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -13981,7 +14020,7 @@
         <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G2" t="s">
         <v>137</v>
@@ -14014,7 +14053,7 @@
         <v>48</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="W2" s="3" t="s">
         <v>35</v>
@@ -14087,19 +14126,19 @@
         <v>121</v>
       </c>
       <c r="AU2" s="42" t="s">
+        <v>527</v>
+      </c>
+      <c r="AV2" t="s">
         <v>528</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AW2" s="43" t="s">
+        <v>528</v>
+      </c>
+      <c r="AX2" t="s">
         <v>529</v>
       </c>
-      <c r="AW2" s="43" t="s">
+      <c r="AY2" s="43" t="s">
         <v>529</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>530</v>
-      </c>
-      <c r="AY2" s="43" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
@@ -14474,7 +14513,7 @@
         <v>48</v>
       </c>
       <c r="V2" s="92" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="W2" s="92" t="s">
         <v>35</v>
@@ -15169,25 +15208,25 @@
         <v>455</v>
       </c>
       <c r="AW1" s="39" t="s">
+        <v>549</v>
+      </c>
+      <c r="AX1" s="39" t="s">
         <v>550</v>
-      </c>
-      <c r="AX1" s="39" t="s">
-        <v>551</v>
       </c>
       <c r="AY1" s="39" t="s">
         <v>471</v>
       </c>
       <c r="AZ1" s="39" t="s">
+        <v>551</v>
+      </c>
+      <c r="BA1" s="39" t="s">
         <v>552</v>
       </c>
-      <c r="BA1" s="39" t="s">
+      <c r="BB1" s="39" t="s">
         <v>553</v>
       </c>
-      <c r="BB1" s="39" t="s">
+      <c r="BC1" s="96" t="s">
         <v>554</v>
-      </c>
-      <c r="BC1" s="96" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="2" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15985,7 +16024,7 @@
         <v>54</v>
       </c>
       <c r="D2" s="63" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E2" s="63" t="s">
         <v>33</v>
@@ -16068,7 +16107,7 @@
   <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16099,7 +16138,7 @@
         <v>126</v>
       </c>
       <c r="H1" s="61" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="I1" s="61" t="s">
         <v>136</v>
@@ -16220,7 +16259,7 @@
       <c r="F2" s="62"/>
       <c r="G2" s="62"/>
       <c r="H2" s="68" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I2" s="62" t="s">
         <v>137</v>
@@ -16327,7 +16366,7 @@
       <c r="F3" s="62"/>
       <c r="G3" s="62"/>
       <c r="H3" s="68" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I3" s="62"/>
       <c r="J3" s="62"/>
@@ -16407,7 +16446,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="81" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B2" s="86"/>
       <c r="C2" s="86"/>
@@ -16452,32 +16491,32 @@
         <v>342</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>510</v>
+      </c>
+      <c r="E1" s="70" t="s">
         <v>511</v>
-      </c>
-      <c r="E1" s="70" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B2" s="77" t="s">
         <v>32</v>
       </c>
       <c r="E2" s="77" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="78" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B3" s="77" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="77" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -16594,7 +16633,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>32</v>
@@ -16632,7 +16671,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>32</v>
@@ -16667,7 +16706,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>32</v>
@@ -16702,7 +16741,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="75" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B2" s="76" t="s">
         <v>32</v>
@@ -16710,7 +16749,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="75" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B3" s="76" t="s">
         <v>32</v>
@@ -16747,7 +16786,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="89" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B2" s="87"/>
       <c r="C2" s="89" t="s">
@@ -16788,7 +16827,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="92" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B2" s="90"/>
       <c r="C2" s="92" t="s">
@@ -16800,7 +16839,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="90" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B3" s="90"/>
       <c r="C3" s="92" t="s">
@@ -16844,7 +16883,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="92" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B2" s="90"/>
       <c r="C2" s="92" t="s">
@@ -16856,7 +16895,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="90" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B3" s="90"/>
       <c r="C3" s="92" t="s">
@@ -16897,7 +16936,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="92" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B2" s="90"/>
       <c r="C2" s="92" t="s">
@@ -16909,7 +16948,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="90" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B3" s="90"/>
       <c r="C3" s="92" t="s">
@@ -17029,7 +17068,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>32</v>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -3473,8 +3473,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3677,8 +3677,8 @@
       <c r="W2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="X2"/>
-      <c r="Y2"/>
+      <c r="X2" s="90"/>
+      <c r="Y2" s="90"/>
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
       <c r="AB2" s="6"/>
@@ -9523,8 +9523,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AN5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9728,8 +9728,9 @@
         <v>70</v>
       </c>
       <c r="P2" s="9"/>
-      <c r="Q2" s="3" t="s">
-        <v>122</v>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="90" t="s">
+        <v>46</v>
       </c>
       <c r="S2" t="s">
         <v>46</v>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3081" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3084" uniqueCount="558">
   <si>
     <t>TestCase</t>
   </si>
@@ -1767,6 +1767,9 @@
   </si>
   <si>
     <t>VFQA78670897</t>
+  </si>
+  <si>
+    <t>IOT</t>
   </si>
 </sst>
 </file>
@@ -3473,7 +3476,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
@@ -4188,14 +4191,17 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -4265,6 +4271,17 @@
         <v>32</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>557</v>
+      </c>
+      <c r="B6" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="92" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800" firstSheet="7" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3084" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3125" uniqueCount="559">
   <si>
     <t>TestCase</t>
   </si>
@@ -1769,7 +1769,10 @@
     <t>VFQA78670897</t>
   </si>
   <si>
-    <t>IOT</t>
+    <t>Service_Type</t>
+  </si>
+  <si>
+    <t>OrderNo</t>
   </si>
 </sst>
 </file>
@@ -3474,10 +3477,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AH4"/>
+  <dimension ref="A1:AI4"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AI1" sqref="AI1:AI4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3514,7 +3517,7 @@
     <col min="34" max="34" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3617,8 +3620,11 @@
       <c r="AH1" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI1" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>124</v>
       </c>
@@ -3694,8 +3700,11 @@
       <c r="AE2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI2" s="90" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>127</v>
       </c>
@@ -3734,8 +3743,11 @@
       <c r="AE3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI3" s="90" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4" t="s">
         <v>30</v>
@@ -3813,6 +3825,9 @@
       </c>
       <c r="AE4" t="s">
         <v>49</v>
+      </c>
+      <c r="AI4" s="90" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -4191,10 +4206,10 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4205,9 +4220,10 @@
     <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4229,8 +4245,11 @@
       <c r="G1" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>93</v>
       </c>
@@ -4240,8 +4259,11 @@
       <c r="C2" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="90" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>94</v>
       </c>
@@ -4251,8 +4273,11 @@
       <c r="C3" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="90" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>95</v>
       </c>
@@ -4262,8 +4287,11 @@
       <c r="C4" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="90" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>96</v>
       </c>
@@ -4273,16 +4301,8 @@
       <c r="C5" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>557</v>
-      </c>
-      <c r="B6" s="92" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="92" t="s">
-        <v>33</v>
+      <c r="H5" s="90" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -4895,8 +4915,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AI5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AI1" sqref="AI1:AI5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5036,6 +5056,9 @@
       <c r="AH1" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="AI1" s="2" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="2" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -5119,6 +5142,9 @@
       <c r="AG2" t="s">
         <v>49</v>
       </c>
+      <c r="AI2" s="90" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="90" t="s">
@@ -5204,7 +5230,7 @@
       </c>
       <c r="AH3" s="92"/>
       <c r="AI3" s="90" t="s">
-        <v>392</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5296,6 +5322,9 @@
       </c>
       <c r="AG4" t="s">
         <v>49</v>
+      </c>
+      <c r="AI4" s="90" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5346,6 +5375,9 @@
       </c>
       <c r="AG5" t="s">
         <v>49</v>
+      </c>
+      <c r="AI5" s="90" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -7838,10 +7870,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AK11"/>
+  <dimension ref="A1:AL11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AL1" sqref="AL1:AL7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7881,7 +7913,7 @@
     <col min="37" max="37" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7993,8 +8025,11 @@
       <c r="AK1" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AL1" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>124</v>
       </c>
@@ -8079,8 +8114,11 @@
       <c r="AJ2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AL2" s="90" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>127</v>
       </c>
@@ -8129,8 +8167,11 @@
       <c r="AJ3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AL3" s="90" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -8151,8 +8192,11 @@
       <c r="AE4" s="6"/>
       <c r="AH4"/>
       <c r="AJ4"/>
-    </row>
-    <row r="5" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AL4" s="90" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -8173,8 +8217,11 @@
       <c r="AE5" s="6"/>
       <c r="AH5"/>
       <c r="AJ5"/>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL5" s="90" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -8264,8 +8311,11 @@
         <v>61</v>
       </c>
       <c r="AK6" s="3"/>
-    </row>
-    <row r="7" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AL6" s="90" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7" t="s">
         <v>52</v>
@@ -8352,19 +8402,22 @@
       <c r="AJ7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL7" s="90" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="E9" s="35"/>
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="F10" s="35"/>
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
@@ -9538,10 +9591,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AN5"/>
+  <dimension ref="A1:AO7"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AO1" sqref="AO1:AO7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9585,7 +9638,7 @@
     <col min="39" max="39" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9706,8 +9759,11 @@
       <c r="AN1" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO1" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>124</v>
       </c>
@@ -9810,8 +9866,11 @@
       <c r="AN2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO2" s="90" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>127</v>
       </c>
@@ -9852,14 +9911,33 @@
       <c r="AN3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO3" s="90" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="AL4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AO4" s="90" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="AJ5" s="6"/>
+      <c r="AO5" s="90" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AO6" s="90" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AO7" s="90" t="s">
+        <v>349</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:L1">
@@ -11158,15 +11236,15 @@
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J1" sqref="J1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -11194,8 +11272,14 @@
       <c r="I1" s="18" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="93" t="s">
         <v>546</v>
       </c>
@@ -11208,6 +11292,18 @@
       <c r="F2" s="98"/>
       <c r="G2" s="98"/>
       <c r="H2" s="93"/>
+      <c r="J2" s="90" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J3" s="90"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="90"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J5" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11273,10 +11369,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AP5"/>
+  <dimension ref="A1:AQ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AQ1" sqref="AQ1:AQ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11320,7 +11416,7 @@
     <col min="40" max="40" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11447,8 +11543,11 @@
       <c r="AP1" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ1" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>124</v>
       </c>
@@ -11556,8 +11655,11 @@
       <c r="AP2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ2" s="90" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>127</v>
       </c>
@@ -11605,9 +11707,30 @@
       <c r="AP3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ3" s="90" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AQ4" s="90" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="AI5" s="6"/>
+      <c r="AQ5" s="90" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AQ6" s="90" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AQ7" s="90" t="s">
+        <v>349</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:L1">
@@ -13005,10 +13128,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AS11"/>
+  <dimension ref="A1:AT11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AT1" sqref="AT1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13055,7 +13178,7 @@
     <col min="43" max="43" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13191,8 +13314,11 @@
       <c r="AS1" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT1" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>124</v>
       </c>
@@ -13304,8 +13430,11 @@
       <c r="AS2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT2" s="90" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>127</v>
       </c>
@@ -13355,39 +13484,54 @@
       <c r="AS3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT3" s="90" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT4" s="90" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="AL5" s="6"/>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT5" s="90" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT6" s="90" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT7" s="90" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="F10" s="35"/>
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="800" firstSheet="71" activeTab="77"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,12 @@
     <sheet name="Adjustments_BillingProfile" sheetId="78" r:id="rId75"/>
     <sheet name="Adjustments_Bill" sheetId="79" r:id="rId76"/>
     <sheet name="Adjustments_Item" sheetId="80" r:id="rId77"/>
+    <sheet name=" TOM_RePush" sheetId="88" r:id="rId78"/>
+    <sheet name="COM_RePush" sheetId="89" r:id="rId79"/>
+    <sheet name="SOM_RePush" sheetId="90" r:id="rId80"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId78"/>
+    <externalReference r:id="rId81"/>
   </externalReferences>
   <definedNames>
     <definedName name="UseCase">[1]LOV!$A$2:$A$25</definedName>
@@ -96,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3125" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3149" uniqueCount="565">
   <si>
     <t>TestCase</t>
   </si>
@@ -1773,6 +1776,24 @@
   </si>
   <si>
     <t>OrderNo</t>
+  </si>
+  <si>
+    <t>Sub_Status</t>
+  </si>
+  <si>
+    <t>TOM_RePush</t>
+  </si>
+  <si>
+    <t>1-11135398795</t>
+  </si>
+  <si>
+    <t>Received</t>
+  </si>
+  <si>
+    <t>COM_RePush</t>
+  </si>
+  <si>
+    <t>SOM_RePush</t>
   </si>
 </sst>
 </file>
@@ -13130,7 +13151,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AT11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+    <sheetView topLeftCell="AG1" workbookViewId="0">
       <selection activeCell="AT1" sqref="AT1"/>
     </sheetView>
   </sheetViews>
@@ -17125,6 +17146,100 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="90"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>508</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>479</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
+        <v>560</v>
+      </c>
+      <c r="B2" s="90" t="s">
+        <v>561</v>
+      </c>
+      <c r="C2" s="90" t="s">
+        <v>562</v>
+      </c>
+      <c r="D2" s="90" t="s">
+        <v>562</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="90"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>508</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>479</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
+        <v>563</v>
+      </c>
+      <c r="B2" s="90" t="s">
+        <v>561</v>
+      </c>
+      <c r="C2" s="90" t="s">
+        <v>562</v>
+      </c>
+      <c r="D2" s="90" t="s">
+        <v>562</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
@@ -17192,6 +17307,53 @@
       </c>
       <c r="D5" s="3" t="s">
         <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="90"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>508</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>479</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
+        <v>564</v>
+      </c>
+      <c r="B2" s="90" t="s">
+        <v>561</v>
+      </c>
+      <c r="C2" s="90" t="s">
+        <v>562</v>
+      </c>
+      <c r="D2" s="90" t="s">
+        <v>562</v>
       </c>
     </row>
   </sheetData>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="800" firstSheet="71" activeTab="77"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800" firstSheet="74" activeTab="81"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -84,12 +84,16 @@
     <sheet name="Adjustments_BillingProfile" sheetId="78" r:id="rId75"/>
     <sheet name="Adjustments_Bill" sheetId="79" r:id="rId76"/>
     <sheet name="Adjustments_Item" sheetId="80" r:id="rId77"/>
-    <sheet name=" TOM_RePush" sheetId="88" r:id="rId78"/>
-    <sheet name="COM_RePush" sheetId="89" r:id="rId79"/>
-    <sheet name="SOM_RePush" sheetId="90" r:id="rId80"/>
+    <sheet name="ConsumerFL_Provision" sheetId="88" r:id="rId78"/>
+    <sheet name="IPTVConsumerFL_Provision" sheetId="89" r:id="rId79"/>
+    <sheet name="EnterpriseFL_Provision" sheetId="91" r:id="rId80"/>
+    <sheet name="IPTVEnterpriseFL_Provision" sheetId="93" r:id="rId81"/>
+    <sheet name=" TOM_RePush" sheetId="94" r:id="rId82"/>
+    <sheet name="COM_RePush" sheetId="95" r:id="rId83"/>
+    <sheet name="SOM_RePush" sheetId="96" r:id="rId84"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId81"/>
+    <externalReference r:id="rId85"/>
   </externalReferences>
   <definedNames>
     <definedName name="UseCase">[1]LOV!$A$2:$A$25</definedName>
@@ -99,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3149" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3631" uniqueCount="574">
   <si>
     <t>TestCase</t>
   </si>
@@ -1778,16 +1782,43 @@
     <t>OrderNo</t>
   </si>
   <si>
+    <t>IPdata</t>
+  </si>
+  <si>
+    <t>IPTV Service Bundle</t>
+  </si>
+  <si>
+    <t>CPE Bundle</t>
+  </si>
+  <si>
+    <t>Cdata</t>
+  </si>
+  <si>
+    <t>IPTV</t>
+  </si>
+  <si>
+    <t>ConsumerFL</t>
+  </si>
+  <si>
+    <t>EnterpriseFL</t>
+  </si>
+  <si>
+    <t>IPTVConsumerFL</t>
+  </si>
+  <si>
+    <t>IPTVEnterpriseFL</t>
+  </si>
+  <si>
+    <t>Received</t>
+  </si>
+  <si>
+    <t>1-11135398795</t>
+  </si>
+  <si>
+    <t>TOM_RePush</t>
+  </si>
+  <si>
     <t>Sub_Status</t>
-  </si>
-  <si>
-    <t>TOM_RePush</t>
-  </si>
-  <si>
-    <t>1-11135398795</t>
-  </si>
-  <si>
-    <t>Received</t>
   </si>
   <si>
     <t>COM_RePush</t>
@@ -2175,7 +2206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2410,6 +2441,12 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2420,7 +2457,207 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="82">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3853,16 +4090,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2">
-    <cfRule type="duplicateValues" dxfId="61" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="duplicateValues" dxfId="59" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="duplicateValues" dxfId="57" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3871,11 +4108,17 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -3932,6 +4175,52 @@
         <v>32</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="C6" s="90" t="s">
+        <v>369</v>
+      </c>
+      <c r="D6" s="92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>565</v>
+      </c>
+      <c r="C7" s="90" t="s">
+        <v>369</v>
+      </c>
+      <c r="D7" s="92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>566</v>
+      </c>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90" t="s">
+        <v>560</v>
+      </c>
+      <c r="D8" s="92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90" t="s">
+        <v>560</v>
+      </c>
+      <c r="D9" s="92" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4403,10 +4692,10 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15"/>
-  <dimension ref="A1:AC4"/>
+  <dimension ref="A1:AC5"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AC14" sqref="AC14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4683,14 +4972,17 @@
         <v>47</v>
       </c>
     </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="99"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="K2">
-    <cfRule type="duplicateValues" dxfId="43" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5573,7 +5865,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5664,13 +5956,19 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="83" t="s">
@@ -5701,6 +5999,20 @@
         <v>33</v>
       </c>
       <c r="E2" s="81" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>563</v>
+      </c>
+      <c r="C3" s="98" t="s">
+        <v>369</v>
+      </c>
+      <c r="D3" s="98" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="98" t="s">
         <v>142</v>
       </c>
     </row>
@@ -7268,12 +7580,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L2">
-    <cfRule type="duplicateValues" dxfId="39" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7469,10 +7781,10 @@
       <c r="H2" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="I2" s="98" t="s">
+      <c r="I2" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="98"/>
+      <c r="J2" s="100"/>
       <c r="K2" s="53" t="s">
         <v>44</v>
       </c>
@@ -7486,10 +7798,10 @@
       <c r="O2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="Q2" s="98" t="s">
+      <c r="Q2" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="R2" s="98"/>
+      <c r="R2" s="100"/>
       <c r="U2" s="53" t="s">
         <v>70</v>
       </c>
@@ -7877,12 +8189,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L2">
-    <cfRule type="duplicateValues" dxfId="35" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8636,10 +8948,10 @@
       <c r="H2" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="I2" s="98" t="s">
+      <c r="I2" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="98"/>
+      <c r="J2" s="100"/>
       <c r="K2" s="53" t="s">
         <v>44</v>
       </c>
@@ -8653,10 +8965,10 @@
       <c r="O2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="Q2" s="98" t="s">
+      <c r="Q2" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="R2" s="98"/>
+      <c r="R2" s="100"/>
       <c r="U2" s="53" t="s">
         <v>70</v>
       </c>
@@ -9246,7 +9558,7 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D5" si="0">CONCATENATE(A3,"_Test")</f>
+        <f>CONCATENATE(A3,"_Test")</f>
         <v>ConsumerPostpaid_Test</v>
       </c>
     </row>
@@ -9256,7 +9568,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A4,"_Test")</f>
         <v>EnterprisePostpaid_Test</v>
       </c>
     </row>
@@ -9266,7 +9578,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(A5,"_Test")</f>
         <v>EnterprisePrepaid_Test</v>
       </c>
     </row>
@@ -9962,12 +10274,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:L1">
-    <cfRule type="duplicateValues" dxfId="55" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X3">
-    <cfRule type="duplicateValues" dxfId="53" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11307,11 +11619,11 @@
       <c r="D2" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="98" t="s">
+      <c r="E2" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
       <c r="H2" s="93"/>
       <c r="J2" s="90" t="s">
         <v>349</v>
@@ -11755,12 +12067,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:L1">
-    <cfRule type="duplicateValues" dxfId="51" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="X2:X3">
-    <cfRule type="duplicateValues" dxfId="49" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12427,12 +12739,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2">
-    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12726,12 +13038,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2">
-    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12743,7 +13055,7 @@
   <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13022,12 +13334,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:W3">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13103,11 +13415,11 @@
       <c r="E2" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="F2" s="98" t="s">
+      <c r="F2" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
@@ -13116,11 +13428,11 @@
       <c r="E3" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="F3" s="99" t="s">
+      <c r="F3" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
@@ -13129,11 +13441,11 @@
       <c r="E4" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="F4" s="99" t="s">
+      <c r="F4" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -13559,12 +13871,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N1:O1">
-    <cfRule type="duplicateValues" dxfId="47" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AA3">
-    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13990,12 +14302,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14443,16 +14755,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:I1">
-    <cfRule type="duplicateValues" dxfId="15" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2">
-    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:G14">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14903,16 +15215,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:I1">
-    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:G14">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15208,12 +15520,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15425,10 +15737,10 @@
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
-      <c r="G2" s="98" t="s">
+      <c r="G2" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="98"/>
+      <c r="H2" s="100"/>
       <c r="I2" s="95" t="s">
         <v>44</v>
       </c>
@@ -15732,10 +16044,10 @@
       <c r="AH5"/>
       <c r="AI5"/>
       <c r="AJ5"/>
-      <c r="AK5" s="99" t="s">
+      <c r="AK5" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="AL5" s="99"/>
+      <c r="AL5" s="101"/>
       <c r="AM5"/>
       <c r="AN5"/>
       <c r="AO5" s="95" t="s">
@@ -15856,11 +16168,11 @@
       <c r="AL7"/>
       <c r="AM7"/>
       <c r="AN7"/>
-      <c r="AO7" s="99" t="s">
+      <c r="AO7" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="AP7" s="99"/>
-      <c r="AQ7" s="99"/>
+      <c r="AP7" s="101"/>
+      <c r="AQ7" s="101"/>
       <c r="AR7"/>
       <c r="AS7"/>
       <c r="AT7"/>
@@ -16711,15 +17023,16 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A8" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16784,6 +17097,53 @@
         <v>32</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="E6" s="90" t="s">
+        <v>369</v>
+      </c>
+      <c r="F6" s="92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>565</v>
+      </c>
+      <c r="E7" s="90" t="s">
+        <v>369</v>
+      </c>
+      <c r="F7" s="92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>566</v>
+      </c>
+      <c r="E8" s="90" t="s">
+        <v>560</v>
+      </c>
+      <c r="F8" s="92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90" t="s">
+        <v>560</v>
+      </c>
+      <c r="F9" s="92" t="s">
         <v>33</v>
       </c>
     </row>
@@ -17148,16 +17508,1893 @@
 
 <file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AP3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="90" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="90" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="90" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" style="90" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="17.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.28515625" style="90" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.28515625" style="90" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.140625" style="90"/>
+    <col min="32" max="32" width="8.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12" style="90" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="9.140625" style="90"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="91" t="s">
+        <v>363</v>
+      </c>
+      <c r="F1" s="91" t="s">
+        <v>562</v>
+      </c>
+      <c r="G1" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ1" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK1" s="91" t="s">
+        <v>364</v>
+      </c>
+      <c r="AL1" s="91" t="s">
+        <v>365</v>
+      </c>
+      <c r="AM1" s="91" t="s">
+        <v>366</v>
+      </c>
+      <c r="AN1" s="91" t="s">
+        <v>442</v>
+      </c>
+      <c r="AO1" s="91" t="s">
+        <v>367</v>
+      </c>
+      <c r="AP1" s="91" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="92" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="F2" s="90" t="s">
+        <v>561</v>
+      </c>
+      <c r="G2" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="N2" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="92" t="s">
+        <v>555</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="S2" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF2" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG2" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH2" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI2" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="22"/>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A3" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>369</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="F3" s="90" t="s">
+        <v>561</v>
+      </c>
+      <c r="G3" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="92"/>
+      <c r="X3" s="92"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AE3" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF3" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG3" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH3" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI3" s="90" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="I1:J1">
+    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2">
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AQ3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="90" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" style="90" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="90" customWidth="1"/>
+    <col min="8" max="8" width="22" style="90" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="90" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12" style="90" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="17.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.28515625" style="90" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.28515625" style="90" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.140625" style="90"/>
+    <col min="36" max="36" width="8.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="4.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="44" max="16384" width="9.140625" style="90"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="91" t="s">
+        <v>363</v>
+      </c>
+      <c r="F1" s="91" t="s">
+        <v>559</v>
+      </c>
+      <c r="G1" s="91" t="s">
+        <v>562</v>
+      </c>
+      <c r="H1" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE1" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK1" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL1" s="91" t="s">
+        <v>364</v>
+      </c>
+      <c r="AM1" s="91" t="s">
+        <v>365</v>
+      </c>
+      <c r="AN1" s="91" t="s">
+        <v>366</v>
+      </c>
+      <c r="AO1" s="91" t="s">
+        <v>442</v>
+      </c>
+      <c r="AP1" s="91" t="s">
+        <v>367</v>
+      </c>
+      <c r="AQ1" s="91" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="92" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="G2" s="90" t="s">
+        <v>561</v>
+      </c>
+      <c r="H2" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="O2" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="92" t="s">
+        <v>555</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="T2" s="92" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="X2" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="92" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG2" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH2" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI2" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ2" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="22"/>
+      <c r="AQ2" s="22"/>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A3" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>369</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="G3" s="90" t="s">
+        <v>561</v>
+      </c>
+      <c r="H3" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="92"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="92"/>
+      <c r="Y3" s="92"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AF3" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG3" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH3" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI3" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ3" s="90" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J1:K1">
+    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2">
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A8:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="C6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D6" s="92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>565</v>
+      </c>
+      <c r="C7" t="s">
+        <v>369</v>
+      </c>
+      <c r="D7" s="92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>566</v>
+      </c>
+      <c r="C8" t="s">
+        <v>560</v>
+      </c>
+      <c r="D8" s="92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="C9" s="90" t="s">
+        <v>560</v>
+      </c>
+      <c r="D9" s="92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AX7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="90" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="90" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" style="90" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="17.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.28515625" style="90" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9" style="90" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.28515625" style="90" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.28515625" style="90" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.28515625" style="90" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.28515625" style="90" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.28515625" style="90" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.140625" style="90"/>
+    <col min="43" max="43" width="8.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="4.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="11.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="51" max="16384" width="9.140625" style="90"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="91" t="s">
+        <v>363</v>
+      </c>
+      <c r="F1" s="91" t="s">
+        <v>562</v>
+      </c>
+      <c r="G1" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL1" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR1" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS1" s="91" t="s">
+        <v>364</v>
+      </c>
+      <c r="AT1" s="91" t="s">
+        <v>365</v>
+      </c>
+      <c r="AU1" s="91" t="s">
+        <v>366</v>
+      </c>
+      <c r="AV1" s="91" t="s">
+        <v>442</v>
+      </c>
+      <c r="AW1" s="91" t="s">
+        <v>367</v>
+      </c>
+      <c r="AX1" s="91" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="92" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="F2" s="90" t="s">
+        <v>561</v>
+      </c>
+      <c r="G2" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="J2" s="90" t="s">
+        <v>136</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="L2" s="90" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q2" s="9"/>
+      <c r="T2" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y2" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD2" s="92" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE2" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG2" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH2" s="90" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI2" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN2" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO2" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP2" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ2" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="21"/>
+      <c r="AT2" s="21"/>
+      <c r="AU2" s="21"/>
+      <c r="AV2" s="22"/>
+      <c r="AW2" s="22"/>
+      <c r="AX2" s="22"/>
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A3" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>369</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="F3" s="90" t="s">
+        <v>561</v>
+      </c>
+      <c r="G3" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="K3" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q3" s="9"/>
+      <c r="X3" s="92"/>
+      <c r="Y3" s="92"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="92"/>
+      <c r="AF3" s="6"/>
+      <c r="AI3" s="92"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN3" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO3" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP3" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ3" s="90" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A5" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ5" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A6" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="92" t="s">
+        <v>371</v>
+      </c>
+      <c r="E6" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="H6" s="90" t="s">
+        <v>136</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="J6" s="90" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="N6" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="R6" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="V6" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="W6" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="X6" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y6" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA6" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB6" s="92" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC6" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE6" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF6" s="90" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG6" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL6" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM6" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN6" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO6" s="90" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A7" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="92" t="s">
+        <v>371</v>
+      </c>
+      <c r="E7" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="I7" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="O7" s="9"/>
+      <c r="V7" s="92"/>
+      <c r="W7" s="92"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="92"/>
+      <c r="AD7" s="6"/>
+      <c r="AG7" s="92"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL7" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM7" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN7" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO7" s="90" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J5:K5">
+    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W6:W7">
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:M1">
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y2:Y3">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AY3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="90" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="90" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="90" customWidth="1"/>
+    <col min="8" max="8" width="22" style="90" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="17.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.28515625" style="90" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.28515625" style="90" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.28515625" style="90" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.140625" style="90"/>
+    <col min="36" max="36" width="8.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.28515625" style="90" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.28515625" style="90" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.42578125" style="90" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="45" max="16384" width="9.140625" style="90"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="91" t="s">
+        <v>363</v>
+      </c>
+      <c r="F1" s="91" t="s">
+        <v>559</v>
+      </c>
+      <c r="G1" s="91" t="s">
+        <v>562</v>
+      </c>
+      <c r="H1" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM1" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS1" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT1" s="91" t="s">
+        <v>364</v>
+      </c>
+      <c r="AU1" s="91" t="s">
+        <v>365</v>
+      </c>
+      <c r="AV1" s="91" t="s">
+        <v>366</v>
+      </c>
+      <c r="AW1" s="91" t="s">
+        <v>442</v>
+      </c>
+      <c r="AX1" s="91" t="s">
+        <v>367</v>
+      </c>
+      <c r="AY1" s="91" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="92" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="G2" s="90" t="s">
+        <v>561</v>
+      </c>
+      <c r="H2" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="K2" s="90" t="s">
+        <v>136</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="M2" s="90" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q2" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="R2" s="9"/>
+      <c r="U2" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y2" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z2" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA2" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE2" s="92" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF2" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH2" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI2" s="90" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ2" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO2" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP2" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ2" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR2" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="21"/>
+      <c r="AU2" s="21"/>
+      <c r="AV2" s="21"/>
+      <c r="AW2" s="22"/>
+      <c r="AX2" s="22"/>
+      <c r="AY2" s="22"/>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A3" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>369</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="G3" s="90" t="s">
+        <v>561</v>
+      </c>
+      <c r="H3" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="L3" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="R3" s="9"/>
+      <c r="Y3" s="92"/>
+      <c r="Z3" s="92"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="92"/>
+      <c r="AG3" s="6"/>
+      <c r="AJ3" s="92"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO3" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP3" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ3" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR3" s="90" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="M1:N1">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z2:Z3">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="90" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="90"/>
+    <col min="2" max="2" width="13.85546875" style="90" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="90"/>
+    <col min="4" max="4" width="10.7109375" style="90" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="90"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -17171,21 +19408,21 @@
         <v>479</v>
       </c>
       <c r="D1" s="91" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="90" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="B2" s="90" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C2" s="90" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="D2" s="90" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -17193,7 +19430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -17218,21 +19455,21 @@
         <v>479</v>
       </c>
       <c r="D1" s="91" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="90" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="B2" s="90" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C2" s="90" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="D2" s="90" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -17240,81 +19477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -17339,21 +19502,21 @@
         <v>479</v>
       </c>
       <c r="D1" s="91" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="90" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="B2" s="90" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C2" s="90" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="D2" s="90" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800" firstSheet="74" activeTab="81"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3631" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3628" uniqueCount="574">
   <si>
     <t>TestCase</t>
   </si>
@@ -5748,6 +5748,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet64"/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5956,6 +5957,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet65"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10852,6 +10854,7 @@
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet66"/>
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11185,6 +11188,7 @@
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet67"/>
   <dimension ref="A1:AT3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11497,6 +11501,7 @@
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet68"/>
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11569,6 +11574,7 @@
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet69"/>
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14316,6 +14322,7 @@
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet70"/>
   <dimension ref="A1:AY16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15232,6 +15239,7 @@
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet71"/>
   <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16914,6 +16922,7 @@
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet72"/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17025,8 +17034,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17262,6 +17271,7 @@
 
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet73"/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -17305,6 +17315,7 @@
 
 <file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet74"/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17346,6 +17357,7 @@
 
 <file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet75"/>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17399,6 +17411,7 @@
 
 <file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet76"/>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17455,6 +17468,7 @@
 
 <file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet77"/>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17508,6 +17522,7 @@
 
 <file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet78"/>
   <dimension ref="A1:AP3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17847,6 +17862,7 @@
 
 <file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet79"/>
   <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18320,10 +18336,11 @@
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet80"/>
   <dimension ref="A1:AX7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18695,9 +18712,7 @@
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A5" s="91" t="s">
-        <v>0</v>
-      </c>
+      <c r="A5" s="91"/>
       <c r="B5" s="91" t="s">
         <v>1</v>
       </c>
@@ -18820,9 +18835,6 @@
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A6" s="90" t="s">
-        <v>124</v>
-      </c>
       <c r="B6" s="90" t="s">
         <v>52</v>
       </c>
@@ -18920,9 +18932,6 @@
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A7" s="90" t="s">
-        <v>127</v>
-      </c>
       <c r="B7" s="90" t="s">
         <v>52</v>
       </c>
@@ -18989,10 +18998,11 @@
 
 <file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet81"/>
   <dimension ref="A1:AY3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19382,9 +19392,10 @@
 
 <file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet82"/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -19432,6 +19443,7 @@
 
 <file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet83"/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19479,6 +19491,7 @@
 
 <file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet84"/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19526,6 +19539,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet63"/>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800" activeTab="91"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -91,9 +91,18 @@
     <sheet name=" TOM_RePush" sheetId="94" r:id="rId82"/>
     <sheet name="COM_RePush" sheetId="95" r:id="rId83"/>
     <sheet name="SOM_RePush" sheetId="96" r:id="rId84"/>
+    <sheet name="DAM_Create_Users" sheetId="97" r:id="rId85"/>
+    <sheet name="DAM_Edit_Users" sheetId="98" r:id="rId86"/>
+    <sheet name="DAM_Delete_Users" sheetId="99" r:id="rId87"/>
+    <sheet name="DAM_APP_Add" sheetId="100" r:id="rId88"/>
+    <sheet name="DAM_APP_Edit" sheetId="101" r:id="rId89"/>
+    <sheet name="DAM_APP_Delete" sheetId="102" r:id="rId90"/>
+    <sheet name="DAM_Portal_Add" sheetId="103" r:id="rId91"/>
+    <sheet name="DAM_Portal_Edit" sheetId="104" r:id="rId92"/>
+    <sheet name="DAM_Portal_Delete" sheetId="105" r:id="rId93"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId85"/>
+    <externalReference r:id="rId94"/>
   </externalReferences>
   <definedNames>
     <definedName name="UseCase">[1]LOV!$A$2:$A$25</definedName>
@@ -103,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3628" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3695" uniqueCount="618">
   <si>
     <t>TestCase</t>
   </si>
@@ -1825,13 +1834,145 @@
   </si>
   <si>
     <t>SOM_RePush</t>
+  </si>
+  <si>
+    <t>Searching_Input </t>
+  </si>
+  <si>
+    <t>DAM_msisdn</t>
+  </si>
+  <si>
+    <t>DAM_imei</t>
+  </si>
+  <si>
+    <t>DAM_FirstName</t>
+  </si>
+  <si>
+    <t>DAM_LastName</t>
+  </si>
+  <si>
+    <t>DAM_Notification</t>
+  </si>
+  <si>
+    <t>DAM_Select_app</t>
+  </si>
+  <si>
+    <t>Edit_DAM_Select_app</t>
+  </si>
+  <si>
+    <t>Edit_DAM_Notification</t>
+  </si>
+  <si>
+    <t>Add_User</t>
+  </si>
+  <si>
+    <t>VFQA</t>
+  </si>
+  <si>
+    <t>Whatzapp</t>
+  </si>
+  <si>
+    <t>undefined</t>
+  </si>
+  <si>
+    <t>876542345678990</t>
+  </si>
+  <si>
+    <t>Edit_User</t>
+  </si>
+  <si>
+    <t>Delete_User</t>
+  </si>
+  <si>
+    <t>DAM_App_Appname</t>
+  </si>
+  <si>
+    <t>DAM_App_Url</t>
+  </si>
+  <si>
+    <t>DAM_App_category</t>
+  </si>
+  <si>
+    <t>DAM_APP_Type</t>
+  </si>
+  <si>
+    <t>DAM_APP_Comment</t>
+  </si>
+  <si>
+    <t>Add_App</t>
+  </si>
+  <si>
+    <t>sisir</t>
+  </si>
+  <si>
+    <t>www.google.com</t>
+  </si>
+  <si>
+    <t>External Link</t>
+  </si>
+  <si>
+    <t>Self Service</t>
+  </si>
+  <si>
+    <t>Edit_DAM_APP_Url</t>
+  </si>
+  <si>
+    <t>Edit_App</t>
+  </si>
+  <si>
+    <t>www.gmail.com</t>
+  </si>
+  <si>
+    <t>Delete_App</t>
+  </si>
+  <si>
+    <t>Portal_FirstName</t>
+  </si>
+  <si>
+    <t>Portal_LastName</t>
+  </si>
+  <si>
+    <t>Portal_USERNAME</t>
+  </si>
+  <si>
+    <t>Portal_PASSWORD</t>
+  </si>
+  <si>
+    <t>Portal_CONFIRM_PASSWORD</t>
+  </si>
+  <si>
+    <t>Portal_Role</t>
+  </si>
+  <si>
+    <t>portal_AddUser</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>maveric@4</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>portal_EditUser</t>
+  </si>
+  <si>
+    <t>portalpassword@1</t>
+  </si>
+  <si>
+    <t>portal_DeleteUser</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1998,6 +2139,13 @@
       <color indexed="8"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2206,7 +2354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2447,10 +2595,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5863,10 +6020,10 @@
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet21"/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5877,7 +6034,7 @@
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5893,8 +6050,11 @@
       <c r="E1" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>93</v>
       </c>
@@ -5908,7 +6068,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>94</v>
       </c>
@@ -5922,7 +6082,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>95</v>
       </c>
@@ -5936,7 +6096,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>96</v>
       </c>
@@ -7783,10 +7943,10 @@
       <c r="H2" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="I2" s="100" t="s">
+      <c r="I2" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="100"/>
+      <c r="J2" s="101"/>
       <c r="K2" s="53" t="s">
         <v>44</v>
       </c>
@@ -7800,10 +7960,10 @@
       <c r="O2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="Q2" s="100" t="s">
+      <c r="Q2" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="R2" s="100"/>
+      <c r="R2" s="101"/>
       <c r="U2" s="53" t="s">
         <v>70</v>
       </c>
@@ -8950,10 +9110,10 @@
       <c r="H2" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="I2" s="100" t="s">
+      <c r="I2" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="100"/>
+      <c r="J2" s="101"/>
       <c r="K2" s="53" t="s">
         <v>44</v>
       </c>
@@ -8967,10 +9127,10 @@
       <c r="O2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="Q2" s="100" t="s">
+      <c r="Q2" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="R2" s="100"/>
+      <c r="R2" s="101"/>
       <c r="U2" s="53" t="s">
         <v>70</v>
       </c>
@@ -11625,11 +11785,11 @@
       <c r="D2" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="100" t="s">
+      <c r="E2" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
       <c r="H2" s="93"/>
       <c r="J2" s="90" t="s">
         <v>349</v>
@@ -13421,11 +13581,11 @@
       <c r="E2" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="F2" s="100" t="s">
+      <c r="F2" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
@@ -13434,11 +13594,11 @@
       <c r="E3" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="F3" s="101" t="s">
+      <c r="F3" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
@@ -13447,11 +13607,11 @@
       <c r="E4" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="F4" s="101" t="s">
+      <c r="F4" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -15745,10 +15905,10 @@
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
-      <c r="G2" s="100" t="s">
+      <c r="G2" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="100"/>
+      <c r="H2" s="101"/>
       <c r="I2" s="95" t="s">
         <v>44</v>
       </c>
@@ -16052,10 +16212,10 @@
       <c r="AH5"/>
       <c r="AI5"/>
       <c r="AJ5"/>
-      <c r="AK5" s="101" t="s">
+      <c r="AK5" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="AL5" s="101"/>
+      <c r="AL5" s="102"/>
       <c r="AM5"/>
       <c r="AN5"/>
       <c r="AO5" s="95" t="s">
@@ -16176,11 +16336,11 @@
       <c r="AL7"/>
       <c r="AM7"/>
       <c r="AN7"/>
-      <c r="AO7" s="101" t="s">
+      <c r="AO7" s="102" t="s">
         <v>106</v>
       </c>
-      <c r="AP7" s="101"/>
-      <c r="AQ7" s="101"/>
+      <c r="AP7" s="102"/>
+      <c r="AQ7" s="102"/>
       <c r="AR7"/>
       <c r="AS7"/>
       <c r="AT7"/>
@@ -17034,7 +17194,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -19495,7 +19655,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19530,6 +19690,286 @@
       </c>
       <c r="D2" s="90" t="s">
         <v>568</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>574</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>575</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>576</v>
+      </c>
+      <c r="E1" s="91" t="s">
+        <v>577</v>
+      </c>
+      <c r="F1" s="91" t="s">
+        <v>578</v>
+      </c>
+      <c r="G1" s="91" t="s">
+        <v>579</v>
+      </c>
+      <c r="H1" s="91" t="s">
+        <v>580</v>
+      </c>
+      <c r="I1" s="91" t="s">
+        <v>581</v>
+      </c>
+      <c r="J1" s="91" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
+        <v>583</v>
+      </c>
+      <c r="B2" s="90">
+        <v>2222</v>
+      </c>
+      <c r="C2" s="90">
+        <v>97412345690</v>
+      </c>
+      <c r="D2" s="90" t="s">
+        <v>587</v>
+      </c>
+      <c r="E2" s="90" t="s">
+        <v>584</v>
+      </c>
+      <c r="F2" s="90" t="s">
+        <v>584</v>
+      </c>
+      <c r="G2" s="90">
+        <v>123456789</v>
+      </c>
+      <c r="H2" s="90" t="s">
+        <v>585</v>
+      </c>
+      <c r="I2" s="90" t="s">
+        <v>586</v>
+      </c>
+      <c r="J2" s="90">
+        <v>987654321</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>575</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
+        <v>588</v>
+      </c>
+      <c r="B2" s="90">
+        <v>97412345690</v>
+      </c>
+      <c r="C2" s="90">
+        <v>987654321</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
+        <v>589</v>
+      </c>
+      <c r="B2" s="90">
+        <v>97412345690</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="21.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>590</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>591</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>592</v>
+      </c>
+      <c r="E1" s="91" t="s">
+        <v>593</v>
+      </c>
+      <c r="F1" s="91" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
+        <v>595</v>
+      </c>
+      <c r="B2" s="90" t="s">
+        <v>596</v>
+      </c>
+      <c r="C2" s="90" t="s">
+        <v>597</v>
+      </c>
+      <c r="D2" s="90" t="s">
+        <v>598</v>
+      </c>
+      <c r="E2" s="90" t="s">
+        <v>599</v>
+      </c>
+      <c r="F2" s="90" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="91"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="90"/>
+      <c r="E8" s="91"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="90"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="http://www.google.com/"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
+        <v>601</v>
+      </c>
+      <c r="B2" s="90" t="s">
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -19596,4 +20036,204 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
+        <v>603</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>574</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>604</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>605</v>
+      </c>
+      <c r="E1" s="91" t="s">
+        <v>606</v>
+      </c>
+      <c r="F1" s="91" t="s">
+        <v>607</v>
+      </c>
+      <c r="G1" s="91" t="s">
+        <v>608</v>
+      </c>
+      <c r="H1" s="91" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
+        <v>610</v>
+      </c>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90" t="s">
+        <v>611</v>
+      </c>
+      <c r="D2" s="90" t="s">
+        <v>612</v>
+      </c>
+      <c r="E2" s="90" t="s">
+        <v>584</v>
+      </c>
+      <c r="F2" s="90" t="s">
+        <v>613</v>
+      </c>
+      <c r="G2" s="90" t="s">
+        <v>613</v>
+      </c>
+      <c r="H2" s="90" t="s">
+        <v>614</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="mailto:maveric@4"/>
+    <hyperlink ref="G2" r:id="rId2" display="mailto:maveric@4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>607</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>608</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
+        <v>615</v>
+      </c>
+      <c r="B2" s="90" t="s">
+        <v>616</v>
+      </c>
+      <c r="C2" s="90" t="s">
+        <v>616</v>
+      </c>
+      <c r="D2" s="90" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="100"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="103"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="mailto:portalpassword@1"/>
+    <hyperlink ref="C2" r:id="rId2" display="mailto:portalpassword@1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="90"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="90"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800" activeTab="91"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="800" firstSheet="39" activeTab="42"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -2598,16 +2598,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7943,10 +7943,10 @@
       <c r="H2" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="I2" s="101" t="s">
+      <c r="I2" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="101"/>
+      <c r="J2" s="103"/>
       <c r="K2" s="53" t="s">
         <v>44</v>
       </c>
@@ -7960,10 +7960,10 @@
       <c r="O2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="Q2" s="101" t="s">
+      <c r="Q2" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="R2" s="101"/>
+      <c r="R2" s="103"/>
       <c r="U2" s="53" t="s">
         <v>70</v>
       </c>
@@ -9110,10 +9110,10 @@
       <c r="H2" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="I2" s="101" t="s">
+      <c r="I2" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="101"/>
+      <c r="J2" s="103"/>
       <c r="K2" s="53" t="s">
         <v>44</v>
       </c>
@@ -9127,10 +9127,10 @@
       <c r="O2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="Q2" s="101" t="s">
+      <c r="Q2" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="R2" s="101"/>
+      <c r="R2" s="103"/>
       <c r="U2" s="53" t="s">
         <v>70</v>
       </c>
@@ -11169,8 +11169,8 @@
   <sheetPr codeName="Sheet39"/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11785,11 +11785,11 @@
       <c r="D2" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="101" t="s">
+      <c r="E2" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
       <c r="H2" s="93"/>
       <c r="J2" s="90" t="s">
         <v>349</v>
@@ -13581,11 +13581,11 @@
       <c r="E2" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="F2" s="101" t="s">
+      <c r="F2" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
@@ -13594,11 +13594,11 @@
       <c r="E3" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="F3" s="102" t="s">
+      <c r="F3" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
@@ -13607,11 +13607,11 @@
       <c r="E4" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="F4" s="102" t="s">
+      <c r="F4" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -15905,10 +15905,10 @@
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
-      <c r="G2" s="101" t="s">
+      <c r="G2" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="101"/>
+      <c r="H2" s="103"/>
       <c r="I2" s="95" t="s">
         <v>44</v>
       </c>
@@ -16212,10 +16212,10 @@
       <c r="AH5"/>
       <c r="AI5"/>
       <c r="AJ5"/>
-      <c r="AK5" s="102" t="s">
+      <c r="AK5" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="AL5" s="102"/>
+      <c r="AL5" s="104"/>
       <c r="AM5"/>
       <c r="AN5"/>
       <c r="AO5" s="95" t="s">
@@ -16336,11 +16336,11 @@
       <c r="AL7"/>
       <c r="AM7"/>
       <c r="AN7"/>
-      <c r="AO7" s="102" t="s">
+      <c r="AO7" s="104" t="s">
         <v>106</v>
       </c>
-      <c r="AP7" s="102"/>
-      <c r="AQ7" s="102"/>
+      <c r="AP7" s="104"/>
+      <c r="AQ7" s="104"/>
       <c r="AR7"/>
       <c r="AS7"/>
       <c r="AT7"/>
@@ -20149,7 +20149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -20191,9 +20191,9 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="100"/>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="103"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="101"/>
     </row>
   </sheetData>
   <hyperlinks>
